--- a/data-raw/abs/6401.0/640106.xlsx
+++ b/data-raw/abs/6401.0/640106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AUSSTATS\6401_ETS_xls\MarQtr22\2nd run\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\6401_ETS_xls\JunQtr22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EF4DA-1818-45EA-85DB-8BE24205EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB7568-371B-4286-BA59-E5B63BCF7791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,400 +18,412 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124984971F">Data1!$DY$1:$DY$10,Data1!$DY$239:$DY$305</definedName>
-    <definedName name="A124984971F_Data">Data1!$DY$239:$DY$305</definedName>
-    <definedName name="A124984971F_Latest">Data1!$DY$305</definedName>
-    <definedName name="A124984980J">Data1!$DZ$1:$DZ$10,Data1!$DZ$239:$DZ$305</definedName>
-    <definedName name="A124984980J_Data">Data1!$DZ$239:$DZ$305</definedName>
-    <definedName name="A124984980J_Latest">Data1!$DZ$305</definedName>
-    <definedName name="A124984989C">Data1!$EA$1:$EA$10,Data1!$EA$239:$EA$305</definedName>
-    <definedName name="A124984989C_Data">Data1!$EA$239:$EA$305</definedName>
-    <definedName name="A124984989C_Latest">Data1!$EA$305</definedName>
-    <definedName name="A2325846C">Data1!$B$1:$B$10,Data1!$B$11:$B$305</definedName>
-    <definedName name="A2325846C_Data">Data1!$B$11:$B$305</definedName>
-    <definedName name="A2325846C_Latest">Data1!$B$305</definedName>
-    <definedName name="A2325847F">Data1!$BD$1:$BD$10,Data1!$BD$15:$BD$305</definedName>
-    <definedName name="A2325847F_Data">Data1!$BD$15:$BD$305</definedName>
-    <definedName name="A2325847F_Latest">Data1!$BD$305</definedName>
-    <definedName name="A2325850V">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$305</definedName>
-    <definedName name="A2325850V_Data">Data1!$AC$12:$AC$305</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AC$305</definedName>
-    <definedName name="A2330526L">Data1!$F$1:$F$10,Data1!$F$210:$F$305</definedName>
-    <definedName name="A2330526L_Data">Data1!$F$210:$F$305</definedName>
-    <definedName name="A2330526L_Latest">Data1!$F$305</definedName>
-    <definedName name="A2330527R">Data1!$BH$1:$BH$10,Data1!$BH$214:$BH$305</definedName>
-    <definedName name="A2330527R_Data">Data1!$BH$214:$BH$305</definedName>
-    <definedName name="A2330527R_Latest">Data1!$BH$305</definedName>
-    <definedName name="A2330530C">Data1!$AG$1:$AG$10,Data1!$AG$211:$AG$305</definedName>
-    <definedName name="A2330530C_Data">Data1!$AG$211:$AG$305</definedName>
-    <definedName name="A2330530C_Latest">Data1!$AG$305</definedName>
-    <definedName name="A2330571X">Data1!$G$1:$G$10,Data1!$G$210:$G$305</definedName>
-    <definedName name="A2330571X_Data">Data1!$G$210:$G$305</definedName>
-    <definedName name="A2330571X_Latest">Data1!$G$305</definedName>
-    <definedName name="A2330572A">Data1!$BI$1:$BI$10,Data1!$BI$214:$BI$305</definedName>
-    <definedName name="A2330572A_Data">Data1!$BI$214:$BI$305</definedName>
-    <definedName name="A2330572A_Latest">Data1!$BI$305</definedName>
-    <definedName name="A2330575J">Data1!$AH$1:$AH$10,Data1!$AH$211:$AH$305</definedName>
-    <definedName name="A2330575J_Data">Data1!$AH$211:$AH$305</definedName>
-    <definedName name="A2330575J_Latest">Data1!$AH$305</definedName>
-    <definedName name="A2330616T">Data1!$H$1:$H$10,Data1!$H$115:$H$305</definedName>
-    <definedName name="A2330616T_Data">Data1!$H$115:$H$305</definedName>
-    <definedName name="A2330616T_Latest">Data1!$H$305</definedName>
-    <definedName name="A2330617V">Data1!$BJ$1:$BJ$10,Data1!$BJ$119:$BJ$305</definedName>
-    <definedName name="A2330617V_Data">Data1!$BJ$119:$BJ$305</definedName>
-    <definedName name="A2330617V_Latest">Data1!$BJ$305</definedName>
-    <definedName name="A2330620J">Data1!$AI$1:$AI$10,Data1!$AI$116:$AI$305</definedName>
-    <definedName name="A2330620J_Data">Data1!$AI$116:$AI$305</definedName>
-    <definedName name="A2330620J_Latest">Data1!$AI$305</definedName>
-    <definedName name="A2330661C">Data1!$K$1:$K$10,Data1!$K$164:$K$305</definedName>
-    <definedName name="A2330661C_Data">Data1!$K$164:$K$305</definedName>
-    <definedName name="A2330661C_Latest">Data1!$K$305</definedName>
-    <definedName name="A2330662F">Data1!$BM$1:$BM$10,Data1!$BM$168:$BM$305</definedName>
-    <definedName name="A2330662F_Data">Data1!$BM$168:$BM$305</definedName>
-    <definedName name="A2330662F_Latest">Data1!$BM$305</definedName>
-    <definedName name="A2330665L">Data1!$AL$1:$AL$10,Data1!$AL$165:$AL$305</definedName>
-    <definedName name="A2330665L_Data">Data1!$AL$165:$AL$305</definedName>
-    <definedName name="A2330665L_Latest">Data1!$AL$305</definedName>
-    <definedName name="A2330706W">Data1!$I$1:$I$10,Data1!$I$115:$I$305</definedName>
-    <definedName name="A2330706W_Data">Data1!$I$115:$I$305</definedName>
-    <definedName name="A2330706W_Latest">Data1!$I$305</definedName>
-    <definedName name="A2330707X">Data1!$BK$1:$BK$10,Data1!$BK$119:$BK$305</definedName>
-    <definedName name="A2330707X_Data">Data1!$BK$119:$BK$305</definedName>
-    <definedName name="A2330707X_Latest">Data1!$BK$305</definedName>
-    <definedName name="A2330710L">Data1!$AJ$1:$AJ$10,Data1!$AJ$116:$AJ$305</definedName>
-    <definedName name="A2330710L_Data">Data1!$AJ$116:$AJ$305</definedName>
-    <definedName name="A2330710L_Latest">Data1!$AJ$305</definedName>
-    <definedName name="A2330751J">Data1!$L$1:$L$10,Data1!$L$164:$L$305</definedName>
-    <definedName name="A2330751J_Data">Data1!$L$164:$L$305</definedName>
-    <definedName name="A2330751J_Latest">Data1!$L$305</definedName>
-    <definedName name="A2330752K">Data1!$BN$1:$BN$10,Data1!$BN$168:$BN$305</definedName>
-    <definedName name="A2330752K_Data">Data1!$BN$168:$BN$305</definedName>
-    <definedName name="A2330752K_Latest">Data1!$BN$305</definedName>
-    <definedName name="A2330755T">Data1!$AM$1:$AM$10,Data1!$AM$165:$AM$305</definedName>
-    <definedName name="A2330755T_Data">Data1!$AM$165:$AM$305</definedName>
-    <definedName name="A2330755T_Latest">Data1!$AM$305</definedName>
-    <definedName name="A2330796L">Data1!$M$1:$M$10,Data1!$M$164:$M$305</definedName>
-    <definedName name="A2330796L_Data">Data1!$M$164:$M$305</definedName>
-    <definedName name="A2330796L_Latest">Data1!$M$305</definedName>
-    <definedName name="A2330797R">Data1!$BO$1:$BO$10,Data1!$BO$168:$BO$305</definedName>
-    <definedName name="A2330797R_Data">Data1!$BO$168:$BO$305</definedName>
-    <definedName name="A2330797R_Latest">Data1!$BO$305</definedName>
-    <definedName name="A2330800T">Data1!$AN$1:$AN$10,Data1!$AN$165:$AN$305</definedName>
-    <definedName name="A2330800T_Data">Data1!$AN$165:$AN$305</definedName>
-    <definedName name="A2330800T_Latest">Data1!$AN$305</definedName>
-    <definedName name="A2330841L">Data1!$AB$1:$AB$10,Data1!$AB$164:$AB$305</definedName>
-    <definedName name="A2330841L_Data">Data1!$AB$164:$AB$305</definedName>
-    <definedName name="A2330841L_Latest">Data1!$AB$305</definedName>
-    <definedName name="A2330842R">Data1!$CD$1:$CD$10,Data1!$CD$168:$CD$305</definedName>
-    <definedName name="A2330842R_Data">Data1!$CD$168:$CD$305</definedName>
-    <definedName name="A2330842R_Latest">Data1!$CD$305</definedName>
-    <definedName name="A2330845W">Data1!$BC$1:$BC$10,Data1!$BC$165:$BC$305</definedName>
-    <definedName name="A2330845W_Data">Data1!$BC$165:$BC$305</definedName>
-    <definedName name="A2330845W_Latest">Data1!$BC$305</definedName>
-    <definedName name="A2332101T">Data1!$N$1:$N$10,Data1!$N$107:$N$305</definedName>
-    <definedName name="A2332101T_Data">Data1!$N$107:$N$305</definedName>
-    <definedName name="A2332101T_Latest">Data1!$N$305</definedName>
-    <definedName name="A2332102V">Data1!$BP$1:$BP$10,Data1!$BP$111:$BP$305</definedName>
-    <definedName name="A2332102V_Data">Data1!$BP$111:$BP$305</definedName>
-    <definedName name="A2332102V_Latest">Data1!$BP$305</definedName>
-    <definedName name="A2332105A">Data1!$AO$1:$AO$10,Data1!$AO$108:$AO$305</definedName>
-    <definedName name="A2332105A_Data">Data1!$AO$108:$AO$305</definedName>
-    <definedName name="A2332105A_Latest">Data1!$AO$305</definedName>
-    <definedName name="A2332146W">Data1!$O$1:$O$10,Data1!$O$139:$O$305</definedName>
-    <definedName name="A2332146W_Data">Data1!$O$139:$O$305</definedName>
-    <definedName name="A2332146W_Latest">Data1!$O$305</definedName>
-    <definedName name="A2332147X">Data1!$BQ$1:$BQ$10,Data1!$BQ$143:$BQ$305</definedName>
-    <definedName name="A2332147X_Data">Data1!$BQ$143:$BQ$305</definedName>
-    <definedName name="A2332147X_Latest">Data1!$BQ$305</definedName>
-    <definedName name="A2332150L">Data1!$AP$1:$AP$10,Data1!$AP$140:$AP$305</definedName>
-    <definedName name="A2332150L_Data">Data1!$AP$140:$AP$305</definedName>
-    <definedName name="A2332150L_Latest">Data1!$AP$305</definedName>
-    <definedName name="A2332191J">Data1!$P$1:$P$10,Data1!$P$139:$P$305</definedName>
-    <definedName name="A2332191J_Data">Data1!$P$139:$P$305</definedName>
-    <definedName name="A2332191J_Latest">Data1!$P$305</definedName>
-    <definedName name="A2332192K">Data1!$BR$1:$BR$10,Data1!$BR$143:$BR$305</definedName>
-    <definedName name="A2332192K_Data">Data1!$BR$143:$BR$305</definedName>
-    <definedName name="A2332192K_Latest">Data1!$BR$305</definedName>
-    <definedName name="A2332195T">Data1!$AQ$1:$AQ$10,Data1!$AQ$140:$AQ$305</definedName>
-    <definedName name="A2332195T_Data">Data1!$AQ$140:$AQ$305</definedName>
-    <definedName name="A2332195T_Latest">Data1!$AQ$305</definedName>
-    <definedName name="A2332236A">Data1!$Q$1:$Q$10,Data1!$Q$107:$Q$305</definedName>
-    <definedName name="A2332236A_Data">Data1!$Q$107:$Q$305</definedName>
-    <definedName name="A2332236A_Latest">Data1!$Q$305</definedName>
-    <definedName name="A2332237C">Data1!$BS$1:$BS$10,Data1!$BS$111:$BS$305</definedName>
-    <definedName name="A2332237C_Data">Data1!$BS$111:$BS$305</definedName>
-    <definedName name="A2332237C_Latest">Data1!$BS$305</definedName>
-    <definedName name="A2332240T">Data1!$AR$1:$AR$10,Data1!$AR$108:$AR$305</definedName>
-    <definedName name="A2332240T_Data">Data1!$AR$108:$AR$305</definedName>
-    <definedName name="A2332240T_Latest">Data1!$AR$305</definedName>
-    <definedName name="A2332281L">Data1!$R$1:$R$10,Data1!$R$139:$R$305</definedName>
-    <definedName name="A2332281L_Data">Data1!$R$139:$R$305</definedName>
-    <definedName name="A2332281L_Latest">Data1!$R$305</definedName>
-    <definedName name="A2332282R">Data1!$BT$1:$BT$10,Data1!$BT$143:$BT$305</definedName>
-    <definedName name="A2332282R_Data">Data1!$BT$143:$BT$305</definedName>
-    <definedName name="A2332282R_Latest">Data1!$BT$305</definedName>
-    <definedName name="A2332285W">Data1!$AS$1:$AS$10,Data1!$AS$140:$AS$305</definedName>
-    <definedName name="A2332285W_Data">Data1!$AS$140:$AS$305</definedName>
-    <definedName name="A2332285W_Latest">Data1!$AS$305</definedName>
-    <definedName name="A2332326F">Data1!$S$1:$S$10,Data1!$S$175:$S$305</definedName>
-    <definedName name="A2332326F_Data">Data1!$S$175:$S$305</definedName>
-    <definedName name="A2332326F_Latest">Data1!$S$305</definedName>
-    <definedName name="A2332327J">Data1!$BU$1:$BU$10,Data1!$BU$179:$BU$305</definedName>
-    <definedName name="A2332327J_Data">Data1!$BU$179:$BU$305</definedName>
-    <definedName name="A2332327J_Latest">Data1!$BU$305</definedName>
-    <definedName name="A2332330W">Data1!$AT$1:$AT$10,Data1!$AT$176:$AT$305</definedName>
-    <definedName name="A2332330W_Data">Data1!$AT$176:$AT$305</definedName>
-    <definedName name="A2332330W_Latest">Data1!$AT$305</definedName>
-    <definedName name="A2332371T">Data1!$T$1:$T$10,Data1!$T$139:$T$305</definedName>
-    <definedName name="A2332371T_Data">Data1!$T$139:$T$305</definedName>
-    <definedName name="A2332371T_Latest">Data1!$T$305</definedName>
-    <definedName name="A2332372V">Data1!$BV$1:$BV$10,Data1!$BV$143:$BV$305</definedName>
-    <definedName name="A2332372V_Data">Data1!$BV$143:$BV$305</definedName>
-    <definedName name="A2332372V_Latest">Data1!$BV$305</definedName>
-    <definedName name="A2332375A">Data1!$AU$1:$AU$10,Data1!$AU$140:$AU$305</definedName>
-    <definedName name="A2332375A_Data">Data1!$AU$140:$AU$305</definedName>
-    <definedName name="A2332375A_Latest">Data1!$AU$305</definedName>
-    <definedName name="A2332416K">Data1!$U$1:$U$10,Data1!$U$175:$U$305</definedName>
-    <definedName name="A2332416K_Data">Data1!$U$175:$U$305</definedName>
-    <definedName name="A2332416K_Latest">Data1!$U$305</definedName>
-    <definedName name="A2332417L">Data1!$BW$1:$BW$10,Data1!$BW$179:$BW$305</definedName>
-    <definedName name="A2332417L_Data">Data1!$BW$179:$BW$305</definedName>
-    <definedName name="A2332417L_Latest">Data1!$BW$305</definedName>
-    <definedName name="A2332420A">Data1!$AV$1:$AV$10,Data1!$AV$176:$AV$305</definedName>
-    <definedName name="A2332420A_Data">Data1!$AV$176:$AV$305</definedName>
-    <definedName name="A2332420A_Latest">Data1!$AV$305</definedName>
-    <definedName name="A2332461W">Data1!$V$1:$V$10,Data1!$V$175:$V$305</definedName>
-    <definedName name="A2332461W_Data">Data1!$V$175:$V$305</definedName>
-    <definedName name="A2332461W_Latest">Data1!$V$305</definedName>
-    <definedName name="A2332462X">Data1!$BX$1:$BX$10,Data1!$BX$179:$BX$305</definedName>
-    <definedName name="A2332462X_Data">Data1!$BX$179:$BX$305</definedName>
-    <definedName name="A2332462X_Latest">Data1!$BX$305</definedName>
-    <definedName name="A2332465F">Data1!$AW$1:$AW$10,Data1!$AW$176:$AW$305</definedName>
-    <definedName name="A2332465F_Data">Data1!$AW$176:$AW$305</definedName>
-    <definedName name="A2332465F_Latest">Data1!$AW$305</definedName>
-    <definedName name="A2332506R">Data1!$W$1:$W$10,Data1!$W$175:$W$305</definedName>
-    <definedName name="A2332506R_Data">Data1!$W$175:$W$305</definedName>
-    <definedName name="A2332506R_Latest">Data1!$W$305</definedName>
-    <definedName name="A2332507T">Data1!$BY$1:$BY$10,Data1!$BY$179:$BY$305</definedName>
-    <definedName name="A2332507T_Data">Data1!$BY$179:$BY$305</definedName>
-    <definedName name="A2332507T_Latest">Data1!$BY$305</definedName>
-    <definedName name="A2332510F">Data1!$AX$1:$AX$10,Data1!$AX$176:$AX$305</definedName>
-    <definedName name="A2332510F_Data">Data1!$AX$176:$AX$305</definedName>
-    <definedName name="A2332510F_Latest">Data1!$AX$305</definedName>
-    <definedName name="A2332551A">Data1!$Z$1:$Z$10,Data1!$Z$106:$Z$305</definedName>
-    <definedName name="A2332551A_Data">Data1!$Z$106:$Z$305</definedName>
-    <definedName name="A2332551A_Latest">Data1!$Z$305</definedName>
-    <definedName name="A2332552C">Data1!$CB$1:$CB$10,Data1!$CB$110:$CB$305</definedName>
-    <definedName name="A2332552C_Data">Data1!$CB$110:$CB$305</definedName>
-    <definedName name="A2332552C_Latest">Data1!$CB$305</definedName>
-    <definedName name="A2332555K">Data1!$BA$1:$BA$10,Data1!$BA$107:$BA$305</definedName>
-    <definedName name="A2332555K_Data">Data1!$BA$107:$BA$305</definedName>
-    <definedName name="A2332555K_Latest">Data1!$BA$305</definedName>
-    <definedName name="A2332641F">Data1!$X$1:$X$10,Data1!$X$175:$X$305</definedName>
-    <definedName name="A2332641F_Data">Data1!$X$175:$X$305</definedName>
-    <definedName name="A2332641F_Latest">Data1!$X$305</definedName>
-    <definedName name="A2332642J">Data1!$BZ$1:$BZ$10,Data1!$BZ$179:$BZ$305</definedName>
-    <definedName name="A2332642J_Data">Data1!$BZ$179:$BZ$305</definedName>
-    <definedName name="A2332642J_Latest">Data1!$BZ$305</definedName>
-    <definedName name="A2332645R">Data1!$AY$1:$AY$10,Data1!$AY$176:$AY$305</definedName>
-    <definedName name="A2332645R_Data">Data1!$AY$176:$AY$305</definedName>
-    <definedName name="A2332645R_Latest">Data1!$AY$305</definedName>
-    <definedName name="A2332686K">Data1!$Y$1:$Y$10,Data1!$Y$175:$Y$305</definedName>
-    <definedName name="A2332686K_Data">Data1!$Y$175:$Y$305</definedName>
-    <definedName name="A2332686K_Latest">Data1!$Y$305</definedName>
-    <definedName name="A2332687L">Data1!$CA$1:$CA$10,Data1!$CA$179:$CA$305</definedName>
-    <definedName name="A2332687L_Data">Data1!$CA$179:$CA$305</definedName>
-    <definedName name="A2332687L_Latest">Data1!$CA$305</definedName>
-    <definedName name="A2332690A">Data1!$AZ$1:$AZ$10,Data1!$AZ$176:$AZ$305</definedName>
-    <definedName name="A2332690A_Data">Data1!$AZ$176:$AZ$305</definedName>
-    <definedName name="A2332690A_Latest">Data1!$AZ$305</definedName>
-    <definedName name="A3597525W">Data1!$CE$1:$CE$10,Data1!$CE$303:$CE$305</definedName>
-    <definedName name="A3597525W_Data">Data1!$CE$303:$CE$305</definedName>
-    <definedName name="A3597525W_Latest">Data1!$CE$305</definedName>
-    <definedName name="A3597526X">Data1!$DB$1:$DB$10,Data1!$DB$304:$DB$305</definedName>
-    <definedName name="A3597526X_Data">Data1!$DB$304:$DB$305</definedName>
-    <definedName name="A3597526X_Latest">Data1!$DB$305</definedName>
-    <definedName name="A3601620F">Data1!$CF$1:$CF$10,Data1!$CF$303:$CF$305</definedName>
-    <definedName name="A3601620F_Data">Data1!$CF$303:$CF$305</definedName>
-    <definedName name="A3601620F_Latest">Data1!$CF$305</definedName>
-    <definedName name="A3601621J">Data1!$DC$1:$DC$10,Data1!$DC$303:$DC$305</definedName>
-    <definedName name="A3601621J_Data">Data1!$DC$303:$DC$305</definedName>
-    <definedName name="A3601621J_Latest">Data1!$DC$305</definedName>
-    <definedName name="A3601665K">Data1!$CG$1:$CG$10,Data1!$CG$303:$CG$305</definedName>
-    <definedName name="A3601665K_Data">Data1!$CG$303:$CG$305</definedName>
-    <definedName name="A3601665K_Latest">Data1!$CG$305</definedName>
-    <definedName name="A3601666L">Data1!$DD$1:$DD$10,Data1!$DD$303:$DD$305</definedName>
-    <definedName name="A3601666L_Data">Data1!$DD$303:$DD$305</definedName>
-    <definedName name="A3601666L_Latest">Data1!$DD$305</definedName>
-    <definedName name="A3601710K">Data1!$CH$1:$CH$10,Data1!$CH$303:$CH$305</definedName>
-    <definedName name="A3601710K_Data">Data1!$CH$303:$CH$305</definedName>
-    <definedName name="A3601710K_Latest">Data1!$CH$305</definedName>
-    <definedName name="A3601711L">Data1!$DE$1:$DE$10,Data1!$DE$303:$DE$305</definedName>
-    <definedName name="A3601711L_Data">Data1!$DE$303:$DE$305</definedName>
-    <definedName name="A3601711L_Latest">Data1!$DE$305</definedName>
-    <definedName name="A3601755R">Data1!$CJ$1:$CJ$10,Data1!$CJ$303:$CJ$305</definedName>
-    <definedName name="A3601755R_Data">Data1!$CJ$303:$CJ$305</definedName>
-    <definedName name="A3601755R_Latest">Data1!$CJ$305</definedName>
-    <definedName name="A3601756T">Data1!$DG$1:$DG$10,Data1!$DG$303:$DG$305</definedName>
-    <definedName name="A3601756T_Data">Data1!$DG$303:$DG$305</definedName>
-    <definedName name="A3601756T_Latest">Data1!$DG$305</definedName>
-    <definedName name="A3601800R">Data1!$CI$1:$CI$10,Data1!$CI$303:$CI$305</definedName>
-    <definedName name="A3601800R_Data">Data1!$CI$303:$CI$305</definedName>
-    <definedName name="A3601800R_Latest">Data1!$CI$305</definedName>
-    <definedName name="A3601801T">Data1!$DF$1:$DF$10,Data1!$DF$303:$DF$305</definedName>
-    <definedName name="A3601801T_Data">Data1!$DF$303:$DF$305</definedName>
-    <definedName name="A3601801T_Latest">Data1!$DF$305</definedName>
-    <definedName name="A3601845V">Data1!$CK$1:$CK$10,Data1!$CK$303:$CK$305</definedName>
-    <definedName name="A3601845V_Data">Data1!$CK$303:$CK$305</definedName>
-    <definedName name="A3601845V_Latest">Data1!$CK$305</definedName>
-    <definedName name="A3601846W">Data1!$DH$1:$DH$10,Data1!$DH$303:$DH$305</definedName>
-    <definedName name="A3601846W_Data">Data1!$DH$303:$DH$305</definedName>
-    <definedName name="A3601846W_Latest">Data1!$DH$305</definedName>
-    <definedName name="A3601890F">Data1!$CL$1:$CL$10,Data1!$CL$303:$CL$305</definedName>
-    <definedName name="A3601890F_Data">Data1!$CL$303:$CL$305</definedName>
-    <definedName name="A3601890F_Latest">Data1!$CL$305</definedName>
-    <definedName name="A3601891J">Data1!$DI$1:$DI$10,Data1!$DI$303:$DI$305</definedName>
-    <definedName name="A3601891J_Data">Data1!$DI$303:$DI$305</definedName>
-    <definedName name="A3601891J_Latest">Data1!$DI$305</definedName>
-    <definedName name="A3601935X">Data1!$DA$1:$DA$10,Data1!$DA$303:$DA$305</definedName>
-    <definedName name="A3601935X_Data">Data1!$DA$303:$DA$305</definedName>
-    <definedName name="A3601935X_Latest">Data1!$DA$305</definedName>
-    <definedName name="A3601936A">Data1!$DX$1:$DX$10,Data1!$DX$303:$DX$305</definedName>
-    <definedName name="A3601936A_Data">Data1!$DX$303:$DX$305</definedName>
-    <definedName name="A3601936A_Latest">Data1!$DX$305</definedName>
-    <definedName name="A3602925L">Data1!$CM$1:$CM$10,Data1!$CM$303:$CM$305</definedName>
-    <definedName name="A3602925L_Data">Data1!$CM$303:$CM$305</definedName>
-    <definedName name="A3602925L_Latest">Data1!$CM$305</definedName>
-    <definedName name="A3602926R">Data1!$DJ$1:$DJ$10,Data1!$DJ$303:$DJ$305</definedName>
-    <definedName name="A3602926R_Data">Data1!$DJ$303:$DJ$305</definedName>
-    <definedName name="A3602926R_Latest">Data1!$DJ$305</definedName>
-    <definedName name="A3602970X">Data1!$CN$1:$CN$10,Data1!$CN$303:$CN$305</definedName>
-    <definedName name="A3602970X_Data">Data1!$CN$303:$CN$305</definedName>
-    <definedName name="A3602970X_Latest">Data1!$CN$305</definedName>
-    <definedName name="A3602971A">Data1!$DK$1:$DK$10,Data1!$DK$303:$DK$305</definedName>
-    <definedName name="A3602971A_Data">Data1!$DK$303:$DK$305</definedName>
-    <definedName name="A3602971A_Latest">Data1!$DK$305</definedName>
-    <definedName name="A3603015V">Data1!$CO$1:$CO$10,Data1!$CO$303:$CO$305</definedName>
-    <definedName name="A3603015V_Data">Data1!$CO$303:$CO$305</definedName>
-    <definedName name="A3603015V_Latest">Data1!$CO$305</definedName>
-    <definedName name="A3603016W">Data1!$DL$1:$DL$10,Data1!$DL$303:$DL$305</definedName>
-    <definedName name="A3603016W_Data">Data1!$DL$303:$DL$305</definedName>
-    <definedName name="A3603016W_Latest">Data1!$DL$305</definedName>
-    <definedName name="A3603060F">Data1!$CP$1:$CP$10,Data1!$CP$303:$CP$305</definedName>
-    <definedName name="A3603060F_Data">Data1!$CP$303:$CP$305</definedName>
-    <definedName name="A3603060F_Latest">Data1!$CP$305</definedName>
-    <definedName name="A3603061J">Data1!$DM$1:$DM$10,Data1!$DM$303:$DM$305</definedName>
-    <definedName name="A3603061J_Data">Data1!$DM$303:$DM$305</definedName>
-    <definedName name="A3603061J_Latest">Data1!$DM$305</definedName>
-    <definedName name="A3603105X">Data1!$CQ$1:$CQ$10,Data1!$CQ$303:$CQ$305</definedName>
-    <definedName name="A3603105X_Data">Data1!$CQ$303:$CQ$305</definedName>
-    <definedName name="A3603105X_Latest">Data1!$CQ$305</definedName>
-    <definedName name="A3603106A">Data1!$DN$1:$DN$10,Data1!$DN$303:$DN$305</definedName>
-    <definedName name="A3603106A_Data">Data1!$DN$303:$DN$305</definedName>
-    <definedName name="A3603106A_Latest">Data1!$DN$305</definedName>
-    <definedName name="A3603150K">Data1!$CR$1:$CR$10,Data1!$CR$303:$CR$305</definedName>
-    <definedName name="A3603150K_Data">Data1!$CR$303:$CR$305</definedName>
-    <definedName name="A3603150K_Latest">Data1!$CR$305</definedName>
-    <definedName name="A3603151L">Data1!$DO$1:$DO$10,Data1!$DO$303:$DO$305</definedName>
-    <definedName name="A3603151L_Data">Data1!$DO$303:$DO$305</definedName>
-    <definedName name="A3603151L_Latest">Data1!$DO$305</definedName>
-    <definedName name="A3603195R">Data1!$CS$1:$CS$10,Data1!$CS$303:$CS$305</definedName>
-    <definedName name="A3603195R_Data">Data1!$CS$303:$CS$305</definedName>
-    <definedName name="A3603195R_Latest">Data1!$CS$305</definedName>
-    <definedName name="A3603196T">Data1!$DP$1:$DP$10,Data1!$DP$303:$DP$305</definedName>
-    <definedName name="A3603196T_Data">Data1!$DP$303:$DP$305</definedName>
-    <definedName name="A3603196T_Latest">Data1!$DP$305</definedName>
-    <definedName name="A3603240R">Data1!$CT$1:$CT$10,Data1!$CT$303:$CT$305</definedName>
-    <definedName name="A3603240R_Data">Data1!$CT$303:$CT$305</definedName>
-    <definedName name="A3603240R_Latest">Data1!$CT$305</definedName>
-    <definedName name="A3603241T">Data1!$DQ$1:$DQ$10,Data1!$DQ$303:$DQ$305</definedName>
-    <definedName name="A3603241T_Data">Data1!$DQ$303:$DQ$305</definedName>
-    <definedName name="A3603241T_Latest">Data1!$DQ$305</definedName>
-    <definedName name="A3603285V">Data1!$CU$1:$CU$10,Data1!$CU$303:$CU$305</definedName>
-    <definedName name="A3603285V_Data">Data1!$CU$303:$CU$305</definedName>
-    <definedName name="A3603285V_Latest">Data1!$CU$305</definedName>
-    <definedName name="A3603286W">Data1!$DR$1:$DR$10,Data1!$DR$303:$DR$305</definedName>
-    <definedName name="A3603286W_Data">Data1!$DR$303:$DR$305</definedName>
-    <definedName name="A3603286W_Latest">Data1!$DR$305</definedName>
-    <definedName name="A3603330V">Data1!$CV$1:$CV$10,Data1!$CV$303:$CV$305</definedName>
-    <definedName name="A3603330V_Data">Data1!$CV$303:$CV$305</definedName>
-    <definedName name="A3603330V_Latest">Data1!$CV$305</definedName>
-    <definedName name="A3603331W">Data1!$DS$1:$DS$10,Data1!$DS$303:$DS$305</definedName>
-    <definedName name="A3603331W_Data">Data1!$DS$303:$DS$305</definedName>
-    <definedName name="A3603331W_Latest">Data1!$DS$305</definedName>
-    <definedName name="A3603375X">Data1!$CY$1:$CY$10,Data1!$CY$303:$CY$305</definedName>
-    <definedName name="A3603375X_Data">Data1!$CY$303:$CY$305</definedName>
-    <definedName name="A3603375X_Latest">Data1!$CY$305</definedName>
-    <definedName name="A3603376A">Data1!$DV$1:$DV$10,Data1!$DV$303:$DV$305</definedName>
-    <definedName name="A3603376A_Data">Data1!$DV$303:$DV$305</definedName>
-    <definedName name="A3603376A_Latest">Data1!$DV$305</definedName>
-    <definedName name="A3603465C">Data1!$CW$1:$CW$10,Data1!$CW$303:$CW$305</definedName>
-    <definedName name="A3603465C_Data">Data1!$CW$303:$CW$305</definedName>
-    <definedName name="A3603465C_Latest">Data1!$CW$305</definedName>
-    <definedName name="A3603466F">Data1!$DT$1:$DT$10,Data1!$DT$303:$DT$305</definedName>
-    <definedName name="A3603466F_Data">Data1!$DT$303:$DT$305</definedName>
-    <definedName name="A3603466F_Latest">Data1!$DT$305</definedName>
-    <definedName name="A3603510C">Data1!$CX$1:$CX$10,Data1!$CX$303:$CX$305</definedName>
-    <definedName name="A3603510C_Data">Data1!$CX$303:$CX$305</definedName>
-    <definedName name="A3603510C_Latest">Data1!$CX$305</definedName>
-    <definedName name="A3603511F">Data1!$DU$1:$DU$10,Data1!$DU$303:$DU$305</definedName>
-    <definedName name="A3603511F_Data">Data1!$DU$303:$DU$305</definedName>
-    <definedName name="A3603511F_Latest">Data1!$DU$305</definedName>
-    <definedName name="A3604378X">Data1!$AA$1:$AA$10,Data1!$AA$175:$AA$305</definedName>
-    <definedName name="A3604378X_Data">Data1!$AA$175:$AA$305</definedName>
-    <definedName name="A3604378X_Latest">Data1!$AA$305</definedName>
-    <definedName name="A3604379A">Data1!$CC$1:$CC$10,Data1!$CC$175:$CC$305</definedName>
-    <definedName name="A3604379A_Data">Data1!$CC$175:$CC$305</definedName>
-    <definedName name="A3604379A_Latest">Data1!$CC$305</definedName>
-    <definedName name="A3604380K">Data1!$CZ$1:$CZ$10,Data1!$CZ$303:$CZ$305</definedName>
-    <definedName name="A3604380K_Data">Data1!$CZ$303:$CZ$305</definedName>
-    <definedName name="A3604380K_Latest">Data1!$CZ$305</definedName>
-    <definedName name="A3604381L">Data1!$DW$1:$DW$10,Data1!$DW$303:$DW$305</definedName>
-    <definedName name="A3604381L_Data">Data1!$DW$303:$DW$305</definedName>
-    <definedName name="A3604381L_Latest">Data1!$DW$305</definedName>
-    <definedName name="A3604382R">Data1!$BB$1:$BB$10,Data1!$BB$175:$BB$305</definedName>
-    <definedName name="A3604382R_Data">Data1!$BB$175:$BB$305</definedName>
-    <definedName name="A3604382R_Latest">Data1!$BB$305</definedName>
-    <definedName name="A3604398J">Data1!$J$1:$J$10,Data1!$J$11:$J$305</definedName>
-    <definedName name="A3604398J_Data">Data1!$J$11:$J$305</definedName>
-    <definedName name="A3604398J_Latest">Data1!$J$305</definedName>
-    <definedName name="A3604399K">Data1!$BL$1:$BL$10,Data1!$BL$15:$BL$305</definedName>
-    <definedName name="A3604399K_Data">Data1!$BL$15:$BL$305</definedName>
-    <definedName name="A3604399K_Latest">Data1!$BL$305</definedName>
-    <definedName name="A3604402L">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$305</definedName>
-    <definedName name="A3604402L_Data">Data1!$AK$12:$AK$305</definedName>
-    <definedName name="A3604402L_Latest">Data1!$AK$305</definedName>
-    <definedName name="A3604503X">Data1!$E$1:$E$10,Data1!$E$226:$E$305</definedName>
-    <definedName name="A3604503X_Data">Data1!$E$226:$E$305</definedName>
-    <definedName name="A3604503X_Latest">Data1!$E$305</definedName>
-    <definedName name="A3604504A">Data1!$AF$1:$AF$10,Data1!$AF$227:$AF$305</definedName>
-    <definedName name="A3604504A_Data">Data1!$AF$227:$AF$305</definedName>
-    <definedName name="A3604504A_Latest">Data1!$AF$305</definedName>
-    <definedName name="A3604505C">Data1!$BG$1:$BG$10,Data1!$BG$230:$BG$305</definedName>
-    <definedName name="A3604505C_Data">Data1!$BG$230:$BG$305</definedName>
-    <definedName name="A3604505C_Latest">Data1!$BG$305</definedName>
-    <definedName name="A3604506F">Data1!$C$1:$C$10,Data1!$C$164:$C$305</definedName>
-    <definedName name="A3604506F_Data">Data1!$C$164:$C$305</definedName>
-    <definedName name="A3604506F_Latest">Data1!$C$305</definedName>
-    <definedName name="A3604507J">Data1!$AD$1:$AD$10,Data1!$AD$165:$AD$305</definedName>
-    <definedName name="A3604507J_Data">Data1!$AD$165:$AD$305</definedName>
-    <definedName name="A3604507J_Latest">Data1!$AD$305</definedName>
-    <definedName name="A3604508K">Data1!$BE$1:$BE$10,Data1!$BE$168:$BE$305</definedName>
-    <definedName name="A3604508K_Data">Data1!$BE$168:$BE$305</definedName>
-    <definedName name="A3604508K_Latest">Data1!$BE$305</definedName>
-    <definedName name="A3604509L">Data1!$D$1:$D$10,Data1!$D$226:$D$305</definedName>
-    <definedName name="A3604509L_Data">Data1!$D$226:$D$305</definedName>
-    <definedName name="A3604509L_Latest">Data1!$D$305</definedName>
-    <definedName name="A3604510W">Data1!$AE$1:$AE$10,Data1!$AE$227:$AE$305</definedName>
-    <definedName name="A3604510W_Data">Data1!$AE$227:$AE$305</definedName>
-    <definedName name="A3604510W_Latest">Data1!$AE$305</definedName>
-    <definedName name="A3604511X">Data1!$BF$1:$BF$10,Data1!$BF$230:$BF$305</definedName>
-    <definedName name="A3604511X_Data">Data1!$BF$230:$BF$305</definedName>
-    <definedName name="A3604511X_Latest">Data1!$BF$305</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$305</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$305</definedName>
+    <definedName name="A124984971F">Data1!$DY$1:$DY$10,Data1!$DY$239:$DY$306</definedName>
+    <definedName name="A124984971F_Data">Data1!$DY$239:$DY$306</definedName>
+    <definedName name="A124984971F_Latest">Data1!$DY$306</definedName>
+    <definedName name="A124984980J">Data1!$DZ$1:$DZ$10,Data1!$DZ$239:$DZ$306</definedName>
+    <definedName name="A124984980J_Data">Data1!$DZ$239:$DZ$306</definedName>
+    <definedName name="A124984980J_Latest">Data1!$DZ$306</definedName>
+    <definedName name="A124984989C">Data1!$EA$1:$EA$10,Data1!$EA$239:$EA$306</definedName>
+    <definedName name="A124984989C_Data">Data1!$EA$239:$EA$306</definedName>
+    <definedName name="A124984989C_Latest">Data1!$EA$306</definedName>
+    <definedName name="A2325846C">Data1!$B$1:$B$10,Data1!$B$11:$B$306</definedName>
+    <definedName name="A2325846C_Data">Data1!$B$11:$B$306</definedName>
+    <definedName name="A2325846C_Latest">Data1!$B$306</definedName>
+    <definedName name="A2325847F">Data1!$BD$1:$BD$10,Data1!$BD$15:$BD$306</definedName>
+    <definedName name="A2325847F_Data">Data1!$BD$15:$BD$306</definedName>
+    <definedName name="A2325847F_Latest">Data1!$BD$306</definedName>
+    <definedName name="A2325850V">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$306</definedName>
+    <definedName name="A2325850V_Data">Data1!$AC$12:$AC$306</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AC$306</definedName>
+    <definedName name="A2330526L">Data1!$F$1:$F$10,Data1!$F$210:$F$306</definedName>
+    <definedName name="A2330526L_Data">Data1!$F$210:$F$306</definedName>
+    <definedName name="A2330526L_Latest">Data1!$F$306</definedName>
+    <definedName name="A2330527R">Data1!$BH$1:$BH$10,Data1!$BH$214:$BH$306</definedName>
+    <definedName name="A2330527R_Data">Data1!$BH$214:$BH$306</definedName>
+    <definedName name="A2330527R_Latest">Data1!$BH$306</definedName>
+    <definedName name="A2330530C">Data1!$AG$1:$AG$10,Data1!$AG$211:$AG$306</definedName>
+    <definedName name="A2330530C_Data">Data1!$AG$211:$AG$306</definedName>
+    <definedName name="A2330530C_Latest">Data1!$AG$306</definedName>
+    <definedName name="A2330571X">Data1!$G$1:$G$10,Data1!$G$210:$G$306</definedName>
+    <definedName name="A2330571X_Data">Data1!$G$210:$G$306</definedName>
+    <definedName name="A2330571X_Latest">Data1!$G$306</definedName>
+    <definedName name="A2330572A">Data1!$BI$1:$BI$10,Data1!$BI$214:$BI$306</definedName>
+    <definedName name="A2330572A_Data">Data1!$BI$214:$BI$306</definedName>
+    <definedName name="A2330572A_Latest">Data1!$BI$306</definedName>
+    <definedName name="A2330575J">Data1!$AH$1:$AH$10,Data1!$AH$211:$AH$306</definedName>
+    <definedName name="A2330575J_Data">Data1!$AH$211:$AH$306</definedName>
+    <definedName name="A2330575J_Latest">Data1!$AH$306</definedName>
+    <definedName name="A2330616T">Data1!$H$1:$H$10,Data1!$H$115:$H$306</definedName>
+    <definedName name="A2330616T_Data">Data1!$H$115:$H$306</definedName>
+    <definedName name="A2330616T_Latest">Data1!$H$306</definedName>
+    <definedName name="A2330617V">Data1!$BJ$1:$BJ$10,Data1!$BJ$119:$BJ$306</definedName>
+    <definedName name="A2330617V_Data">Data1!$BJ$119:$BJ$306</definedName>
+    <definedName name="A2330617V_Latest">Data1!$BJ$306</definedName>
+    <definedName name="A2330620J">Data1!$AI$1:$AI$10,Data1!$AI$116:$AI$306</definedName>
+    <definedName name="A2330620J_Data">Data1!$AI$116:$AI$306</definedName>
+    <definedName name="A2330620J_Latest">Data1!$AI$306</definedName>
+    <definedName name="A2330661C">Data1!$K$1:$K$10,Data1!$K$164:$K$306</definedName>
+    <definedName name="A2330661C_Data">Data1!$K$164:$K$306</definedName>
+    <definedName name="A2330661C_Latest">Data1!$K$306</definedName>
+    <definedName name="A2330662F">Data1!$BM$1:$BM$10,Data1!$BM$168:$BM$306</definedName>
+    <definedName name="A2330662F_Data">Data1!$BM$168:$BM$306</definedName>
+    <definedName name="A2330662F_Latest">Data1!$BM$306</definedName>
+    <definedName name="A2330665L">Data1!$AL$1:$AL$10,Data1!$AL$165:$AL$306</definedName>
+    <definedName name="A2330665L_Data">Data1!$AL$165:$AL$306</definedName>
+    <definedName name="A2330665L_Latest">Data1!$AL$306</definedName>
+    <definedName name="A2330706W">Data1!$I$1:$I$10,Data1!$I$115:$I$306</definedName>
+    <definedName name="A2330706W_Data">Data1!$I$115:$I$306</definedName>
+    <definedName name="A2330706W_Latest">Data1!$I$306</definedName>
+    <definedName name="A2330707X">Data1!$BK$1:$BK$10,Data1!$BK$119:$BK$306</definedName>
+    <definedName name="A2330707X_Data">Data1!$BK$119:$BK$306</definedName>
+    <definedName name="A2330707X_Latest">Data1!$BK$306</definedName>
+    <definedName name="A2330710L">Data1!$AJ$1:$AJ$10,Data1!$AJ$116:$AJ$306</definedName>
+    <definedName name="A2330710L_Data">Data1!$AJ$116:$AJ$306</definedName>
+    <definedName name="A2330710L_Latest">Data1!$AJ$306</definedName>
+    <definedName name="A2330751J">Data1!$L$1:$L$10,Data1!$L$164:$L$306</definedName>
+    <definedName name="A2330751J_Data">Data1!$L$164:$L$306</definedName>
+    <definedName name="A2330751J_Latest">Data1!$L$306</definedName>
+    <definedName name="A2330752K">Data1!$BN$1:$BN$10,Data1!$BN$168:$BN$306</definedName>
+    <definedName name="A2330752K_Data">Data1!$BN$168:$BN$306</definedName>
+    <definedName name="A2330752K_Latest">Data1!$BN$306</definedName>
+    <definedName name="A2330755T">Data1!$AM$1:$AM$10,Data1!$AM$165:$AM$306</definedName>
+    <definedName name="A2330755T_Data">Data1!$AM$165:$AM$306</definedName>
+    <definedName name="A2330755T_Latest">Data1!$AM$306</definedName>
+    <definedName name="A2330796L">Data1!$M$1:$M$10,Data1!$M$164:$M$306</definedName>
+    <definedName name="A2330796L_Data">Data1!$M$164:$M$306</definedName>
+    <definedName name="A2330796L_Latest">Data1!$M$306</definedName>
+    <definedName name="A2330797R">Data1!$BO$1:$BO$10,Data1!$BO$168:$BO$306</definedName>
+    <definedName name="A2330797R_Data">Data1!$BO$168:$BO$306</definedName>
+    <definedName name="A2330797R_Latest">Data1!$BO$306</definedName>
+    <definedName name="A2330800T">Data1!$AN$1:$AN$10,Data1!$AN$165:$AN$306</definedName>
+    <definedName name="A2330800T_Data">Data1!$AN$165:$AN$306</definedName>
+    <definedName name="A2330800T_Latest">Data1!$AN$306</definedName>
+    <definedName name="A2330841L">Data1!$AB$1:$AB$10,Data1!$AB$164:$AB$306</definedName>
+    <definedName name="A2330841L_Data">Data1!$AB$164:$AB$306</definedName>
+    <definedName name="A2330841L_Latest">Data1!$AB$306</definedName>
+    <definedName name="A2330842R">Data1!$CD$1:$CD$10,Data1!$CD$168:$CD$306</definedName>
+    <definedName name="A2330842R_Data">Data1!$CD$168:$CD$306</definedName>
+    <definedName name="A2330842R_Latest">Data1!$CD$306</definedName>
+    <definedName name="A2330845W">Data1!$BC$1:$BC$10,Data1!$BC$165:$BC$306</definedName>
+    <definedName name="A2330845W_Data">Data1!$BC$165:$BC$306</definedName>
+    <definedName name="A2330845W_Latest">Data1!$BC$306</definedName>
+    <definedName name="A2332101T">Data1!$N$1:$N$10,Data1!$N$107:$N$306</definedName>
+    <definedName name="A2332101T_Data">Data1!$N$107:$N$306</definedName>
+    <definedName name="A2332101T_Latest">Data1!$N$306</definedName>
+    <definedName name="A2332102V">Data1!$BP$1:$BP$10,Data1!$BP$111:$BP$306</definedName>
+    <definedName name="A2332102V_Data">Data1!$BP$111:$BP$306</definedName>
+    <definedName name="A2332102V_Latest">Data1!$BP$306</definedName>
+    <definedName name="A2332105A">Data1!$AO$1:$AO$10,Data1!$AO$108:$AO$306</definedName>
+    <definedName name="A2332105A_Data">Data1!$AO$108:$AO$306</definedName>
+    <definedName name="A2332105A_Latest">Data1!$AO$306</definedName>
+    <definedName name="A2332146W">Data1!$O$1:$O$10,Data1!$O$139:$O$306</definedName>
+    <definedName name="A2332146W_Data">Data1!$O$139:$O$306</definedName>
+    <definedName name="A2332146W_Latest">Data1!$O$306</definedName>
+    <definedName name="A2332147X">Data1!$BQ$1:$BQ$10,Data1!$BQ$143:$BQ$306</definedName>
+    <definedName name="A2332147X_Data">Data1!$BQ$143:$BQ$306</definedName>
+    <definedName name="A2332147X_Latest">Data1!$BQ$306</definedName>
+    <definedName name="A2332150L">Data1!$AP$1:$AP$10,Data1!$AP$140:$AP$306</definedName>
+    <definedName name="A2332150L_Data">Data1!$AP$140:$AP$306</definedName>
+    <definedName name="A2332150L_Latest">Data1!$AP$306</definedName>
+    <definedName name="A2332191J">Data1!$P$1:$P$10,Data1!$P$139:$P$306</definedName>
+    <definedName name="A2332191J_Data">Data1!$P$139:$P$306</definedName>
+    <definedName name="A2332191J_Latest">Data1!$P$306</definedName>
+    <definedName name="A2332192K">Data1!$BR$1:$BR$10,Data1!$BR$143:$BR$306</definedName>
+    <definedName name="A2332192K_Data">Data1!$BR$143:$BR$306</definedName>
+    <definedName name="A2332192K_Latest">Data1!$BR$306</definedName>
+    <definedName name="A2332195T">Data1!$AQ$1:$AQ$10,Data1!$AQ$140:$AQ$306</definedName>
+    <definedName name="A2332195T_Data">Data1!$AQ$140:$AQ$306</definedName>
+    <definedName name="A2332195T_Latest">Data1!$AQ$306</definedName>
+    <definedName name="A2332236A">Data1!$Q$1:$Q$10,Data1!$Q$107:$Q$306</definedName>
+    <definedName name="A2332236A_Data">Data1!$Q$107:$Q$306</definedName>
+    <definedName name="A2332236A_Latest">Data1!$Q$306</definedName>
+    <definedName name="A2332237C">Data1!$BS$1:$BS$10,Data1!$BS$111:$BS$306</definedName>
+    <definedName name="A2332237C_Data">Data1!$BS$111:$BS$306</definedName>
+    <definedName name="A2332237C_Latest">Data1!$BS$306</definedName>
+    <definedName name="A2332240T">Data1!$AR$1:$AR$10,Data1!$AR$108:$AR$306</definedName>
+    <definedName name="A2332240T_Data">Data1!$AR$108:$AR$306</definedName>
+    <definedName name="A2332240T_Latest">Data1!$AR$306</definedName>
+    <definedName name="A2332281L">Data1!$R$1:$R$10,Data1!$R$139:$R$306</definedName>
+    <definedName name="A2332281L_Data">Data1!$R$139:$R$306</definedName>
+    <definedName name="A2332281L_Latest">Data1!$R$306</definedName>
+    <definedName name="A2332282R">Data1!$BT$1:$BT$10,Data1!$BT$143:$BT$306</definedName>
+    <definedName name="A2332282R_Data">Data1!$BT$143:$BT$306</definedName>
+    <definedName name="A2332282R_Latest">Data1!$BT$306</definedName>
+    <definedName name="A2332285W">Data1!$AS$1:$AS$10,Data1!$AS$140:$AS$306</definedName>
+    <definedName name="A2332285W_Data">Data1!$AS$140:$AS$306</definedName>
+    <definedName name="A2332285W_Latest">Data1!$AS$306</definedName>
+    <definedName name="A2332326F">Data1!$S$1:$S$10,Data1!$S$175:$S$306</definedName>
+    <definedName name="A2332326F_Data">Data1!$S$175:$S$306</definedName>
+    <definedName name="A2332326F_Latest">Data1!$S$306</definedName>
+    <definedName name="A2332327J">Data1!$BU$1:$BU$10,Data1!$BU$179:$BU$306</definedName>
+    <definedName name="A2332327J_Data">Data1!$BU$179:$BU$306</definedName>
+    <definedName name="A2332327J_Latest">Data1!$BU$306</definedName>
+    <definedName name="A2332330W">Data1!$AT$1:$AT$10,Data1!$AT$176:$AT$306</definedName>
+    <definedName name="A2332330W_Data">Data1!$AT$176:$AT$306</definedName>
+    <definedName name="A2332330W_Latest">Data1!$AT$306</definedName>
+    <definedName name="A2332371T">Data1!$T$1:$T$10,Data1!$T$139:$T$306</definedName>
+    <definedName name="A2332371T_Data">Data1!$T$139:$T$306</definedName>
+    <definedName name="A2332371T_Latest">Data1!$T$306</definedName>
+    <definedName name="A2332372V">Data1!$BV$1:$BV$10,Data1!$BV$143:$BV$306</definedName>
+    <definedName name="A2332372V_Data">Data1!$BV$143:$BV$306</definedName>
+    <definedName name="A2332372V_Latest">Data1!$BV$306</definedName>
+    <definedName name="A2332375A">Data1!$AU$1:$AU$10,Data1!$AU$140:$AU$306</definedName>
+    <definedName name="A2332375A_Data">Data1!$AU$140:$AU$306</definedName>
+    <definedName name="A2332375A_Latest">Data1!$AU$306</definedName>
+    <definedName name="A2332416K">Data1!$U$1:$U$10,Data1!$U$175:$U$306</definedName>
+    <definedName name="A2332416K_Data">Data1!$U$175:$U$306</definedName>
+    <definedName name="A2332416K_Latest">Data1!$U$306</definedName>
+    <definedName name="A2332417L">Data1!$BW$1:$BW$10,Data1!$BW$179:$BW$306</definedName>
+    <definedName name="A2332417L_Data">Data1!$BW$179:$BW$306</definedName>
+    <definedName name="A2332417L_Latest">Data1!$BW$306</definedName>
+    <definedName name="A2332420A">Data1!$AV$1:$AV$10,Data1!$AV$176:$AV$306</definedName>
+    <definedName name="A2332420A_Data">Data1!$AV$176:$AV$306</definedName>
+    <definedName name="A2332420A_Latest">Data1!$AV$306</definedName>
+    <definedName name="A2332461W">Data1!$V$1:$V$10,Data1!$V$175:$V$306</definedName>
+    <definedName name="A2332461W_Data">Data1!$V$175:$V$306</definedName>
+    <definedName name="A2332461W_Latest">Data1!$V$306</definedName>
+    <definedName name="A2332462X">Data1!$BX$1:$BX$10,Data1!$BX$179:$BX$306</definedName>
+    <definedName name="A2332462X_Data">Data1!$BX$179:$BX$306</definedName>
+    <definedName name="A2332462X_Latest">Data1!$BX$306</definedName>
+    <definedName name="A2332465F">Data1!$AW$1:$AW$10,Data1!$AW$176:$AW$306</definedName>
+    <definedName name="A2332465F_Data">Data1!$AW$176:$AW$306</definedName>
+    <definedName name="A2332465F_Latest">Data1!$AW$306</definedName>
+    <definedName name="A2332506R">Data1!$W$1:$W$10,Data1!$W$175:$W$306</definedName>
+    <definedName name="A2332506R_Data">Data1!$W$175:$W$306</definedName>
+    <definedName name="A2332506R_Latest">Data1!$W$306</definedName>
+    <definedName name="A2332507T">Data1!$BY$1:$BY$10,Data1!$BY$179:$BY$306</definedName>
+    <definedName name="A2332507T_Data">Data1!$BY$179:$BY$306</definedName>
+    <definedName name="A2332507T_Latest">Data1!$BY$306</definedName>
+    <definedName name="A2332510F">Data1!$AX$1:$AX$10,Data1!$AX$176:$AX$306</definedName>
+    <definedName name="A2332510F_Data">Data1!$AX$176:$AX$306</definedName>
+    <definedName name="A2332510F_Latest">Data1!$AX$306</definedName>
+    <definedName name="A2332551A">Data1!$Z$1:$Z$10,Data1!$Z$106:$Z$306</definedName>
+    <definedName name="A2332551A_Data">Data1!$Z$106:$Z$306</definedName>
+    <definedName name="A2332551A_Latest">Data1!$Z$306</definedName>
+    <definedName name="A2332552C">Data1!$CB$1:$CB$10,Data1!$CB$110:$CB$306</definedName>
+    <definedName name="A2332552C_Data">Data1!$CB$110:$CB$306</definedName>
+    <definedName name="A2332552C_Latest">Data1!$CB$306</definedName>
+    <definedName name="A2332555K">Data1!$BA$1:$BA$10,Data1!$BA$107:$BA$306</definedName>
+    <definedName name="A2332555K_Data">Data1!$BA$107:$BA$306</definedName>
+    <definedName name="A2332555K_Latest">Data1!$BA$306</definedName>
+    <definedName name="A2332641F">Data1!$X$1:$X$10,Data1!$X$175:$X$306</definedName>
+    <definedName name="A2332641F_Data">Data1!$X$175:$X$306</definedName>
+    <definedName name="A2332641F_Latest">Data1!$X$306</definedName>
+    <definedName name="A2332642J">Data1!$BZ$1:$BZ$10,Data1!$BZ$179:$BZ$306</definedName>
+    <definedName name="A2332642J_Data">Data1!$BZ$179:$BZ$306</definedName>
+    <definedName name="A2332642J_Latest">Data1!$BZ$306</definedName>
+    <definedName name="A2332645R">Data1!$AY$1:$AY$10,Data1!$AY$176:$AY$306</definedName>
+    <definedName name="A2332645R_Data">Data1!$AY$176:$AY$306</definedName>
+    <definedName name="A2332645R_Latest">Data1!$AY$306</definedName>
+    <definedName name="A2332686K">Data1!$Y$1:$Y$10,Data1!$Y$175:$Y$306</definedName>
+    <definedName name="A2332686K_Data">Data1!$Y$175:$Y$306</definedName>
+    <definedName name="A2332686K_Latest">Data1!$Y$306</definedName>
+    <definedName name="A2332687L">Data1!$CA$1:$CA$10,Data1!$CA$179:$CA$306</definedName>
+    <definedName name="A2332687L_Data">Data1!$CA$179:$CA$306</definedName>
+    <definedName name="A2332687L_Latest">Data1!$CA$306</definedName>
+    <definedName name="A2332690A">Data1!$AZ$1:$AZ$10,Data1!$AZ$176:$AZ$306</definedName>
+    <definedName name="A2332690A_Data">Data1!$AZ$176:$AZ$306</definedName>
+    <definedName name="A2332690A_Latest">Data1!$AZ$306</definedName>
+    <definedName name="A3597525W">Data1!$CE$1:$CE$10,Data1!$CE$303:$CE$306</definedName>
+    <definedName name="A3597525W_Data">Data1!$CE$303:$CE$306</definedName>
+    <definedName name="A3597525W_Latest">Data1!$CE$306</definedName>
+    <definedName name="A3597526X">Data1!$DB$1:$DB$10,Data1!$DB$304:$DB$306</definedName>
+    <definedName name="A3597526X_Data">Data1!$DB$304:$DB$306</definedName>
+    <definedName name="A3597526X_Latest">Data1!$DB$306</definedName>
+    <definedName name="A3601620F">Data1!$CF$1:$CF$10,Data1!$CF$303:$CF$306</definedName>
+    <definedName name="A3601620F_Data">Data1!$CF$303:$CF$306</definedName>
+    <definedName name="A3601620F_Latest">Data1!$CF$306</definedName>
+    <definedName name="A3601621J">Data1!$DC$1:$DC$10,Data1!$DC$303:$DC$306</definedName>
+    <definedName name="A3601621J_Data">Data1!$DC$303:$DC$306</definedName>
+    <definedName name="A3601621J_Latest">Data1!$DC$306</definedName>
+    <definedName name="A3601665K">Data1!$CG$1:$CG$10,Data1!$CG$303:$CG$306</definedName>
+    <definedName name="A3601665K_Data">Data1!$CG$303:$CG$306</definedName>
+    <definedName name="A3601665K_Latest">Data1!$CG$306</definedName>
+    <definedName name="A3601666L">Data1!$DD$1:$DD$10,Data1!$DD$303:$DD$306</definedName>
+    <definedName name="A3601666L_Data">Data1!$DD$303:$DD$306</definedName>
+    <definedName name="A3601666L_Latest">Data1!$DD$306</definedName>
+    <definedName name="A3601710K">Data1!$CH$1:$CH$10,Data1!$CH$303:$CH$306</definedName>
+    <definedName name="A3601710K_Data">Data1!$CH$303:$CH$306</definedName>
+    <definedName name="A3601710K_Latest">Data1!$CH$306</definedName>
+    <definedName name="A3601711L">Data1!$DE$1:$DE$10,Data1!$DE$303:$DE$306</definedName>
+    <definedName name="A3601711L_Data">Data1!$DE$303:$DE$306</definedName>
+    <definedName name="A3601711L_Latest">Data1!$DE$306</definedName>
+    <definedName name="A3601755R">Data1!$CJ$1:$CJ$10,Data1!$CJ$303:$CJ$306</definedName>
+    <definedName name="A3601755R_Data">Data1!$CJ$303:$CJ$306</definedName>
+    <definedName name="A3601755R_Latest">Data1!$CJ$306</definedName>
+    <definedName name="A3601756T">Data1!$DG$1:$DG$10,Data1!$DG$303:$DG$306</definedName>
+    <definedName name="A3601756T_Data">Data1!$DG$303:$DG$306</definedName>
+    <definedName name="A3601756T_Latest">Data1!$DG$306</definedName>
+    <definedName name="A3601800R">Data1!$CI$1:$CI$10,Data1!$CI$303:$CI$306</definedName>
+    <definedName name="A3601800R_Data">Data1!$CI$303:$CI$306</definedName>
+    <definedName name="A3601800R_Latest">Data1!$CI$306</definedName>
+    <definedName name="A3601801T">Data1!$DF$1:$DF$10,Data1!$DF$303:$DF$306</definedName>
+    <definedName name="A3601801T_Data">Data1!$DF$303:$DF$306</definedName>
+    <definedName name="A3601801T_Latest">Data1!$DF$306</definedName>
+    <definedName name="A3601845V">Data1!$CK$1:$CK$10,Data1!$CK$303:$CK$306</definedName>
+    <definedName name="A3601845V_Data">Data1!$CK$303:$CK$306</definedName>
+    <definedName name="A3601845V_Latest">Data1!$CK$306</definedName>
+    <definedName name="A3601846W">Data1!$DH$1:$DH$10,Data1!$DH$303:$DH$306</definedName>
+    <definedName name="A3601846W_Data">Data1!$DH$303:$DH$306</definedName>
+    <definedName name="A3601846W_Latest">Data1!$DH$306</definedName>
+    <definedName name="A3601890F">Data1!$CL$1:$CL$10,Data1!$CL$303:$CL$306</definedName>
+    <definedName name="A3601890F_Data">Data1!$CL$303:$CL$306</definedName>
+    <definedName name="A3601890F_Latest">Data1!$CL$306</definedName>
+    <definedName name="A3601891J">Data1!$DI$1:$DI$10,Data1!$DI$303:$DI$306</definedName>
+    <definedName name="A3601891J_Data">Data1!$DI$303:$DI$306</definedName>
+    <definedName name="A3601891J_Latest">Data1!$DI$306</definedName>
+    <definedName name="A3601935X">Data1!$DA$1:$DA$10,Data1!$DA$303:$DA$306</definedName>
+    <definedName name="A3601935X_Data">Data1!$DA$303:$DA$306</definedName>
+    <definedName name="A3601935X_Latest">Data1!$DA$306</definedName>
+    <definedName name="A3601936A">Data1!$DX$1:$DX$10,Data1!$DX$303:$DX$306</definedName>
+    <definedName name="A3601936A_Data">Data1!$DX$303:$DX$306</definedName>
+    <definedName name="A3601936A_Latest">Data1!$DX$306</definedName>
+    <definedName name="A3602925L">Data1!$CM$1:$CM$10,Data1!$CM$303:$CM$306</definedName>
+    <definedName name="A3602925L_Data">Data1!$CM$303:$CM$306</definedName>
+    <definedName name="A3602925L_Latest">Data1!$CM$306</definedName>
+    <definedName name="A3602926R">Data1!$DJ$1:$DJ$10,Data1!$DJ$303:$DJ$306</definedName>
+    <definedName name="A3602926R_Data">Data1!$DJ$303:$DJ$306</definedName>
+    <definedName name="A3602926R_Latest">Data1!$DJ$306</definedName>
+    <definedName name="A3602970X">Data1!$CN$1:$CN$10,Data1!$CN$303:$CN$306</definedName>
+    <definedName name="A3602970X_Data">Data1!$CN$303:$CN$306</definedName>
+    <definedName name="A3602970X_Latest">Data1!$CN$306</definedName>
+    <definedName name="A3602971A">Data1!$DK$1:$DK$10,Data1!$DK$303:$DK$306</definedName>
+    <definedName name="A3602971A_Data">Data1!$DK$303:$DK$306</definedName>
+    <definedName name="A3602971A_Latest">Data1!$DK$306</definedName>
+    <definedName name="A3603015V">Data1!$CO$1:$CO$10,Data1!$CO$303:$CO$306</definedName>
+    <definedName name="A3603015V_Data">Data1!$CO$303:$CO$306</definedName>
+    <definedName name="A3603015V_Latest">Data1!$CO$306</definedName>
+    <definedName name="A3603016W">Data1!$DL$1:$DL$10,Data1!$DL$303:$DL$306</definedName>
+    <definedName name="A3603016W_Data">Data1!$DL$303:$DL$306</definedName>
+    <definedName name="A3603016W_Latest">Data1!$DL$306</definedName>
+    <definedName name="A3603060F">Data1!$CP$1:$CP$10,Data1!$CP$303:$CP$306</definedName>
+    <definedName name="A3603060F_Data">Data1!$CP$303:$CP$306</definedName>
+    <definedName name="A3603060F_Latest">Data1!$CP$306</definedName>
+    <definedName name="A3603061J">Data1!$DM$1:$DM$10,Data1!$DM$303:$DM$306</definedName>
+    <definedName name="A3603061J_Data">Data1!$DM$303:$DM$306</definedName>
+    <definedName name="A3603061J_Latest">Data1!$DM$306</definedName>
+    <definedName name="A3603105X">Data1!$CQ$1:$CQ$10,Data1!$CQ$303:$CQ$306</definedName>
+    <definedName name="A3603105X_Data">Data1!$CQ$303:$CQ$306</definedName>
+    <definedName name="A3603105X_Latest">Data1!$CQ$306</definedName>
+    <definedName name="A3603106A">Data1!$DN$1:$DN$10,Data1!$DN$303:$DN$306</definedName>
+    <definedName name="A3603106A_Data">Data1!$DN$303:$DN$306</definedName>
+    <definedName name="A3603106A_Latest">Data1!$DN$306</definedName>
+    <definedName name="A3603150K">Data1!$CR$1:$CR$10,Data1!$CR$303:$CR$306</definedName>
+    <definedName name="A3603150K_Data">Data1!$CR$303:$CR$306</definedName>
+    <definedName name="A3603150K_Latest">Data1!$CR$306</definedName>
+    <definedName name="A3603151L">Data1!$DO$1:$DO$10,Data1!$DO$303:$DO$306</definedName>
+    <definedName name="A3603151L_Data">Data1!$DO$303:$DO$306</definedName>
+    <definedName name="A3603151L_Latest">Data1!$DO$306</definedName>
+    <definedName name="A3603195R">Data1!$CS$1:$CS$10,Data1!$CS$303:$CS$306</definedName>
+    <definedName name="A3603195R_Data">Data1!$CS$303:$CS$306</definedName>
+    <definedName name="A3603195R_Latest">Data1!$CS$306</definedName>
+    <definedName name="A3603196T">Data1!$DP$1:$DP$10,Data1!$DP$303:$DP$306</definedName>
+    <definedName name="A3603196T_Data">Data1!$DP$303:$DP$306</definedName>
+    <definedName name="A3603196T_Latest">Data1!$DP$306</definedName>
+    <definedName name="A3603240R">Data1!$CT$1:$CT$10,Data1!$CT$303:$CT$306</definedName>
+    <definedName name="A3603240R_Data">Data1!$CT$303:$CT$306</definedName>
+    <definedName name="A3603240R_Latest">Data1!$CT$306</definedName>
+    <definedName name="A3603241T">Data1!$DQ$1:$DQ$10,Data1!$DQ$303:$DQ$306</definedName>
+    <definedName name="A3603241T_Data">Data1!$DQ$303:$DQ$306</definedName>
+    <definedName name="A3603241T_Latest">Data1!$DQ$306</definedName>
+    <definedName name="A3603285V">Data1!$CU$1:$CU$10,Data1!$CU$303:$CU$306</definedName>
+    <definedName name="A3603285V_Data">Data1!$CU$303:$CU$306</definedName>
+    <definedName name="A3603285V_Latest">Data1!$CU$306</definedName>
+    <definedName name="A3603286W">Data1!$DR$1:$DR$10,Data1!$DR$303:$DR$306</definedName>
+    <definedName name="A3603286W_Data">Data1!$DR$303:$DR$306</definedName>
+    <definedName name="A3603286W_Latest">Data1!$DR$306</definedName>
+    <definedName name="A3603330V">Data1!$CV$1:$CV$10,Data1!$CV$303:$CV$306</definedName>
+    <definedName name="A3603330V_Data">Data1!$CV$303:$CV$306</definedName>
+    <definedName name="A3603330V_Latest">Data1!$CV$306</definedName>
+    <definedName name="A3603331W">Data1!$DS$1:$DS$10,Data1!$DS$303:$DS$306</definedName>
+    <definedName name="A3603331W_Data">Data1!$DS$303:$DS$306</definedName>
+    <definedName name="A3603331W_Latest">Data1!$DS$306</definedName>
+    <definedName name="A3603375X">Data1!$CY$1:$CY$10,Data1!$CY$303:$CY$306</definedName>
+    <definedName name="A3603375X_Data">Data1!$CY$303:$CY$306</definedName>
+    <definedName name="A3603375X_Latest">Data1!$CY$306</definedName>
+    <definedName name="A3603376A">Data1!$DV$1:$DV$10,Data1!$DV$303:$DV$306</definedName>
+    <definedName name="A3603376A_Data">Data1!$DV$303:$DV$306</definedName>
+    <definedName name="A3603376A_Latest">Data1!$DV$306</definedName>
+    <definedName name="A3603465C">Data1!$CW$1:$CW$10,Data1!$CW$303:$CW$306</definedName>
+    <definedName name="A3603465C_Data">Data1!$CW$303:$CW$306</definedName>
+    <definedName name="A3603465C_Latest">Data1!$CW$306</definedName>
+    <definedName name="A3603466F">Data1!$DT$1:$DT$10,Data1!$DT$303:$DT$306</definedName>
+    <definedName name="A3603466F_Data">Data1!$DT$303:$DT$306</definedName>
+    <definedName name="A3603466F_Latest">Data1!$DT$306</definedName>
+    <definedName name="A3603510C">Data1!$CX$1:$CX$10,Data1!$CX$303:$CX$306</definedName>
+    <definedName name="A3603510C_Data">Data1!$CX$303:$CX$306</definedName>
+    <definedName name="A3603510C_Latest">Data1!$CX$306</definedName>
+    <definedName name="A3603511F">Data1!$DU$1:$DU$10,Data1!$DU$303:$DU$306</definedName>
+    <definedName name="A3603511F_Data">Data1!$DU$303:$DU$306</definedName>
+    <definedName name="A3603511F_Latest">Data1!$DU$306</definedName>
+    <definedName name="A3604378X">Data1!$AA$1:$AA$10,Data1!$AA$175:$AA$306</definedName>
+    <definedName name="A3604378X_Data">Data1!$AA$175:$AA$306</definedName>
+    <definedName name="A3604378X_Latest">Data1!$AA$306</definedName>
+    <definedName name="A3604379A">Data1!$CC$1:$CC$10,Data1!$CC$175:$CC$306</definedName>
+    <definedName name="A3604379A_Data">Data1!$CC$175:$CC$306</definedName>
+    <definedName name="A3604379A_Latest">Data1!$CC$306</definedName>
+    <definedName name="A3604380K">Data1!$CZ$1:$CZ$10,Data1!$CZ$303:$CZ$306</definedName>
+    <definedName name="A3604380K_Data">Data1!$CZ$303:$CZ$306</definedName>
+    <definedName name="A3604380K_Latest">Data1!$CZ$306</definedName>
+    <definedName name="A3604381L">Data1!$DW$1:$DW$10,Data1!$DW$303:$DW$306</definedName>
+    <definedName name="A3604381L_Data">Data1!$DW$303:$DW$306</definedName>
+    <definedName name="A3604381L_Latest">Data1!$DW$306</definedName>
+    <definedName name="A3604382R">Data1!$BB$1:$BB$10,Data1!$BB$175:$BB$306</definedName>
+    <definedName name="A3604382R_Data">Data1!$BB$175:$BB$306</definedName>
+    <definedName name="A3604382R_Latest">Data1!$BB$306</definedName>
+    <definedName name="A3604398J">Data1!$J$1:$J$10,Data1!$J$11:$J$306</definedName>
+    <definedName name="A3604398J_Data">Data1!$J$11:$J$306</definedName>
+    <definedName name="A3604398J_Latest">Data1!$J$306</definedName>
+    <definedName name="A3604399K">Data1!$BL$1:$BL$10,Data1!$BL$15:$BL$306</definedName>
+    <definedName name="A3604399K_Data">Data1!$BL$15:$BL$306</definedName>
+    <definedName name="A3604399K_Latest">Data1!$BL$306</definedName>
+    <definedName name="A3604402L">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$306</definedName>
+    <definedName name="A3604402L_Data">Data1!$AK$12:$AK$306</definedName>
+    <definedName name="A3604402L_Latest">Data1!$AK$306</definedName>
+    <definedName name="A3604503X">Data1!$E$1:$E$10,Data1!$E$226:$E$306</definedName>
+    <definedName name="A3604503X_Data">Data1!$E$226:$E$306</definedName>
+    <definedName name="A3604503X_Latest">Data1!$E$306</definedName>
+    <definedName name="A3604504A">Data1!$AF$1:$AF$10,Data1!$AF$227:$AF$306</definedName>
+    <definedName name="A3604504A_Data">Data1!$AF$227:$AF$306</definedName>
+    <definedName name="A3604504A_Latest">Data1!$AF$306</definedName>
+    <definedName name="A3604505C">Data1!$BG$1:$BG$10,Data1!$BG$230:$BG$306</definedName>
+    <definedName name="A3604505C_Data">Data1!$BG$230:$BG$306</definedName>
+    <definedName name="A3604505C_Latest">Data1!$BG$306</definedName>
+    <definedName name="A3604506F">Data1!$C$1:$C$10,Data1!$C$164:$C$306</definedName>
+    <definedName name="A3604506F_Data">Data1!$C$164:$C$306</definedName>
+    <definedName name="A3604506F_Latest">Data1!$C$306</definedName>
+    <definedName name="A3604507J">Data1!$AD$1:$AD$10,Data1!$AD$165:$AD$306</definedName>
+    <definedName name="A3604507J_Data">Data1!$AD$165:$AD$306</definedName>
+    <definedName name="A3604507J_Latest">Data1!$AD$306</definedName>
+    <definedName name="A3604508K">Data1!$BE$1:$BE$10,Data1!$BE$168:$BE$306</definedName>
+    <definedName name="A3604508K_Data">Data1!$BE$168:$BE$306</definedName>
+    <definedName name="A3604508K_Latest">Data1!$BE$306</definedName>
+    <definedName name="A3604509L">Data1!$D$1:$D$10,Data1!$D$226:$D$306</definedName>
+    <definedName name="A3604509L_Data">Data1!$D$226:$D$306</definedName>
+    <definedName name="A3604509L_Latest">Data1!$D$306</definedName>
+    <definedName name="A3604510W">Data1!$AE$1:$AE$10,Data1!$AE$227:$AE$306</definedName>
+    <definedName name="A3604510W_Data">Data1!$AE$227:$AE$306</definedName>
+    <definedName name="A3604510W_Latest">Data1!$AE$306</definedName>
+    <definedName name="A3604511X">Data1!$BF$1:$BF$10,Data1!$BF$230:$BF$306</definedName>
+    <definedName name="A3604511X_Data">Data1!$BF$230:$BF$306</definedName>
+    <definedName name="A3604511X_Latest">Data1!$BF$306</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$306</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$306</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2058,2138 +2070,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D242" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D243" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D244" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D248" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D251" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000062000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000063000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000064000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000065000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D261" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000066000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000067000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000068000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D264" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000069000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000070000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000071000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000072000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000073000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000074000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000075000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000076000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000077000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000078000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000079000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D279" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E279" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D280" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E280" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D281" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E281" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D282" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000080000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E282" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000081000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000082000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000083000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000084000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D284" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000085000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E284" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000086000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D285" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000087000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E285" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000088000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D286" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000089000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E286" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000090000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000091000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000092000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000093000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000094000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000095000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000096000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000097000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000098000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000099000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CF303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CG303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CH303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CI303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CJ303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CK303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CL303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CM303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CN303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CO303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CP303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CQ303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CR303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CS303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CT303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CU303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CV303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CW303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CX303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CY303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CZ303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="DA303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -5817,10 +3697,10 @@
         <v>17777</v>
       </c>
       <c r="G12" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>139</v>
@@ -5849,10 +3729,10 @@
         <v>31747</v>
       </c>
       <c r="G13" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>139</v>
@@ -5881,10 +3761,10 @@
         <v>37408</v>
       </c>
       <c r="G14" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>139</v>
@@ -5913,10 +3793,10 @@
         <v>37408</v>
       </c>
       <c r="G15" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>139</v>
@@ -5945,10 +3825,10 @@
         <v>35947</v>
       </c>
       <c r="G16" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>139</v>
@@ -5977,10 +3857,10 @@
         <v>35947</v>
       </c>
       <c r="G17" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>139</v>
@@ -6009,10 +3889,10 @@
         <v>27273</v>
       </c>
       <c r="G18" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="12">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>139</v>
@@ -6041,10 +3921,10 @@
         <v>27273</v>
       </c>
       <c r="G19" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="12">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>139</v>
@@ -6073,10 +3953,10 @@
         <v>17777</v>
       </c>
       <c r="G20" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>139</v>
@@ -6105,10 +3985,10 @@
         <v>31747</v>
       </c>
       <c r="G21" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>139</v>
@@ -6137,10 +4017,10 @@
         <v>31747</v>
       </c>
       <c r="G22" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>139</v>
@@ -6169,10 +4049,10 @@
         <v>31747</v>
       </c>
       <c r="G23" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>139</v>
@@ -6201,10 +4081,10 @@
         <v>26543</v>
       </c>
       <c r="G24" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="12">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>139</v>
@@ -6233,10 +4113,10 @@
         <v>29465</v>
       </c>
       <c r="G25" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="12">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>139</v>
@@ -6265,10 +4145,10 @@
         <v>29465</v>
       </c>
       <c r="G26" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H26" s="12">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>139</v>
@@ -6297,10 +4177,10 @@
         <v>26543</v>
       </c>
       <c r="G27" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H27" s="12">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>139</v>
@@ -6329,10 +4209,10 @@
         <v>29465</v>
       </c>
       <c r="G28" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H28" s="12">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>139</v>
@@ -6361,10 +4241,10 @@
         <v>32752</v>
       </c>
       <c r="G29" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>139</v>
@@ -6393,10 +4273,10 @@
         <v>29465</v>
       </c>
       <c r="G30" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H30" s="12">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>139</v>
@@ -6425,10 +4305,10 @@
         <v>32752</v>
       </c>
       <c r="G31" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H31" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>139</v>
@@ -6457,10 +4337,10 @@
         <v>32752</v>
       </c>
       <c r="G32" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H32" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>139</v>
@@ -6489,10 +4369,10 @@
         <v>32752</v>
       </c>
       <c r="G33" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H33" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>139</v>
@@ -6521,10 +4401,10 @@
         <v>32752</v>
       </c>
       <c r="G34" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H34" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>139</v>
@@ -6553,10 +4433,10 @@
         <v>32752</v>
       </c>
       <c r="G35" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H35" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>139</v>
@@ -6585,10 +4465,10 @@
         <v>26451</v>
       </c>
       <c r="G36" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H36" s="12">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>139</v>
@@ -6617,10 +4497,10 @@
         <v>32752</v>
       </c>
       <c r="G37" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H37" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>139</v>
@@ -6649,10 +4529,10 @@
         <v>31747</v>
       </c>
       <c r="G38" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H38" s="12">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>139</v>
@@ -6681,10 +4561,10 @@
         <v>17868</v>
       </c>
       <c r="G39" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H39" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>171</v>
@@ -6713,10 +4593,10 @@
         <v>31837</v>
       </c>
       <c r="G40" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H40" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>171</v>
@@ -6745,10 +4625,10 @@
         <v>37500</v>
       </c>
       <c r="G41" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H41" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>171</v>
@@ -6777,10 +4657,10 @@
         <v>37500</v>
       </c>
       <c r="G42" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H42" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>171</v>
@@ -6809,10 +4689,10 @@
         <v>36039</v>
       </c>
       <c r="G43" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H43" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>171</v>
@@ -6841,10 +4721,10 @@
         <v>36039</v>
       </c>
       <c r="G44" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H44" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>171</v>
@@ -6873,10 +4753,10 @@
         <v>27364</v>
       </c>
       <c r="G45" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H45" s="12">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>171</v>
@@ -6905,10 +4785,10 @@
         <v>27364</v>
       </c>
       <c r="G46" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H46" s="12">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>171</v>
@@ -6937,10 +4817,10 @@
         <v>17868</v>
       </c>
       <c r="G47" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H47" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>171</v>
@@ -6969,10 +4849,10 @@
         <v>31837</v>
       </c>
       <c r="G48" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H48" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>171</v>
@@ -7001,10 +4881,10 @@
         <v>31837</v>
       </c>
       <c r="G49" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H49" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>171</v>
@@ -7033,10 +4913,10 @@
         <v>31837</v>
       </c>
       <c r="G50" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H50" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>171</v>
@@ -7065,10 +4945,10 @@
         <v>26634</v>
       </c>
       <c r="G51" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H51" s="12">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>171</v>
@@ -7097,10 +4977,10 @@
         <v>29556</v>
       </c>
       <c r="G52" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H52" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>171</v>
@@ -7129,10 +5009,10 @@
         <v>29556</v>
       </c>
       <c r="G53" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H53" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>171</v>
@@ -7161,10 +5041,10 @@
         <v>26634</v>
       </c>
       <c r="G54" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H54" s="12">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>171</v>
@@ -7193,10 +5073,10 @@
         <v>29556</v>
       </c>
       <c r="G55" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H55" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>171</v>
@@ -7225,10 +5105,10 @@
         <v>32843</v>
       </c>
       <c r="G56" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H56" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>171</v>
@@ -7257,10 +5137,10 @@
         <v>29556</v>
       </c>
       <c r="G57" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H57" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>171</v>
@@ -7289,10 +5169,10 @@
         <v>32843</v>
       </c>
       <c r="G58" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H58" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>171</v>
@@ -7321,10 +5201,10 @@
         <v>32843</v>
       </c>
       <c r="G59" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H59" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>171</v>
@@ -7353,10 +5233,10 @@
         <v>32843</v>
       </c>
       <c r="G60" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H60" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>171</v>
@@ -7385,10 +5265,10 @@
         <v>32843</v>
       </c>
       <c r="G61" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H61" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>171</v>
@@ -7417,10 +5297,10 @@
         <v>32843</v>
       </c>
       <c r="G62" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H62" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>171</v>
@@ -7449,10 +5329,10 @@
         <v>26543</v>
       </c>
       <c r="G63" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H63" s="12">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>171</v>
@@ -7481,10 +5361,10 @@
         <v>32752</v>
       </c>
       <c r="G64" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H64" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>171</v>
@@ -7513,10 +5393,10 @@
         <v>31837</v>
       </c>
       <c r="G65" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H65" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>171</v>
@@ -7545,10 +5425,10 @@
         <v>18142</v>
       </c>
       <c r="G66" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H66" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>171</v>
@@ -7577,10 +5457,10 @@
         <v>32112</v>
       </c>
       <c r="G67" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H67" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>171</v>
@@ -7609,10 +5489,10 @@
         <v>37773</v>
       </c>
       <c r="G68" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H68" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>171</v>
@@ -7641,10 +5521,10 @@
         <v>37773</v>
       </c>
       <c r="G69" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H69" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>171</v>
@@ -7673,10 +5553,10 @@
         <v>36312</v>
       </c>
       <c r="G70" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H70" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>171</v>
@@ -7705,10 +5585,10 @@
         <v>36312</v>
       </c>
       <c r="G71" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H71" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>171</v>
@@ -7737,10 +5617,10 @@
         <v>27638</v>
       </c>
       <c r="G72" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H72" s="12">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>171</v>
@@ -7769,10 +5649,10 @@
         <v>27638</v>
       </c>
       <c r="G73" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H73" s="12">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>171</v>
@@ -7801,10 +5681,10 @@
         <v>18142</v>
       </c>
       <c r="G74" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H74" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>171</v>
@@ -7833,10 +5713,10 @@
         <v>32112</v>
       </c>
       <c r="G75" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H75" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>171</v>
@@ -7865,10 +5745,10 @@
         <v>32112</v>
       </c>
       <c r="G76" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H76" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>171</v>
@@ -7897,10 +5777,10 @@
         <v>32112</v>
       </c>
       <c r="G77" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H77" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>171</v>
@@ -7929,10 +5809,10 @@
         <v>26908</v>
       </c>
       <c r="G78" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H78" s="12">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>171</v>
@@ -7961,10 +5841,10 @@
         <v>29830</v>
       </c>
       <c r="G79" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H79" s="12">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>171</v>
@@ -7993,10 +5873,10 @@
         <v>29830</v>
       </c>
       <c r="G80" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H80" s="12">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>171</v>
@@ -8025,10 +5905,10 @@
         <v>26908</v>
       </c>
       <c r="G81" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H81" s="12">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>171</v>
@@ -8057,10 +5937,10 @@
         <v>29830</v>
       </c>
       <c r="G82" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H82" s="12">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>171</v>
@@ -8089,10 +5969,10 @@
         <v>33117</v>
       </c>
       <c r="G83" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H83" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>171</v>
@@ -8121,10 +6001,10 @@
         <v>29830</v>
       </c>
       <c r="G84" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H84" s="12">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>171</v>
@@ -8153,10 +6033,10 @@
         <v>33117</v>
       </c>
       <c r="G85" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H85" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>171</v>
@@ -8185,10 +6065,10 @@
         <v>33117</v>
       </c>
       <c r="G86" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H86" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>171</v>
@@ -8217,10 +6097,10 @@
         <v>33117</v>
       </c>
       <c r="G87" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H87" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>171</v>
@@ -8249,10 +6129,10 @@
         <v>33117</v>
       </c>
       <c r="G88" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H88" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>171</v>
@@ -8281,10 +6161,10 @@
         <v>33117</v>
       </c>
       <c r="G89" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H89" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I89" s="12" t="s">
         <v>171</v>
@@ -8313,10 +6193,10 @@
         <v>26816</v>
       </c>
       <c r="G90" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H90" s="12">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>171</v>
@@ -8345,10 +6225,10 @@
         <v>32752</v>
       </c>
       <c r="G91" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H91" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>171</v>
@@ -8377,10 +6257,10 @@
         <v>32112</v>
       </c>
       <c r="G92" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H92" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>171</v>
@@ -8409,10 +6289,10 @@
         <v>44440</v>
       </c>
       <c r="G93" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H93" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>227</v>
@@ -8441,10 +6321,10 @@
         <v>44440</v>
       </c>
       <c r="G94" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H94" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>227</v>
@@ -8473,10 +6353,10 @@
         <v>44440</v>
       </c>
       <c r="G95" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H95" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95" s="12" t="s">
         <v>227</v>
@@ -8505,10 +6385,10 @@
         <v>44440</v>
       </c>
       <c r="G96" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H96" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" s="12" t="s">
         <v>227</v>
@@ -8537,10 +6417,10 @@
         <v>44440</v>
       </c>
       <c r="G97" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H97" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>227</v>
@@ -8569,10 +6449,10 @@
         <v>44440</v>
       </c>
       <c r="G98" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H98" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>227</v>
@@ -8601,10 +6481,10 @@
         <v>44440</v>
       </c>
       <c r="G99" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H99" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>227</v>
@@ -8633,10 +6513,10 @@
         <v>44440</v>
       </c>
       <c r="G100" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H100" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>227</v>
@@ -8665,10 +6545,10 @@
         <v>44440</v>
       </c>
       <c r="G101" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H101" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>227</v>
@@ -8697,10 +6577,10 @@
         <v>44440</v>
       </c>
       <c r="G102" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H102" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>227</v>
@@ -8729,10 +6609,10 @@
         <v>44440</v>
       </c>
       <c r="G103" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H103" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>227</v>
@@ -8761,10 +6641,10 @@
         <v>44440</v>
       </c>
       <c r="G104" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H104" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>227</v>
@@ -8793,10 +6673,10 @@
         <v>44440</v>
       </c>
       <c r="G105" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H105" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>227</v>
@@ -8825,10 +6705,10 @@
         <v>44440</v>
       </c>
       <c r="G106" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H106" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>227</v>
@@ -8857,10 +6737,10 @@
         <v>44440</v>
       </c>
       <c r="G107" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H107" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>227</v>
@@ -8889,10 +6769,10 @@
         <v>44440</v>
       </c>
       <c r="G108" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H108" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>227</v>
@@ -8921,10 +6801,10 @@
         <v>44440</v>
       </c>
       <c r="G109" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H109" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>227</v>
@@ -8953,10 +6833,10 @@
         <v>44440</v>
       </c>
       <c r="G110" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H110" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>227</v>
@@ -8985,10 +6865,10 @@
         <v>44440</v>
       </c>
       <c r="G111" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H111" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>227</v>
@@ -9017,10 +6897,10 @@
         <v>44440</v>
       </c>
       <c r="G112" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H112" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>227</v>
@@ -9049,10 +6929,10 @@
         <v>44440</v>
       </c>
       <c r="G113" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H113" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>227</v>
@@ -9081,10 +6961,10 @@
         <v>44440</v>
       </c>
       <c r="G114" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H114" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>227</v>
@@ -9113,10 +6993,10 @@
         <v>44440</v>
       </c>
       <c r="G115" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H115" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>227</v>
@@ -9145,10 +7025,10 @@
         <v>44531</v>
       </c>
       <c r="G116" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H116" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>227</v>
@@ -9177,10 +7057,10 @@
         <v>44531</v>
       </c>
       <c r="G117" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H117" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>227</v>
@@ -9209,10 +7089,10 @@
         <v>44531</v>
       </c>
       <c r="G118" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H118" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>227</v>
@@ -9241,10 +7121,10 @@
         <v>44531</v>
       </c>
       <c r="G119" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H119" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>227</v>
@@ -9273,10 +7153,10 @@
         <v>44531</v>
       </c>
       <c r="G120" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H120" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>227</v>
@@ -9305,10 +7185,10 @@
         <v>44531</v>
       </c>
       <c r="G121" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H121" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>227</v>
@@ -9337,10 +7217,10 @@
         <v>44531</v>
       </c>
       <c r="G122" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H122" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>227</v>
@@ -9369,10 +7249,10 @@
         <v>44531</v>
       </c>
       <c r="G123" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H123" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>227</v>
@@ -9401,10 +7281,10 @@
         <v>44531</v>
       </c>
       <c r="G124" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H124" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>227</v>
@@ -9433,10 +7313,10 @@
         <v>44531</v>
       </c>
       <c r="G125" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H125" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>227</v>
@@ -9465,10 +7345,10 @@
         <v>44531</v>
       </c>
       <c r="G126" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H126" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>227</v>
@@ -9497,10 +7377,10 @@
         <v>44531</v>
       </c>
       <c r="G127" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H127" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>227</v>
@@ -9529,10 +7409,10 @@
         <v>44531</v>
       </c>
       <c r="G128" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H128" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>227</v>
@@ -9561,10 +7441,10 @@
         <v>44531</v>
       </c>
       <c r="G129" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H129" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>227</v>
@@ -9593,10 +7473,10 @@
         <v>44531</v>
       </c>
       <c r="G130" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H130" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>227</v>
@@ -9625,10 +7505,10 @@
         <v>44531</v>
       </c>
       <c r="G131" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H131" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>227</v>
@@ -9657,10 +7537,10 @@
         <v>44531</v>
       </c>
       <c r="G132" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H132" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>227</v>
@@ -9689,10 +7569,10 @@
         <v>44531</v>
       </c>
       <c r="G133" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H133" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>227</v>
@@ -9721,10 +7601,10 @@
         <v>44531</v>
       </c>
       <c r="G134" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H134" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>227</v>
@@ -9753,10 +7633,10 @@
         <v>44531</v>
       </c>
       <c r="G135" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H135" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>227</v>
@@ -9785,10 +7665,10 @@
         <v>44531</v>
       </c>
       <c r="G136" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H136" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>227</v>
@@ -9817,10 +7697,10 @@
         <v>44531</v>
       </c>
       <c r="G137" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H137" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>227</v>
@@ -9849,10 +7729,10 @@
         <v>44531</v>
       </c>
       <c r="G138" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H138" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>227</v>
@@ -9881,10 +7761,10 @@
         <v>38596</v>
       </c>
       <c r="G139" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H139" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>139</v>
@@ -9913,10 +7793,10 @@
         <v>38596</v>
       </c>
       <c r="G140" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H140" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>139</v>
@@ -9945,10 +7825,10 @@
         <v>38596</v>
       </c>
       <c r="G141" s="11">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H141" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>139</v>
@@ -10106,6 +7986,10 @@
     <hyperlink ref="E141" location="A124984989C" display="A124984989C" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10113,13 +7997,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EA305"/>
+  <dimension ref="A1:EA306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="CL11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="CY295" sqref="CY295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12894,394 +10778,394 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="P8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Q8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="R8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="S8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="T8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="U8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="V8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="W8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="X8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Y8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Z8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="EA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:131" x14ac:dyDescent="0.2">
@@ -13289,394 +11173,394 @@
         <v>137</v>
       </c>
       <c r="B9" s="1">
+        <v>296</v>
+      </c>
+      <c r="C9" s="1">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1">
+        <v>97</v>
+      </c>
+      <c r="H9" s="1">
+        <v>192</v>
+      </c>
+      <c r="I9" s="1">
+        <v>192</v>
+      </c>
+      <c r="J9" s="1">
+        <v>296</v>
+      </c>
+      <c r="K9" s="1">
+        <v>143</v>
+      </c>
+      <c r="L9" s="1">
+        <v>143</v>
+      </c>
+      <c r="M9" s="1">
+        <v>143</v>
+      </c>
+      <c r="N9" s="1">
+        <v>200</v>
+      </c>
+      <c r="O9" s="1">
+        <v>168</v>
+      </c>
+      <c r="P9" s="1">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>200</v>
+      </c>
+      <c r="R9" s="1">
+        <v>168</v>
+      </c>
+      <c r="S9" s="1">
+        <v>132</v>
+      </c>
+      <c r="T9" s="1">
+        <v>168</v>
+      </c>
+      <c r="U9" s="1">
+        <v>132</v>
+      </c>
+      <c r="V9" s="1">
+        <v>132</v>
+      </c>
+      <c r="W9" s="1">
+        <v>132</v>
+      </c>
+      <c r="X9" s="1">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>201</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>132</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>143</v>
+      </c>
+      <c r="AC9" s="1">
         <v>295</v>
       </c>
-      <c r="C9" s="1">
+      <c r="AD9" s="1">
         <v>142</v>
       </c>
-      <c r="D9" s="1">
+      <c r="AE9" s="1">
         <v>80</v>
       </c>
-      <c r="E9" s="1">
+      <c r="AF9" s="1">
         <v>80</v>
       </c>
-      <c r="F9" s="1">
+      <c r="AG9" s="1">
         <v>96</v>
       </c>
-      <c r="G9" s="1">
+      <c r="AH9" s="1">
         <v>96</v>
       </c>
-      <c r="H9" s="1">
+      <c r="AI9" s="1">
         <v>191</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AJ9" s="1">
         <v>191</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AK9" s="1">
         <v>295</v>
       </c>
-      <c r="K9" s="1">
+      <c r="AL9" s="1">
         <v>142</v>
       </c>
-      <c r="L9" s="1">
+      <c r="AM9" s="1">
         <v>142</v>
       </c>
-      <c r="M9" s="1">
+      <c r="AN9" s="1">
         <v>142</v>
       </c>
-      <c r="N9" s="1">
+      <c r="AO9" s="1">
         <v>199</v>
       </c>
-      <c r="O9" s="1">
+      <c r="AP9" s="1">
         <v>167</v>
       </c>
-      <c r="P9" s="1">
+      <c r="AQ9" s="1">
         <v>167</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="AR9" s="1">
         <v>199</v>
       </c>
-      <c r="R9" s="1">
+      <c r="AS9" s="1">
         <v>167</v>
       </c>
-      <c r="S9" s="1">
+      <c r="AT9" s="1">
         <v>131</v>
       </c>
-      <c r="T9" s="1">
+      <c r="AU9" s="1">
         <v>167</v>
       </c>
-      <c r="U9" s="1">
+      <c r="AV9" s="1">
         <v>131</v>
       </c>
-      <c r="V9" s="1">
+      <c r="AW9" s="1">
         <v>131</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AX9" s="1">
         <v>131</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AY9" s="1">
         <v>131</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AZ9" s="1">
         <v>131</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="BA9" s="1">
         <v>200</v>
       </c>
-      <c r="AA9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AB9" s="1">
+      <c r="BB9" s="1">
+        <v>132</v>
+      </c>
+      <c r="BC9" s="1">
         <v>142</v>
       </c>
-      <c r="AC9" s="1">
-        <v>294</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>141</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>79</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>95</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>95</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>190</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>190</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>294</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>141</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>141</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>141</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>166</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>166</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>166</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>166</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>130</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>131</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>141</v>
-      </c>
       <c r="BD9" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BF9" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BG9" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BH9" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BI9" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BJ9" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BK9" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BL9" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BM9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BN9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BO9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BP9" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BQ9" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BR9" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BS9" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BT9" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BU9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BV9" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BW9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BX9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BY9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BZ9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CA9" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CB9" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CC9" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CD9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CE9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CX9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>4</v>
+      </c>
+      <c r="DA9" s="1">
+        <v>4</v>
+      </c>
+      <c r="DB9" s="1">
         <v>3</v>
       </c>
-      <c r="CF9" s="1">
+      <c r="DC9" s="1">
         <v>3</v>
       </c>
-      <c r="CG9" s="1">
+      <c r="DD9" s="1">
         <v>3</v>
       </c>
-      <c r="CH9" s="1">
+      <c r="DE9" s="1">
         <v>3</v>
       </c>
-      <c r="CI9" s="1">
+      <c r="DF9" s="1">
         <v>3</v>
       </c>
-      <c r="CJ9" s="1">
+      <c r="DG9" s="1">
         <v>3</v>
       </c>
-      <c r="CK9" s="1">
+      <c r="DH9" s="1">
         <v>3</v>
       </c>
-      <c r="CL9" s="1">
+      <c r="DI9" s="1">
         <v>3</v>
       </c>
-      <c r="CM9" s="1">
+      <c r="DJ9" s="1">
         <v>3</v>
       </c>
-      <c r="CN9" s="1">
+      <c r="DK9" s="1">
         <v>3</v>
       </c>
-      <c r="CO9" s="1">
+      <c r="DL9" s="1">
         <v>3</v>
       </c>
-      <c r="CP9" s="1">
+      <c r="DM9" s="1">
         <v>3</v>
       </c>
-      <c r="CQ9" s="1">
+      <c r="DN9" s="1">
         <v>3</v>
       </c>
-      <c r="CR9" s="1">
+      <c r="DO9" s="1">
         <v>3</v>
       </c>
-      <c r="CS9" s="1">
+      <c r="DP9" s="1">
         <v>3</v>
       </c>
-      <c r="CT9" s="1">
+      <c r="DQ9" s="1">
         <v>3</v>
       </c>
-      <c r="CU9" s="1">
+      <c r="DR9" s="1">
         <v>3</v>
       </c>
-      <c r="CV9" s="1">
+      <c r="DS9" s="1">
         <v>3</v>
       </c>
-      <c r="CW9" s="1">
+      <c r="DT9" s="1">
         <v>3</v>
       </c>
-      <c r="CX9" s="1">
+      <c r="DU9" s="1">
         <v>3</v>
       </c>
-      <c r="CY9" s="1">
+      <c r="DV9" s="1">
         <v>3</v>
       </c>
-      <c r="CZ9" s="1">
+      <c r="DW9" s="1">
         <v>3</v>
       </c>
-      <c r="DA9" s="1">
+      <c r="DX9" s="1">
         <v>3</v>
       </c>
-      <c r="DB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DC9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DD9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DE9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DF9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DG9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DH9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DI9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DJ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DK9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DL9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DM9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DN9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DO9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DP9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DQ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DR9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DS9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DT9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DU9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DV9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DW9" s="1">
-        <v>2</v>
-      </c>
-      <c r="DX9" s="1">
-        <v>2</v>
-      </c>
       <c r="DY9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DZ9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="EA9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:131" x14ac:dyDescent="0.2">
@@ -26258,7 +24142,7 @@
         <v>61.9</v>
       </c>
       <c r="C194" s="8">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="H194" s="8">
         <v>65.400000000000006</v>
@@ -26327,7 +24211,7 @@
         <v>0.7</v>
       </c>
       <c r="AD194" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AI194" s="8">
         <v>0.6</v>
@@ -26396,7 +24280,7 @@
         <v>1.8</v>
       </c>
       <c r="BE194" s="8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BJ194" s="8">
         <v>2</v>
@@ -26539,7 +24423,7 @@
         <v>0.6</v>
       </c>
       <c r="AD195" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI195" s="8">
         <v>0.6</v>
@@ -27244,7 +25128,7 @@
         <v>4.5</v>
       </c>
       <c r="BE198" s="8">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="BJ198" s="8">
         <v>3.1</v>
@@ -33303,10 +31187,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="D226" s="9">
-        <v>75.456199999999995</v>
+        <v>75.450599999999994</v>
       </c>
       <c r="E226" s="9">
-        <v>74.133799999999994</v>
+        <v>74.1404</v>
       </c>
       <c r="F226" s="8">
         <v>87</v>
@@ -33539,10 +31423,10 @@
         <v>77.2</v>
       </c>
       <c r="D227" s="9">
-        <v>75.956100000000006</v>
+        <v>75.950999999999993</v>
       </c>
       <c r="E227" s="9">
-        <v>74.770300000000006</v>
+        <v>74.777000000000001</v>
       </c>
       <c r="F227" s="8">
         <v>87</v>
@@ -33781,10 +31665,10 @@
         <v>77.7</v>
       </c>
       <c r="D228" s="9">
-        <v>76.511099999999999</v>
+        <v>76.506</v>
       </c>
       <c r="E228" s="9">
-        <v>75.290599999999998</v>
+        <v>75.297300000000007</v>
       </c>
       <c r="F228" s="8">
         <v>87.6</v>
@@ -34023,10 +31907,10 @@
         <v>78.7</v>
       </c>
       <c r="D229" s="9">
-        <v>77.146199999999993</v>
+        <v>77.141000000000005</v>
       </c>
       <c r="E229" s="9">
-        <v>75.854500000000002</v>
+        <v>75.861199999999997</v>
       </c>
       <c r="F229" s="8">
         <v>88.6</v>
@@ -34265,10 +32149,10 @@
         <v>78.599999999999994</v>
       </c>
       <c r="D230" s="9">
-        <v>77.568399999999997</v>
+        <v>77.563000000000002</v>
       </c>
       <c r="E230" s="9">
-        <v>76.198800000000006</v>
+        <v>76.205600000000004</v>
       </c>
       <c r="F230" s="8">
         <v>87.9</v>
@@ -34513,10 +32397,10 @@
         <v>79.099999999999994</v>
       </c>
       <c r="D231" s="9">
-        <v>78.087699999999998</v>
+        <v>78.082300000000004</v>
       </c>
       <c r="E231" s="9">
-        <v>76.701499999999996</v>
+        <v>76.708399999999997</v>
       </c>
       <c r="F231" s="8">
         <v>87.6</v>
@@ -34761,10 +32645,10 @@
         <v>79.599999999999994</v>
       </c>
       <c r="D232" s="9">
-        <v>78.611400000000003</v>
+        <v>78.605999999999995</v>
       </c>
       <c r="E232" s="9">
-        <v>77.341399999999993</v>
+        <v>77.348299999999995</v>
       </c>
       <c r="F232" s="8">
         <v>87.7</v>
@@ -35009,10 +32893,10 @@
         <v>80.2</v>
       </c>
       <c r="D233" s="9">
-        <v>79.136200000000002</v>
+        <v>79.130700000000004</v>
       </c>
       <c r="E233" s="9">
-        <v>77.845699999999994</v>
+        <v>77.852599999999995</v>
       </c>
       <c r="F233" s="8">
         <v>88.1</v>
@@ -35257,10 +33141,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D234" s="9">
-        <v>79.616900000000001</v>
+        <v>79.611400000000003</v>
       </c>
       <c r="E234" s="9">
-        <v>78.324700000000007</v>
+        <v>78.331699999999998</v>
       </c>
       <c r="F234" s="8">
         <v>88.3</v>
@@ -35505,10 +33389,10 @@
         <v>80.900000000000006</v>
       </c>
       <c r="D235" s="9">
-        <v>80.100700000000003</v>
+        <v>80.095200000000006</v>
       </c>
       <c r="E235" s="9">
-        <v>78.8215</v>
+        <v>78.828500000000005</v>
       </c>
       <c r="F235" s="8">
         <v>88.2</v>
@@ -35753,10 +33637,10 @@
         <v>81.7</v>
       </c>
       <c r="D236" s="9">
-        <v>80.753500000000003</v>
+        <v>80.748000000000005</v>
       </c>
       <c r="E236" s="9">
-        <v>79.362799999999993</v>
+        <v>79.369900000000001</v>
       </c>
       <c r="F236" s="8">
         <v>88.8</v>
@@ -36001,10 +33885,10 @@
         <v>82.1</v>
       </c>
       <c r="D237" s="9">
-        <v>81.273899999999998</v>
+        <v>81.268199999999993</v>
       </c>
       <c r="E237" s="9">
-        <v>79.936099999999996</v>
+        <v>79.943299999999994</v>
       </c>
       <c r="F237" s="8">
         <v>88.7</v>
@@ -36249,10 +34133,10 @@
         <v>82.6</v>
       </c>
       <c r="D238" s="9">
-        <v>81.790899999999993</v>
+        <v>81.7851</v>
       </c>
       <c r="E238" s="9">
-        <v>80.492400000000004</v>
+        <v>80.499600000000001</v>
       </c>
       <c r="F238" s="8">
         <v>89.4</v>
@@ -36497,10 +34381,10 @@
         <v>83.4</v>
       </c>
       <c r="D239" s="9">
-        <v>82.302099999999996</v>
+        <v>82.296300000000002</v>
       </c>
       <c r="E239" s="9">
-        <v>80.979699999999994</v>
+        <v>80.986999999999995</v>
       </c>
       <c r="F239" s="8">
         <v>90.5</v>
@@ -36754,10 +34638,10 @@
         <v>83.9</v>
       </c>
       <c r="D240" s="9">
-        <v>82.851100000000002</v>
+        <v>82.845399999999998</v>
       </c>
       <c r="E240" s="9">
-        <v>81.613100000000003</v>
+        <v>81.620400000000004</v>
       </c>
       <c r="F240" s="8">
         <v>90.5</v>
@@ -37011,10 +34895,10 @@
         <v>84.6</v>
       </c>
       <c r="D241" s="9">
-        <v>83.540400000000005</v>
+        <v>83.534499999999994</v>
       </c>
       <c r="E241" s="9">
-        <v>82.259200000000007</v>
+        <v>82.266499999999994</v>
       </c>
       <c r="F241" s="8">
         <v>91.3</v>
@@ -37268,10 +35152,10 @@
         <v>85.9</v>
       </c>
       <c r="D242" s="9">
-        <v>84.242599999999996</v>
+        <v>84.236699999999999</v>
       </c>
       <c r="E242" s="9">
-        <v>83.018199999999993</v>
+        <v>83.025599999999997</v>
       </c>
       <c r="F242" s="8">
         <v>93.7</v>
@@ -37525,10 +35409,10 @@
         <v>86.6</v>
       </c>
       <c r="D243" s="9">
-        <v>84.825500000000005</v>
+        <v>84.820700000000002</v>
       </c>
       <c r="E243" s="9">
-        <v>83.702699999999993</v>
+        <v>83.7102</v>
       </c>
       <c r="F243" s="8">
         <v>94.5</v>
@@ -37782,10 +35666,10 @@
         <v>86.7</v>
       </c>
       <c r="D244" s="9">
-        <v>85.331500000000005</v>
+        <v>85.326599999999999</v>
       </c>
       <c r="E244" s="9">
-        <v>84.108900000000006</v>
+        <v>84.116500000000002</v>
       </c>
       <c r="F244" s="8">
         <v>93.2</v>
@@ -38039,10 +35923,10 @@
         <v>86.7</v>
       </c>
       <c r="D245" s="9">
-        <v>85.810699999999997</v>
+        <v>85.807500000000005</v>
       </c>
       <c r="E245" s="9">
-        <v>84.585999999999999</v>
+        <v>84.593599999999995</v>
       </c>
       <c r="F245" s="8">
         <v>92.2</v>
@@ -38296,10 +36180,10 @@
         <v>87.7</v>
       </c>
       <c r="D246" s="9">
-        <v>86.57</v>
+        <v>86.566400000000002</v>
       </c>
       <c r="E246" s="9">
-        <v>85.354699999999994</v>
+        <v>85.362300000000005</v>
       </c>
       <c r="F246" s="8">
         <v>94</v>
@@ -38553,10 +36437,10 @@
         <v>88.2</v>
       </c>
       <c r="D247" s="9">
-        <v>87.313500000000005</v>
+        <v>87.309899999999999</v>
       </c>
       <c r="E247" s="9">
-        <v>86.189700000000002</v>
+        <v>86.197400000000002</v>
       </c>
       <c r="F247" s="8">
         <v>94.2</v>
@@ -38810,10 +36694,10 @@
         <v>89.3</v>
       </c>
       <c r="D248" s="9">
-        <v>88.367500000000007</v>
+        <v>88.363799999999998</v>
       </c>
       <c r="E248" s="9">
-        <v>87.3108</v>
+        <v>87.318600000000004</v>
       </c>
       <c r="F248" s="8">
         <v>94.5</v>
@@ -39067,10 +36951,10 @@
         <v>90.4</v>
       </c>
       <c r="D249" s="9">
-        <v>89.382800000000003</v>
+        <v>89.378900000000002</v>
       </c>
       <c r="E249" s="9">
-        <v>88.407600000000002</v>
+        <v>88.415499999999994</v>
       </c>
       <c r="F249" s="8">
         <v>95.2</v>
@@ -39324,10 +37208,10 @@
         <v>91.6</v>
       </c>
       <c r="D250" s="9">
-        <v>90.415800000000004</v>
+        <v>90.409499999999994</v>
       </c>
       <c r="E250" s="9">
-        <v>89.430099999999996</v>
+        <v>89.430300000000003</v>
       </c>
       <c r="F250" s="8">
         <v>96.7</v>
@@ -39408,7 +37292,7 @@
         <v>1.2</v>
       </c>
       <c r="AF250" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG250" s="8">
         <v>1.6</v>
@@ -39581,10 +37465,10 @@
         <v>92.6</v>
       </c>
       <c r="D251" s="9">
-        <v>91.541899999999998</v>
+        <v>91.532899999999998</v>
       </c>
       <c r="E251" s="9">
-        <v>90.583699999999993</v>
+        <v>90.5839</v>
       </c>
       <c r="F251" s="8">
         <v>97.3</v>
@@ -39838,10 +37722,10 @@
         <v>92.6</v>
       </c>
       <c r="D252" s="9">
-        <v>92.181600000000003</v>
+        <v>92.171899999999994</v>
       </c>
       <c r="E252" s="9">
-        <v>91.361599999999996</v>
+        <v>91.361800000000002</v>
       </c>
       <c r="F252" s="8">
         <v>95.6</v>
@@ -40095,10 +37979,10 @@
         <v>92.5</v>
       </c>
       <c r="D253" s="9">
-        <v>93.016900000000007</v>
+        <v>93.012600000000006</v>
       </c>
       <c r="E253" s="9">
-        <v>92.447100000000006</v>
+        <v>92.447299999999998</v>
       </c>
       <c r="F253" s="8">
         <v>96.1</v>
@@ -40352,10 +38236,10 @@
         <v>93</v>
       </c>
       <c r="D254" s="9">
-        <v>93.632999999999996</v>
+        <v>93.628600000000006</v>
       </c>
       <c r="E254" s="9">
-        <v>93.1798</v>
+        <v>93.18</v>
       </c>
       <c r="F254" s="8">
         <v>96.7</v>
@@ -40609,10 +38493,10 @@
         <v>93.7</v>
       </c>
       <c r="D255" s="9">
-        <v>94.335300000000004</v>
+        <v>94.331199999999995</v>
       </c>
       <c r="E255" s="9">
-        <v>94.025999999999996</v>
+        <v>94.026300000000006</v>
       </c>
       <c r="F255" s="8">
         <v>96.9</v>
@@ -40866,10 +38750,10 @@
         <v>94.5</v>
       </c>
       <c r="D256" s="9">
-        <v>95.089100000000002</v>
+        <v>95.085099999999997</v>
       </c>
       <c r="E256" s="9">
-        <v>94.870900000000006</v>
+        <v>94.871200000000002</v>
       </c>
       <c r="F256" s="8">
         <v>96.9</v>
@@ -41123,10 +39007,10 @@
         <v>95.2</v>
       </c>
       <c r="D257" s="9">
-        <v>95.869900000000001</v>
+        <v>95.866799999999998</v>
       </c>
       <c r="E257" s="9">
-        <v>95.674899999999994</v>
+        <v>95.6751</v>
       </c>
       <c r="F257" s="8">
         <v>97.1</v>
@@ -41380,10 +39264,10 @@
         <v>95.8</v>
       </c>
       <c r="D258" s="9">
-        <v>96.243200000000002</v>
+        <v>96.242099999999994</v>
       </c>
       <c r="E258" s="9">
-        <v>96.176000000000002</v>
+        <v>96.176299999999998</v>
       </c>
       <c r="F258" s="8">
         <v>98.1</v>
@@ -41637,10 +39521,10 @@
         <v>96.4</v>
       </c>
       <c r="D259" s="9">
-        <v>96.7911</v>
+        <v>96.7928</v>
       </c>
       <c r="E259" s="9">
-        <v>96.649600000000007</v>
+        <v>96.649799999999999</v>
       </c>
       <c r="F259" s="8">
         <v>98.2</v>
@@ -41894,10 +39778,10 @@
         <v>97</v>
       </c>
       <c r="D260" s="9">
-        <v>97.2042</v>
+        <v>97.201800000000006</v>
       </c>
       <c r="E260" s="9">
-        <v>97.302099999999996</v>
+        <v>97.302400000000006</v>
       </c>
       <c r="F260" s="8">
         <v>98.5</v>
@@ -42151,10 +40035,10 @@
         <v>98.4</v>
       </c>
       <c r="D261" s="9">
-        <v>98.016999999999996</v>
+        <v>98.016000000000005</v>
       </c>
       <c r="E261" s="9">
-        <v>98.089699999999993</v>
+        <v>98.0899</v>
       </c>
       <c r="F261" s="8">
         <v>100.3</v>
@@ -42408,10 +40292,10 @@
         <v>99.3</v>
       </c>
       <c r="D262" s="9">
-        <v>98.807699999999997</v>
+        <v>98.8078</v>
       </c>
       <c r="E262" s="9">
-        <v>98.987700000000004</v>
+        <v>98.988</v>
       </c>
       <c r="F262" s="8">
         <v>101.6</v>
@@ -42665,10 +40549,10 @@
         <v>99.7</v>
       </c>
       <c r="D263" s="9">
-        <v>99.197699999999998</v>
+        <v>99.197900000000004</v>
       </c>
       <c r="E263" s="9">
-        <v>99.232299999999995</v>
+        <v>99.232500000000002</v>
       </c>
       <c r="F263" s="8">
         <v>101.4</v>
@@ -42922,10 +40806,10 @@
         <v>99.9</v>
       </c>
       <c r="D264" s="9">
-        <v>99.821299999999994</v>
+        <v>99.822100000000006</v>
       </c>
       <c r="E264" s="9">
-        <v>99.729900000000001</v>
+        <v>99.730199999999996</v>
       </c>
       <c r="F264" s="8">
         <v>100.2</v>
@@ -43179,10 +41063,10 @@
         <v>99.9</v>
       </c>
       <c r="D265" s="9">
-        <v>100.2259</v>
+        <v>100.226</v>
       </c>
       <c r="E265" s="9">
-        <v>100.2162</v>
+        <v>100.21639999999999</v>
       </c>
       <c r="F265" s="8">
         <v>98.8</v>
@@ -43436,10 +41320,10 @@
         <v>100.5</v>
       </c>
       <c r="D266" s="9">
-        <v>100.7551</v>
+        <v>100.754</v>
       </c>
       <c r="E266" s="9">
-        <v>100.8216</v>
+        <v>100.82080000000001</v>
       </c>
       <c r="F266" s="8">
         <v>99.6</v>
@@ -43693,10 +41577,10 @@
         <v>101.6</v>
       </c>
       <c r="D267" s="9">
-        <v>101.4545</v>
+        <v>101.476</v>
       </c>
       <c r="E267" s="9">
-        <v>101.6803</v>
+        <v>101.7176</v>
       </c>
       <c r="F267" s="8">
         <v>100.2</v>
@@ -43950,10 +41834,10 @@
         <v>102</v>
       </c>
       <c r="D268" s="9">
-        <v>101.9902</v>
+        <v>101.9863</v>
       </c>
       <c r="E268" s="9">
-        <v>102.24509999999999</v>
+        <v>102.2838</v>
       </c>
       <c r="F268" s="8">
         <v>99.8</v>
@@ -44115,7 +41999,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG268" s="8">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BH268" s="8">
         <v>-0.4</v>
@@ -44207,10 +42091,10 @@
         <v>102.4</v>
       </c>
       <c r="D269" s="9">
-        <v>102.5408</v>
+        <v>102.5414</v>
       </c>
       <c r="E269" s="9">
-        <v>103.0097</v>
+        <v>103.04859999999999</v>
       </c>
       <c r="F269" s="8">
         <v>98.6</v>
@@ -44464,10 +42348,10 @@
         <v>102.9</v>
       </c>
       <c r="D270" s="9">
-        <v>103.145</v>
+        <v>103.14149999999999</v>
       </c>
       <c r="E270" s="9">
-        <v>103.58</v>
+        <v>103.61920000000001</v>
       </c>
       <c r="F270" s="8">
         <v>98.9</v>
@@ -44629,7 +42513,7 @@
         <v>2.4</v>
       </c>
       <c r="BG270" s="8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BH270" s="8">
         <v>-0.7</v>
@@ -44721,10 +42605,10 @@
         <v>103.9</v>
       </c>
       <c r="D271" s="9">
-        <v>103.8779</v>
+        <v>103.9015</v>
       </c>
       <c r="E271" s="9">
-        <v>104.23950000000001</v>
+        <v>104.279</v>
       </c>
       <c r="F271" s="8">
         <v>100.1</v>
@@ -44975,13 +42859,13 @@
         <v>104.8</v>
       </c>
       <c r="C272" s="8">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="D272" s="9">
-        <v>104.70569999999999</v>
+        <v>104.70180000000001</v>
       </c>
       <c r="E272" s="9">
-        <v>105.16</v>
+        <v>104.98260000000001</v>
       </c>
       <c r="F272" s="8">
         <v>100.8</v>
@@ -45056,13 +42940,13 @@
         <v>0.8</v>
       </c>
       <c r="AD272" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AE272" s="8">
         <v>0.8</v>
       </c>
       <c r="AF272" s="8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AG272" s="8">
         <v>0.7</v>
@@ -45137,13 +43021,13 @@
         <v>2.7</v>
       </c>
       <c r="BE272" s="8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BF272" s="8">
         <v>2.7</v>
       </c>
       <c r="BG272" s="8">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BH272" s="8">
         <v>1</v>
@@ -45235,10 +43119,10 @@
         <v>105.4</v>
       </c>
       <c r="D273" s="9">
-        <v>105.26430000000001</v>
+        <v>105.2655</v>
       </c>
       <c r="E273" s="9">
-        <v>105.7443</v>
+        <v>105.5659</v>
       </c>
       <c r="F273" s="8">
         <v>101.2</v>
@@ -45313,7 +43197,7 @@
         <v>0.6</v>
       </c>
       <c r="AD273" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AE273" s="8">
         <v>0.5</v>
@@ -45400,7 +43284,7 @@
         <v>2.7</v>
       </c>
       <c r="BG273" s="8">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BH273" s="8">
         <v>2.6</v>
@@ -45492,10 +43376,10 @@
         <v>106.1</v>
       </c>
       <c r="D274" s="9">
-        <v>105.9949</v>
+        <v>105.9969</v>
       </c>
       <c r="E274" s="9">
-        <v>106.37869999999999</v>
+        <v>106.1992</v>
       </c>
       <c r="F274" s="8">
         <v>101.8</v>
@@ -45657,7 +43541,7 @@
         <v>2.8</v>
       </c>
       <c r="BG274" s="8">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BH274" s="8">
         <v>2.9</v>
@@ -45749,10 +43633,10 @@
         <v>106.3</v>
       </c>
       <c r="D275" s="9">
-        <v>106.3869</v>
+        <v>106.3968</v>
       </c>
       <c r="E275" s="9">
-        <v>106.9457</v>
+        <v>106.76309999999999</v>
       </c>
       <c r="F275" s="8">
         <v>102.1</v>
@@ -45914,7 +43798,7 @@
         <v>2.4</v>
       </c>
       <c r="BG275" s="8">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BH275" s="8">
         <v>2</v>
@@ -46006,10 +43890,10 @@
         <v>106.5</v>
       </c>
       <c r="D276" s="9">
-        <v>107.0265</v>
+        <v>107.01609999999999</v>
       </c>
       <c r="E276" s="9">
-        <v>107.6399</v>
+        <v>107.45610000000001</v>
       </c>
       <c r="F276" s="8">
         <v>101.5</v>
@@ -46165,7 +44049,7 @@
         <v>1.7</v>
       </c>
       <c r="BE276" s="8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BF276" s="8">
         <v>2.2000000000000002</v>
@@ -46263,10 +44147,10 @@
         <v>106.8</v>
       </c>
       <c r="D277" s="9">
-        <v>107.6878</v>
+        <v>107.6778</v>
       </c>
       <c r="E277" s="9">
-        <v>108.31059999999999</v>
+        <v>108.12569999999999</v>
       </c>
       <c r="F277" s="8">
         <v>100.3</v>
@@ -46520,10 +44404,10 @@
         <v>107.7</v>
       </c>
       <c r="D278" s="9">
-        <v>108.3313</v>
+        <v>108.3194</v>
       </c>
       <c r="E278" s="9">
-        <v>108.8197</v>
+        <v>108.6242</v>
       </c>
       <c r="F278" s="8">
         <v>101.5</v>
@@ -46777,10 +44661,10 @@
         <v>107.8</v>
       </c>
       <c r="D279" s="9">
-        <v>108.6533</v>
+        <v>108.6427</v>
       </c>
       <c r="E279" s="9">
-        <v>109.3336</v>
+        <v>109.1527</v>
       </c>
       <c r="F279" s="8">
         <v>101.8</v>
@@ -47034,10 +44918,10 @@
         <v>108.3</v>
       </c>
       <c r="D280" s="9">
-        <v>109.2787</v>
+        <v>109.27070000000001</v>
       </c>
       <c r="E280" s="9">
-        <v>109.77500000000001</v>
+        <v>109.5933</v>
       </c>
       <c r="F280" s="8">
         <v>102.3</v>
@@ -47291,10 +45175,10 @@
         <v>108.2</v>
       </c>
       <c r="D281" s="9">
-        <v>109.5491</v>
+        <v>109.5416</v>
       </c>
       <c r="E281" s="9">
-        <v>109.93129999999999</v>
+        <v>109.74939999999999</v>
       </c>
       <c r="F281" s="8">
         <v>100.9</v>
@@ -47548,10 +45432,10 @@
         <v>108.8</v>
       </c>
       <c r="D282" s="9">
-        <v>110.087</v>
+        <v>110.0706</v>
       </c>
       <c r="E282" s="9">
-        <v>110.2431</v>
+        <v>110.0643</v>
       </c>
       <c r="F282" s="8">
         <v>101.5</v>
@@ -47805,10 +45689,10 @@
         <v>109.3</v>
       </c>
       <c r="D283" s="9">
-        <v>110.4328</v>
+        <v>110.4203</v>
       </c>
       <c r="E283" s="9">
-        <v>110.5727</v>
+        <v>110.3933</v>
       </c>
       <c r="F283" s="8">
         <v>102.5</v>
@@ -48062,10 +45946,10 @@
         <v>109.8</v>
       </c>
       <c r="D284" s="9">
-        <v>110.8937</v>
+        <v>110.8814</v>
       </c>
       <c r="E284" s="9">
-        <v>111.06359999999999</v>
+        <v>110.8835</v>
       </c>
       <c r="F284" s="8">
         <v>102.4</v>
@@ -48319,10 +46203,10 @@
         <v>110.5</v>
       </c>
       <c r="D285" s="9">
-        <v>111.4273</v>
+        <v>111.40349999999999</v>
       </c>
       <c r="E285" s="9">
-        <v>111.6641</v>
+        <v>111.483</v>
       </c>
       <c r="F285" s="8">
         <v>102.2</v>
@@ -48576,10 +46460,10 @@
         <v>110.9</v>
       </c>
       <c r="D286" s="9">
-        <v>111.9543</v>
+        <v>111.9203</v>
       </c>
       <c r="E286" s="9">
-        <v>112.28870000000001</v>
+        <v>112.09990000000001</v>
       </c>
       <c r="F286" s="8">
         <v>101.9</v>
@@ -48741,7 +46625,7 @@
         <v>1.7</v>
       </c>
       <c r="BG286" s="8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BH286" s="8">
         <v>0.4</v>
@@ -48833,10 +46717,10 @@
         <v>111.3</v>
       </c>
       <c r="D287" s="9">
-        <v>112.367</v>
+        <v>112.33329999999999</v>
       </c>
       <c r="E287" s="9">
-        <v>112.7599</v>
+        <v>112.5702</v>
       </c>
       <c r="F287" s="8">
         <v>101.6</v>
@@ -48995,7 +46879,7 @@
         <v>1.8</v>
       </c>
       <c r="BF287" s="8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BG287" s="8">
         <v>2</v>
@@ -49090,10 +46974,10 @@
         <v>112.1</v>
       </c>
       <c r="D288" s="9">
-        <v>112.7611</v>
+        <v>112.73950000000001</v>
       </c>
       <c r="E288" s="9">
-        <v>113.283</v>
+        <v>113.0856</v>
       </c>
       <c r="F288" s="8">
         <v>102.1</v>
@@ -49347,10 +47231,10 @@
         <v>112.7</v>
       </c>
       <c r="D289" s="9">
-        <v>113.3181</v>
+        <v>113.3026</v>
       </c>
       <c r="E289" s="9">
-        <v>113.8678</v>
+        <v>113.6695</v>
       </c>
       <c r="F289" s="8">
         <v>101.7</v>
@@ -49604,10 +47488,10 @@
         <v>113.2</v>
       </c>
       <c r="D290" s="9">
-        <v>113.7928</v>
+        <v>113.75449999999999</v>
       </c>
       <c r="E290" s="9">
-        <v>114.45269999999999</v>
+        <v>114.1866</v>
       </c>
       <c r="F290" s="8">
         <v>102.2</v>
@@ -49861,10 +47745,10 @@
         <v>113.5</v>
       </c>
       <c r="D291" s="9">
-        <v>114.2671</v>
+        <v>114.2248</v>
       </c>
       <c r="E291" s="9">
-        <v>114.9299</v>
+        <v>114.613</v>
       </c>
       <c r="F291" s="8">
         <v>103</v>
@@ -50026,7 +47910,7 @@
         <v>1.7</v>
       </c>
       <c r="BG291" s="8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BH291" s="8">
         <v>1.4</v>
@@ -50118,10 +48002,10 @@
         <v>114</v>
       </c>
       <c r="D292" s="9">
-        <v>114.7555</v>
+        <v>114.72450000000001</v>
       </c>
       <c r="E292" s="9">
-        <v>115.3879</v>
+        <v>115.05759999999999</v>
       </c>
       <c r="F292" s="8">
         <v>102.7</v>
@@ -50283,7 +48167,7 @@
         <v>1.8</v>
       </c>
       <c r="BG292" s="8">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BH292" s="8">
         <v>0.6</v>
@@ -50375,10 +48259,10 @@
         <v>114.1</v>
       </c>
       <c r="D293" s="9">
-        <v>115.0792</v>
+        <v>115.0697</v>
       </c>
       <c r="E293" s="9">
-        <v>115.5607</v>
+        <v>115.2932</v>
       </c>
       <c r="F293" s="8">
         <v>102.1</v>
@@ -50459,7 +48343,7 @@
         <v>0.3</v>
       </c>
       <c r="AF293" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AG293" s="8">
         <v>-0.6</v>
@@ -50540,7 +48424,7 @@
         <v>1.6</v>
       </c>
       <c r="BG293" s="8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BH293" s="8">
         <v>0.4</v>
@@ -50632,10 +48516,10 @@
         <v>114.9</v>
       </c>
       <c r="D294" s="9">
-        <v>115.5836</v>
+        <v>115.4995</v>
       </c>
       <c r="E294" s="9">
-        <v>115.9905</v>
+        <v>115.72199999999999</v>
       </c>
       <c r="F294" s="8">
         <v>103.3</v>
@@ -50794,7 +48678,7 @@
         <v>1.5</v>
       </c>
       <c r="BF294" s="8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BG294" s="8">
         <v>1.3</v>
@@ -50886,13 +48770,13 @@
         <v>115.4</v>
       </c>
       <c r="C295" s="8">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="D295" s="9">
-        <v>116.0307</v>
+        <v>115.97069999999999</v>
       </c>
       <c r="E295" s="9">
-        <v>116.3753</v>
+        <v>116.1058</v>
       </c>
       <c r="F295" s="8">
         <v>104.2</v>
@@ -50967,7 +48851,7 @@
         <v>0.5</v>
       </c>
       <c r="AD295" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AE295" s="8">
         <v>0.4</v>
@@ -51048,7 +48932,7 @@
         <v>1.7</v>
       </c>
       <c r="BE295" s="8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BF295" s="8">
         <v>1.5</v>
@@ -51146,10 +49030,10 @@
         <v>116.1</v>
       </c>
       <c r="D296" s="9">
-        <v>116.5407</v>
+        <v>116.4757</v>
       </c>
       <c r="E296" s="9">
-        <v>116.8116</v>
+        <v>116.52679999999999</v>
       </c>
       <c r="F296" s="8">
         <v>104.4</v>
@@ -51224,7 +49108,7 @@
         <v>0.7</v>
       </c>
       <c r="AD296" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE296" s="8">
         <v>0.4</v>
@@ -51308,10 +49192,10 @@
         <v>1.8</v>
       </c>
       <c r="BF296" s="8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BG296" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH296" s="8">
         <v>1.7</v>
@@ -51400,13 +49284,13 @@
         <v>116.6</v>
       </c>
       <c r="C297" s="8">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="D297" s="9">
-        <v>117.0513</v>
+        <v>117.0265</v>
       </c>
       <c r="E297" s="9">
-        <v>117.32640000000001</v>
+        <v>117.08110000000001</v>
       </c>
       <c r="F297" s="8">
         <v>104.2</v>
@@ -51481,13 +49365,13 @@
         <v>0.3</v>
       </c>
       <c r="AD297" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AE297" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AF297" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG297" s="8">
         <v>-0.2</v>
@@ -51562,13 +49446,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BE297" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BF297" s="8">
         <v>1.7</v>
       </c>
       <c r="BG297" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BH297" s="8">
         <v>2.1</v>
@@ -51657,13 +49541,13 @@
         <v>114.4</v>
       </c>
       <c r="C298" s="8">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="D298" s="9">
-        <v>117.0603</v>
+        <v>116.8895</v>
       </c>
       <c r="E298" s="9">
-        <v>117.4502</v>
+        <v>117.15900000000001</v>
       </c>
       <c r="F298" s="8">
         <v>102.8</v>
@@ -51738,10 +49622,10 @@
         <v>-1.9</v>
       </c>
       <c r="AD298" s="8">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AE298" s="8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AF298" s="8">
         <v>0.1</v>
@@ -51822,10 +49706,10 @@
         <v>-0.3</v>
       </c>
       <c r="BF298" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BG298" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH298" s="8">
         <v>-0.5</v>
@@ -51917,10 +49801,10 @@
         <v>116.2</v>
       </c>
       <c r="D299" s="9">
-        <v>117.4044</v>
+        <v>117.30159999999999</v>
       </c>
       <c r="E299" s="9">
-        <v>117.742</v>
+        <v>117.49809999999999</v>
       </c>
       <c r="F299" s="8">
         <v>104.2</v>
@@ -51995,13 +49879,13 @@
         <v>1.6</v>
       </c>
       <c r="AD299" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AE299" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AF299" s="8">
         <v>0.3</v>
-      </c>
-      <c r="AF299" s="8">
-        <v>0.2</v>
       </c>
       <c r="AG299" s="8">
         <v>1.4</v>
@@ -52076,10 +49960,10 @@
         <v>0.7</v>
       </c>
       <c r="BE299" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BF299" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG299" s="8">
         <v>1.2</v>
@@ -52174,10 +50058,10 @@
         <v>117.2</v>
       </c>
       <c r="D300" s="9">
-        <v>117.9765</v>
+        <v>117.8707</v>
       </c>
       <c r="E300" s="9">
-        <v>118.3532</v>
+        <v>118.1297</v>
       </c>
       <c r="F300" s="8">
         <v>103.8</v>
@@ -52339,7 +50223,7 @@
         <v>1.2</v>
       </c>
       <c r="BG300" s="8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BH300" s="8">
         <v>-0.6</v>
@@ -52428,13 +50312,13 @@
         <v>117.9</v>
       </c>
       <c r="C301" s="8">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="D301" s="9">
-        <v>118.37569999999999</v>
+        <v>118.294</v>
       </c>
       <c r="E301" s="9">
-        <v>118.7681</v>
+        <v>118.5682</v>
       </c>
       <c r="F301" s="8">
         <v>104.9</v>
@@ -52509,10 +50393,10 @@
         <v>0.6</v>
       </c>
       <c r="AD301" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AE301" s="8">
         <v>0.4</v>
-      </c>
-      <c r="AE301" s="8">
-        <v>0.3</v>
       </c>
       <c r="AF301" s="8">
         <v>0.4</v>
@@ -52596,7 +50480,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG301" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH301" s="8">
         <v>0.7</v>
@@ -52685,13 +50569,13 @@
         <v>118.8</v>
       </c>
       <c r="C302" s="8">
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="D302" s="9">
-        <v>118.9706</v>
+        <v>118.724</v>
       </c>
       <c r="E302" s="9">
-        <v>119.26690000000001</v>
+        <v>118.91840000000001</v>
       </c>
       <c r="F302" s="8">
         <v>106.5</v>
@@ -52766,13 +50650,13 @@
         <v>0.8</v>
       </c>
       <c r="AD302" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AE302" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF302" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AG302" s="8">
         <v>1.5</v>
@@ -52945,10 +50829,10 @@
         <v>119.8</v>
       </c>
       <c r="D303" s="9">
-        <v>119.8522</v>
+        <v>119.7503</v>
       </c>
       <c r="E303" s="9">
-        <v>120.20829999999999</v>
+        <v>119.9422</v>
       </c>
       <c r="F303" s="8">
         <v>107.4</v>
@@ -53023,13 +50907,13 @@
         <v>0.8</v>
       </c>
       <c r="AD303" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AE303" s="8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AF303" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AG303" s="8">
         <v>0.8</v>
@@ -53293,10 +51177,10 @@
         <v>121.4</v>
       </c>
       <c r="D304" s="9">
-        <v>121.096</v>
+        <v>120.9552</v>
       </c>
       <c r="E304" s="9">
-        <v>121.346</v>
+        <v>120.9696</v>
       </c>
       <c r="F304" s="8">
         <v>108.9</v>
@@ -53458,7 +51342,7 @@
         <v>2.6</v>
       </c>
       <c r="BG304" s="8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BH304" s="8">
         <v>4.9000000000000004</v>
@@ -53685,13 +51569,13 @@
         <v>123.9</v>
       </c>
       <c r="C305" s="8">
-        <v>123.8</v>
+        <v>123.9</v>
       </c>
       <c r="D305" s="9">
-        <v>122.75320000000001</v>
+        <v>122.72329999999999</v>
       </c>
       <c r="E305" s="9">
-        <v>122.6086</v>
+        <v>122.1514</v>
       </c>
       <c r="F305" s="8">
         <v>112</v>
@@ -53766,10 +51650,10 @@
         <v>2.1</v>
       </c>
       <c r="AD305" s="8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE305" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AF305" s="8">
         <v>1</v>
@@ -53853,7 +51737,7 @@
         <v>3.7</v>
       </c>
       <c r="BG305" s="8">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BH305" s="8">
         <v>6.8</v>
@@ -54070,10 +51954,409 @@
       </c>
       <c r="EA305" s="8">
         <v>111.9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="A306" s="11">
+        <v>44713</v>
+      </c>
+      <c r="B306" s="8">
+        <v>126.1</v>
+      </c>
+      <c r="C306" s="8">
+        <v>126</v>
+      </c>
+      <c r="D306" s="9">
+        <v>124.5124</v>
+      </c>
+      <c r="E306" s="9">
+        <v>123.8741</v>
+      </c>
+      <c r="F306" s="8">
+        <v>115</v>
+      </c>
+      <c r="G306" s="8">
+        <v>133</v>
+      </c>
+      <c r="H306" s="8">
+        <v>125.8</v>
+      </c>
+      <c r="I306" s="8">
+        <v>126.6</v>
+      </c>
+      <c r="J306" s="8">
+        <v>127</v>
+      </c>
+      <c r="K306" s="8">
+        <v>125.1</v>
+      </c>
+      <c r="L306" s="8">
+        <v>118.2</v>
+      </c>
+      <c r="M306" s="8">
+        <v>122.3</v>
+      </c>
+      <c r="N306" s="8">
+        <v>127.2</v>
+      </c>
+      <c r="O306" s="8">
+        <v>122.4</v>
+      </c>
+      <c r="P306" s="8">
+        <v>127.3</v>
+      </c>
+      <c r="Q306" s="8">
+        <v>124.3</v>
+      </c>
+      <c r="R306" s="8">
+        <v>127.1</v>
+      </c>
+      <c r="S306" s="8">
+        <v>124.8</v>
+      </c>
+      <c r="T306" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="U306" s="8">
+        <v>127.8</v>
+      </c>
+      <c r="V306" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="W306" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="X306" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="Y306" s="8">
+        <v>124.6</v>
+      </c>
+      <c r="Z306" s="8">
+        <v>124.6</v>
+      </c>
+      <c r="AA306" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="AB306" s="8">
+        <v>125.7</v>
+      </c>
+      <c r="AC306" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AD306" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AE306" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AF306" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AG306" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="AH306" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AI306" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="AJ306" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AK306" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AL306" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="AM306" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AN306" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AO306" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AP306" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AQ306" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AR306" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AS306" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AT306" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AU306" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AV306" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AW306" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AX306" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AY306" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AZ306" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="BA306" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BB306" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BC306" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="BD306" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="BE306" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="BF306" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BG306" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="BH306" s="8">
+        <v>8</v>
+      </c>
+      <c r="BI306" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="BJ306" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="BK306" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="BL306" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="BM306" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="BN306" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="BO306" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="BP306" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="BQ306" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="BR306" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="BS306" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="BT306" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="BU306" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="BV306" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="BW306" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="BX306" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="BY306" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="BZ306" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="CA306" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="CB306" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="CC306" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="CD306" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="CE306" s="8">
+        <v>126.1</v>
+      </c>
+      <c r="CF306" s="10">
+        <v>42.15</v>
+      </c>
+      <c r="CG306" s="10">
+        <v>83.96</v>
+      </c>
+      <c r="CH306" s="10">
+        <v>74.22</v>
+      </c>
+      <c r="CI306" s="10">
+        <v>51.9</v>
+      </c>
+      <c r="CJ306" s="10">
+        <v>59.58</v>
+      </c>
+      <c r="CK306" s="10">
+        <v>34.32</v>
+      </c>
+      <c r="CL306" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="CM306" s="10">
+        <v>104.94</v>
+      </c>
+      <c r="CN306" s="10">
+        <v>115.03</v>
+      </c>
+      <c r="CO306" s="10">
+        <v>121.91</v>
+      </c>
+      <c r="CP306" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="CQ306" s="10">
+        <v>114.64</v>
+      </c>
+      <c r="CR306" s="10">
+        <v>118.19</v>
+      </c>
+      <c r="CS306" s="10">
+        <v>112.22</v>
+      </c>
+      <c r="CT306" s="10">
+        <v>123.21</v>
+      </c>
+      <c r="CU306" s="10">
+        <v>115.43</v>
+      </c>
+      <c r="CV306" s="10">
+        <v>120.32</v>
+      </c>
+      <c r="CW306" s="10">
+        <v>118.98</v>
+      </c>
+      <c r="CX306" s="10">
+        <v>89.16</v>
+      </c>
+      <c r="CY306" s="10">
+        <v>120.53</v>
+      </c>
+      <c r="CZ306" s="10">
+        <v>100.09</v>
+      </c>
+      <c r="DA306" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="DB306" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC306" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="DD306" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="DE306" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="DF306" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="DG306" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="DH306" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="DI306" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="DJ306" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="DK306" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="DL306" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="DM306" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="DN306" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="DO306" s="10">
+        <v>2.19</v>
+      </c>
+      <c r="DP306" s="10">
+        <v>1.91</v>
+      </c>
+      <c r="DQ306" s="10">
+        <v>2.21</v>
+      </c>
+      <c r="DR306" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="DS306" s="10">
+        <v>2.21</v>
+      </c>
+      <c r="DT306" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="DU306" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="DV306" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="DW306" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="DX306" s="10">
+        <v>1.85</v>
+      </c>
+      <c r="DY306" s="8">
+        <v>127.5</v>
+      </c>
+      <c r="DZ306" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="EA306" s="8">
+        <v>113.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -54082,9 +52365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -54182,6 +52463,10 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 OFFICIAL: Census and Statistics Act</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/abs/6401.0/640106.xlsx
+++ b/data-raw/abs/6401.0/640106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\6401_ETS_xls\JunQtr22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AUSSTATS\6401_ETS_xls\DecQtr22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB7568-371B-4286-BA59-E5B63BCF7791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BF0A74-6D84-4384-8A45-64FB535165E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,412 +18,400 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124984971F">Data1!$DY$1:$DY$10,Data1!$DY$239:$DY$306</definedName>
-    <definedName name="A124984971F_Data">Data1!$DY$239:$DY$306</definedName>
-    <definedName name="A124984971F_Latest">Data1!$DY$306</definedName>
-    <definedName name="A124984980J">Data1!$DZ$1:$DZ$10,Data1!$DZ$239:$DZ$306</definedName>
-    <definedName name="A124984980J_Data">Data1!$DZ$239:$DZ$306</definedName>
-    <definedName name="A124984980J_Latest">Data1!$DZ$306</definedName>
-    <definedName name="A124984989C">Data1!$EA$1:$EA$10,Data1!$EA$239:$EA$306</definedName>
-    <definedName name="A124984989C_Data">Data1!$EA$239:$EA$306</definedName>
-    <definedName name="A124984989C_Latest">Data1!$EA$306</definedName>
-    <definedName name="A2325846C">Data1!$B$1:$B$10,Data1!$B$11:$B$306</definedName>
-    <definedName name="A2325846C_Data">Data1!$B$11:$B$306</definedName>
-    <definedName name="A2325846C_Latest">Data1!$B$306</definedName>
-    <definedName name="A2325847F">Data1!$BD$1:$BD$10,Data1!$BD$15:$BD$306</definedName>
-    <definedName name="A2325847F_Data">Data1!$BD$15:$BD$306</definedName>
-    <definedName name="A2325847F_Latest">Data1!$BD$306</definedName>
-    <definedName name="A2325850V">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$306</definedName>
-    <definedName name="A2325850V_Data">Data1!$AC$12:$AC$306</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AC$306</definedName>
-    <definedName name="A2330526L">Data1!$F$1:$F$10,Data1!$F$210:$F$306</definedName>
-    <definedName name="A2330526L_Data">Data1!$F$210:$F$306</definedName>
-    <definedName name="A2330526L_Latest">Data1!$F$306</definedName>
-    <definedName name="A2330527R">Data1!$BH$1:$BH$10,Data1!$BH$214:$BH$306</definedName>
-    <definedName name="A2330527R_Data">Data1!$BH$214:$BH$306</definedName>
-    <definedName name="A2330527R_Latest">Data1!$BH$306</definedName>
-    <definedName name="A2330530C">Data1!$AG$1:$AG$10,Data1!$AG$211:$AG$306</definedName>
-    <definedName name="A2330530C_Data">Data1!$AG$211:$AG$306</definedName>
-    <definedName name="A2330530C_Latest">Data1!$AG$306</definedName>
-    <definedName name="A2330571X">Data1!$G$1:$G$10,Data1!$G$210:$G$306</definedName>
-    <definedName name="A2330571X_Data">Data1!$G$210:$G$306</definedName>
-    <definedName name="A2330571X_Latest">Data1!$G$306</definedName>
-    <definedName name="A2330572A">Data1!$BI$1:$BI$10,Data1!$BI$214:$BI$306</definedName>
-    <definedName name="A2330572A_Data">Data1!$BI$214:$BI$306</definedName>
-    <definedName name="A2330572A_Latest">Data1!$BI$306</definedName>
-    <definedName name="A2330575J">Data1!$AH$1:$AH$10,Data1!$AH$211:$AH$306</definedName>
-    <definedName name="A2330575J_Data">Data1!$AH$211:$AH$306</definedName>
-    <definedName name="A2330575J_Latest">Data1!$AH$306</definedName>
-    <definedName name="A2330616T">Data1!$H$1:$H$10,Data1!$H$115:$H$306</definedName>
-    <definedName name="A2330616T_Data">Data1!$H$115:$H$306</definedName>
-    <definedName name="A2330616T_Latest">Data1!$H$306</definedName>
-    <definedName name="A2330617V">Data1!$BJ$1:$BJ$10,Data1!$BJ$119:$BJ$306</definedName>
-    <definedName name="A2330617V_Data">Data1!$BJ$119:$BJ$306</definedName>
-    <definedName name="A2330617V_Latest">Data1!$BJ$306</definedName>
-    <definedName name="A2330620J">Data1!$AI$1:$AI$10,Data1!$AI$116:$AI$306</definedName>
-    <definedName name="A2330620J_Data">Data1!$AI$116:$AI$306</definedName>
-    <definedName name="A2330620J_Latest">Data1!$AI$306</definedName>
-    <definedName name="A2330661C">Data1!$K$1:$K$10,Data1!$K$164:$K$306</definedName>
-    <definedName name="A2330661C_Data">Data1!$K$164:$K$306</definedName>
-    <definedName name="A2330661C_Latest">Data1!$K$306</definedName>
-    <definedName name="A2330662F">Data1!$BM$1:$BM$10,Data1!$BM$168:$BM$306</definedName>
-    <definedName name="A2330662F_Data">Data1!$BM$168:$BM$306</definedName>
-    <definedName name="A2330662F_Latest">Data1!$BM$306</definedName>
-    <definedName name="A2330665L">Data1!$AL$1:$AL$10,Data1!$AL$165:$AL$306</definedName>
-    <definedName name="A2330665L_Data">Data1!$AL$165:$AL$306</definedName>
-    <definedName name="A2330665L_Latest">Data1!$AL$306</definedName>
-    <definedName name="A2330706W">Data1!$I$1:$I$10,Data1!$I$115:$I$306</definedName>
-    <definedName name="A2330706W_Data">Data1!$I$115:$I$306</definedName>
-    <definedName name="A2330706W_Latest">Data1!$I$306</definedName>
-    <definedName name="A2330707X">Data1!$BK$1:$BK$10,Data1!$BK$119:$BK$306</definedName>
-    <definedName name="A2330707X_Data">Data1!$BK$119:$BK$306</definedName>
-    <definedName name="A2330707X_Latest">Data1!$BK$306</definedName>
-    <definedName name="A2330710L">Data1!$AJ$1:$AJ$10,Data1!$AJ$116:$AJ$306</definedName>
-    <definedName name="A2330710L_Data">Data1!$AJ$116:$AJ$306</definedName>
-    <definedName name="A2330710L_Latest">Data1!$AJ$306</definedName>
-    <definedName name="A2330751J">Data1!$L$1:$L$10,Data1!$L$164:$L$306</definedName>
-    <definedName name="A2330751J_Data">Data1!$L$164:$L$306</definedName>
-    <definedName name="A2330751J_Latest">Data1!$L$306</definedName>
-    <definedName name="A2330752K">Data1!$BN$1:$BN$10,Data1!$BN$168:$BN$306</definedName>
-    <definedName name="A2330752K_Data">Data1!$BN$168:$BN$306</definedName>
-    <definedName name="A2330752K_Latest">Data1!$BN$306</definedName>
-    <definedName name="A2330755T">Data1!$AM$1:$AM$10,Data1!$AM$165:$AM$306</definedName>
-    <definedName name="A2330755T_Data">Data1!$AM$165:$AM$306</definedName>
-    <definedName name="A2330755T_Latest">Data1!$AM$306</definedName>
-    <definedName name="A2330796L">Data1!$M$1:$M$10,Data1!$M$164:$M$306</definedName>
-    <definedName name="A2330796L_Data">Data1!$M$164:$M$306</definedName>
-    <definedName name="A2330796L_Latest">Data1!$M$306</definedName>
-    <definedName name="A2330797R">Data1!$BO$1:$BO$10,Data1!$BO$168:$BO$306</definedName>
-    <definedName name="A2330797R_Data">Data1!$BO$168:$BO$306</definedName>
-    <definedName name="A2330797R_Latest">Data1!$BO$306</definedName>
-    <definedName name="A2330800T">Data1!$AN$1:$AN$10,Data1!$AN$165:$AN$306</definedName>
-    <definedName name="A2330800T_Data">Data1!$AN$165:$AN$306</definedName>
-    <definedName name="A2330800T_Latest">Data1!$AN$306</definedName>
-    <definedName name="A2330841L">Data1!$AB$1:$AB$10,Data1!$AB$164:$AB$306</definedName>
-    <definedName name="A2330841L_Data">Data1!$AB$164:$AB$306</definedName>
-    <definedName name="A2330841L_Latest">Data1!$AB$306</definedName>
-    <definedName name="A2330842R">Data1!$CD$1:$CD$10,Data1!$CD$168:$CD$306</definedName>
-    <definedName name="A2330842R_Data">Data1!$CD$168:$CD$306</definedName>
-    <definedName name="A2330842R_Latest">Data1!$CD$306</definedName>
-    <definedName name="A2330845W">Data1!$BC$1:$BC$10,Data1!$BC$165:$BC$306</definedName>
-    <definedName name="A2330845W_Data">Data1!$BC$165:$BC$306</definedName>
-    <definedName name="A2330845W_Latest">Data1!$BC$306</definedName>
-    <definedName name="A2332101T">Data1!$N$1:$N$10,Data1!$N$107:$N$306</definedName>
-    <definedName name="A2332101T_Data">Data1!$N$107:$N$306</definedName>
-    <definedName name="A2332101T_Latest">Data1!$N$306</definedName>
-    <definedName name="A2332102V">Data1!$BP$1:$BP$10,Data1!$BP$111:$BP$306</definedName>
-    <definedName name="A2332102V_Data">Data1!$BP$111:$BP$306</definedName>
-    <definedName name="A2332102V_Latest">Data1!$BP$306</definedName>
-    <definedName name="A2332105A">Data1!$AO$1:$AO$10,Data1!$AO$108:$AO$306</definedName>
-    <definedName name="A2332105A_Data">Data1!$AO$108:$AO$306</definedName>
-    <definedName name="A2332105A_Latest">Data1!$AO$306</definedName>
-    <definedName name="A2332146W">Data1!$O$1:$O$10,Data1!$O$139:$O$306</definedName>
-    <definedName name="A2332146W_Data">Data1!$O$139:$O$306</definedName>
-    <definedName name="A2332146W_Latest">Data1!$O$306</definedName>
-    <definedName name="A2332147X">Data1!$BQ$1:$BQ$10,Data1!$BQ$143:$BQ$306</definedName>
-    <definedName name="A2332147X_Data">Data1!$BQ$143:$BQ$306</definedName>
-    <definedName name="A2332147X_Latest">Data1!$BQ$306</definedName>
-    <definedName name="A2332150L">Data1!$AP$1:$AP$10,Data1!$AP$140:$AP$306</definedName>
-    <definedName name="A2332150L_Data">Data1!$AP$140:$AP$306</definedName>
-    <definedName name="A2332150L_Latest">Data1!$AP$306</definedName>
-    <definedName name="A2332191J">Data1!$P$1:$P$10,Data1!$P$139:$P$306</definedName>
-    <definedName name="A2332191J_Data">Data1!$P$139:$P$306</definedName>
-    <definedName name="A2332191J_Latest">Data1!$P$306</definedName>
-    <definedName name="A2332192K">Data1!$BR$1:$BR$10,Data1!$BR$143:$BR$306</definedName>
-    <definedName name="A2332192K_Data">Data1!$BR$143:$BR$306</definedName>
-    <definedName name="A2332192K_Latest">Data1!$BR$306</definedName>
-    <definedName name="A2332195T">Data1!$AQ$1:$AQ$10,Data1!$AQ$140:$AQ$306</definedName>
-    <definedName name="A2332195T_Data">Data1!$AQ$140:$AQ$306</definedName>
-    <definedName name="A2332195T_Latest">Data1!$AQ$306</definedName>
-    <definedName name="A2332236A">Data1!$Q$1:$Q$10,Data1!$Q$107:$Q$306</definedName>
-    <definedName name="A2332236A_Data">Data1!$Q$107:$Q$306</definedName>
-    <definedName name="A2332236A_Latest">Data1!$Q$306</definedName>
-    <definedName name="A2332237C">Data1!$BS$1:$BS$10,Data1!$BS$111:$BS$306</definedName>
-    <definedName name="A2332237C_Data">Data1!$BS$111:$BS$306</definedName>
-    <definedName name="A2332237C_Latest">Data1!$BS$306</definedName>
-    <definedName name="A2332240T">Data1!$AR$1:$AR$10,Data1!$AR$108:$AR$306</definedName>
-    <definedName name="A2332240T_Data">Data1!$AR$108:$AR$306</definedName>
-    <definedName name="A2332240T_Latest">Data1!$AR$306</definedName>
-    <definedName name="A2332281L">Data1!$R$1:$R$10,Data1!$R$139:$R$306</definedName>
-    <definedName name="A2332281L_Data">Data1!$R$139:$R$306</definedName>
-    <definedName name="A2332281L_Latest">Data1!$R$306</definedName>
-    <definedName name="A2332282R">Data1!$BT$1:$BT$10,Data1!$BT$143:$BT$306</definedName>
-    <definedName name="A2332282R_Data">Data1!$BT$143:$BT$306</definedName>
-    <definedName name="A2332282R_Latest">Data1!$BT$306</definedName>
-    <definedName name="A2332285W">Data1!$AS$1:$AS$10,Data1!$AS$140:$AS$306</definedName>
-    <definedName name="A2332285W_Data">Data1!$AS$140:$AS$306</definedName>
-    <definedName name="A2332285W_Latest">Data1!$AS$306</definedName>
-    <definedName name="A2332326F">Data1!$S$1:$S$10,Data1!$S$175:$S$306</definedName>
-    <definedName name="A2332326F_Data">Data1!$S$175:$S$306</definedName>
-    <definedName name="A2332326F_Latest">Data1!$S$306</definedName>
-    <definedName name="A2332327J">Data1!$BU$1:$BU$10,Data1!$BU$179:$BU$306</definedName>
-    <definedName name="A2332327J_Data">Data1!$BU$179:$BU$306</definedName>
-    <definedName name="A2332327J_Latest">Data1!$BU$306</definedName>
-    <definedName name="A2332330W">Data1!$AT$1:$AT$10,Data1!$AT$176:$AT$306</definedName>
-    <definedName name="A2332330W_Data">Data1!$AT$176:$AT$306</definedName>
-    <definedName name="A2332330W_Latest">Data1!$AT$306</definedName>
-    <definedName name="A2332371T">Data1!$T$1:$T$10,Data1!$T$139:$T$306</definedName>
-    <definedName name="A2332371T_Data">Data1!$T$139:$T$306</definedName>
-    <definedName name="A2332371T_Latest">Data1!$T$306</definedName>
-    <definedName name="A2332372V">Data1!$BV$1:$BV$10,Data1!$BV$143:$BV$306</definedName>
-    <definedName name="A2332372V_Data">Data1!$BV$143:$BV$306</definedName>
-    <definedName name="A2332372V_Latest">Data1!$BV$306</definedName>
-    <definedName name="A2332375A">Data1!$AU$1:$AU$10,Data1!$AU$140:$AU$306</definedName>
-    <definedName name="A2332375A_Data">Data1!$AU$140:$AU$306</definedName>
-    <definedName name="A2332375A_Latest">Data1!$AU$306</definedName>
-    <definedName name="A2332416K">Data1!$U$1:$U$10,Data1!$U$175:$U$306</definedName>
-    <definedName name="A2332416K_Data">Data1!$U$175:$U$306</definedName>
-    <definedName name="A2332416K_Latest">Data1!$U$306</definedName>
-    <definedName name="A2332417L">Data1!$BW$1:$BW$10,Data1!$BW$179:$BW$306</definedName>
-    <definedName name="A2332417L_Data">Data1!$BW$179:$BW$306</definedName>
-    <definedName name="A2332417L_Latest">Data1!$BW$306</definedName>
-    <definedName name="A2332420A">Data1!$AV$1:$AV$10,Data1!$AV$176:$AV$306</definedName>
-    <definedName name="A2332420A_Data">Data1!$AV$176:$AV$306</definedName>
-    <definedName name="A2332420A_Latest">Data1!$AV$306</definedName>
-    <definedName name="A2332461W">Data1!$V$1:$V$10,Data1!$V$175:$V$306</definedName>
-    <definedName name="A2332461W_Data">Data1!$V$175:$V$306</definedName>
-    <definedName name="A2332461W_Latest">Data1!$V$306</definedName>
-    <definedName name="A2332462X">Data1!$BX$1:$BX$10,Data1!$BX$179:$BX$306</definedName>
-    <definedName name="A2332462X_Data">Data1!$BX$179:$BX$306</definedName>
-    <definedName name="A2332462X_Latest">Data1!$BX$306</definedName>
-    <definedName name="A2332465F">Data1!$AW$1:$AW$10,Data1!$AW$176:$AW$306</definedName>
-    <definedName name="A2332465F_Data">Data1!$AW$176:$AW$306</definedName>
-    <definedName name="A2332465F_Latest">Data1!$AW$306</definedName>
-    <definedName name="A2332506R">Data1!$W$1:$W$10,Data1!$W$175:$W$306</definedName>
-    <definedName name="A2332506R_Data">Data1!$W$175:$W$306</definedName>
-    <definedName name="A2332506R_Latest">Data1!$W$306</definedName>
-    <definedName name="A2332507T">Data1!$BY$1:$BY$10,Data1!$BY$179:$BY$306</definedName>
-    <definedName name="A2332507T_Data">Data1!$BY$179:$BY$306</definedName>
-    <definedName name="A2332507T_Latest">Data1!$BY$306</definedName>
-    <definedName name="A2332510F">Data1!$AX$1:$AX$10,Data1!$AX$176:$AX$306</definedName>
-    <definedName name="A2332510F_Data">Data1!$AX$176:$AX$306</definedName>
-    <definedName name="A2332510F_Latest">Data1!$AX$306</definedName>
-    <definedName name="A2332551A">Data1!$Z$1:$Z$10,Data1!$Z$106:$Z$306</definedName>
-    <definedName name="A2332551A_Data">Data1!$Z$106:$Z$306</definedName>
-    <definedName name="A2332551A_Latest">Data1!$Z$306</definedName>
-    <definedName name="A2332552C">Data1!$CB$1:$CB$10,Data1!$CB$110:$CB$306</definedName>
-    <definedName name="A2332552C_Data">Data1!$CB$110:$CB$306</definedName>
-    <definedName name="A2332552C_Latest">Data1!$CB$306</definedName>
-    <definedName name="A2332555K">Data1!$BA$1:$BA$10,Data1!$BA$107:$BA$306</definedName>
-    <definedName name="A2332555K_Data">Data1!$BA$107:$BA$306</definedName>
-    <definedName name="A2332555K_Latest">Data1!$BA$306</definedName>
-    <definedName name="A2332641F">Data1!$X$1:$X$10,Data1!$X$175:$X$306</definedName>
-    <definedName name="A2332641F_Data">Data1!$X$175:$X$306</definedName>
-    <definedName name="A2332641F_Latest">Data1!$X$306</definedName>
-    <definedName name="A2332642J">Data1!$BZ$1:$BZ$10,Data1!$BZ$179:$BZ$306</definedName>
-    <definedName name="A2332642J_Data">Data1!$BZ$179:$BZ$306</definedName>
-    <definedName name="A2332642J_Latest">Data1!$BZ$306</definedName>
-    <definedName name="A2332645R">Data1!$AY$1:$AY$10,Data1!$AY$176:$AY$306</definedName>
-    <definedName name="A2332645R_Data">Data1!$AY$176:$AY$306</definedName>
-    <definedName name="A2332645R_Latest">Data1!$AY$306</definedName>
-    <definedName name="A2332686K">Data1!$Y$1:$Y$10,Data1!$Y$175:$Y$306</definedName>
-    <definedName name="A2332686K_Data">Data1!$Y$175:$Y$306</definedName>
-    <definedName name="A2332686K_Latest">Data1!$Y$306</definedName>
-    <definedName name="A2332687L">Data1!$CA$1:$CA$10,Data1!$CA$179:$CA$306</definedName>
-    <definedName name="A2332687L_Data">Data1!$CA$179:$CA$306</definedName>
-    <definedName name="A2332687L_Latest">Data1!$CA$306</definedName>
-    <definedName name="A2332690A">Data1!$AZ$1:$AZ$10,Data1!$AZ$176:$AZ$306</definedName>
-    <definedName name="A2332690A_Data">Data1!$AZ$176:$AZ$306</definedName>
-    <definedName name="A2332690A_Latest">Data1!$AZ$306</definedName>
-    <definedName name="A3597525W">Data1!$CE$1:$CE$10,Data1!$CE$303:$CE$306</definedName>
-    <definedName name="A3597525W_Data">Data1!$CE$303:$CE$306</definedName>
-    <definedName name="A3597525W_Latest">Data1!$CE$306</definedName>
-    <definedName name="A3597526X">Data1!$DB$1:$DB$10,Data1!$DB$304:$DB$306</definedName>
-    <definedName name="A3597526X_Data">Data1!$DB$304:$DB$306</definedName>
-    <definedName name="A3597526X_Latest">Data1!$DB$306</definedName>
-    <definedName name="A3601620F">Data1!$CF$1:$CF$10,Data1!$CF$303:$CF$306</definedName>
-    <definedName name="A3601620F_Data">Data1!$CF$303:$CF$306</definedName>
-    <definedName name="A3601620F_Latest">Data1!$CF$306</definedName>
-    <definedName name="A3601621J">Data1!$DC$1:$DC$10,Data1!$DC$303:$DC$306</definedName>
-    <definedName name="A3601621J_Data">Data1!$DC$303:$DC$306</definedName>
-    <definedName name="A3601621J_Latest">Data1!$DC$306</definedName>
-    <definedName name="A3601665K">Data1!$CG$1:$CG$10,Data1!$CG$303:$CG$306</definedName>
-    <definedName name="A3601665K_Data">Data1!$CG$303:$CG$306</definedName>
-    <definedName name="A3601665K_Latest">Data1!$CG$306</definedName>
-    <definedName name="A3601666L">Data1!$DD$1:$DD$10,Data1!$DD$303:$DD$306</definedName>
-    <definedName name="A3601666L_Data">Data1!$DD$303:$DD$306</definedName>
-    <definedName name="A3601666L_Latest">Data1!$DD$306</definedName>
-    <definedName name="A3601710K">Data1!$CH$1:$CH$10,Data1!$CH$303:$CH$306</definedName>
-    <definedName name="A3601710K_Data">Data1!$CH$303:$CH$306</definedName>
-    <definedName name="A3601710K_Latest">Data1!$CH$306</definedName>
-    <definedName name="A3601711L">Data1!$DE$1:$DE$10,Data1!$DE$303:$DE$306</definedName>
-    <definedName name="A3601711L_Data">Data1!$DE$303:$DE$306</definedName>
-    <definedName name="A3601711L_Latest">Data1!$DE$306</definedName>
-    <definedName name="A3601755R">Data1!$CJ$1:$CJ$10,Data1!$CJ$303:$CJ$306</definedName>
-    <definedName name="A3601755R_Data">Data1!$CJ$303:$CJ$306</definedName>
-    <definedName name="A3601755R_Latest">Data1!$CJ$306</definedName>
-    <definedName name="A3601756T">Data1!$DG$1:$DG$10,Data1!$DG$303:$DG$306</definedName>
-    <definedName name="A3601756T_Data">Data1!$DG$303:$DG$306</definedName>
-    <definedName name="A3601756T_Latest">Data1!$DG$306</definedName>
-    <definedName name="A3601800R">Data1!$CI$1:$CI$10,Data1!$CI$303:$CI$306</definedName>
-    <definedName name="A3601800R_Data">Data1!$CI$303:$CI$306</definedName>
-    <definedName name="A3601800R_Latest">Data1!$CI$306</definedName>
-    <definedName name="A3601801T">Data1!$DF$1:$DF$10,Data1!$DF$303:$DF$306</definedName>
-    <definedName name="A3601801T_Data">Data1!$DF$303:$DF$306</definedName>
-    <definedName name="A3601801T_Latest">Data1!$DF$306</definedName>
-    <definedName name="A3601845V">Data1!$CK$1:$CK$10,Data1!$CK$303:$CK$306</definedName>
-    <definedName name="A3601845V_Data">Data1!$CK$303:$CK$306</definedName>
-    <definedName name="A3601845V_Latest">Data1!$CK$306</definedName>
-    <definedName name="A3601846W">Data1!$DH$1:$DH$10,Data1!$DH$303:$DH$306</definedName>
-    <definedName name="A3601846W_Data">Data1!$DH$303:$DH$306</definedName>
-    <definedName name="A3601846W_Latest">Data1!$DH$306</definedName>
-    <definedName name="A3601890F">Data1!$CL$1:$CL$10,Data1!$CL$303:$CL$306</definedName>
-    <definedName name="A3601890F_Data">Data1!$CL$303:$CL$306</definedName>
-    <definedName name="A3601890F_Latest">Data1!$CL$306</definedName>
-    <definedName name="A3601891J">Data1!$DI$1:$DI$10,Data1!$DI$303:$DI$306</definedName>
-    <definedName name="A3601891J_Data">Data1!$DI$303:$DI$306</definedName>
-    <definedName name="A3601891J_Latest">Data1!$DI$306</definedName>
-    <definedName name="A3601935X">Data1!$DA$1:$DA$10,Data1!$DA$303:$DA$306</definedName>
-    <definedName name="A3601935X_Data">Data1!$DA$303:$DA$306</definedName>
-    <definedName name="A3601935X_Latest">Data1!$DA$306</definedName>
-    <definedName name="A3601936A">Data1!$DX$1:$DX$10,Data1!$DX$303:$DX$306</definedName>
-    <definedName name="A3601936A_Data">Data1!$DX$303:$DX$306</definedName>
-    <definedName name="A3601936A_Latest">Data1!$DX$306</definedName>
-    <definedName name="A3602925L">Data1!$CM$1:$CM$10,Data1!$CM$303:$CM$306</definedName>
-    <definedName name="A3602925L_Data">Data1!$CM$303:$CM$306</definedName>
-    <definedName name="A3602925L_Latest">Data1!$CM$306</definedName>
-    <definedName name="A3602926R">Data1!$DJ$1:$DJ$10,Data1!$DJ$303:$DJ$306</definedName>
-    <definedName name="A3602926R_Data">Data1!$DJ$303:$DJ$306</definedName>
-    <definedName name="A3602926R_Latest">Data1!$DJ$306</definedName>
-    <definedName name="A3602970X">Data1!$CN$1:$CN$10,Data1!$CN$303:$CN$306</definedName>
-    <definedName name="A3602970X_Data">Data1!$CN$303:$CN$306</definedName>
-    <definedName name="A3602970X_Latest">Data1!$CN$306</definedName>
-    <definedName name="A3602971A">Data1!$DK$1:$DK$10,Data1!$DK$303:$DK$306</definedName>
-    <definedName name="A3602971A_Data">Data1!$DK$303:$DK$306</definedName>
-    <definedName name="A3602971A_Latest">Data1!$DK$306</definedName>
-    <definedName name="A3603015V">Data1!$CO$1:$CO$10,Data1!$CO$303:$CO$306</definedName>
-    <definedName name="A3603015V_Data">Data1!$CO$303:$CO$306</definedName>
-    <definedName name="A3603015V_Latest">Data1!$CO$306</definedName>
-    <definedName name="A3603016W">Data1!$DL$1:$DL$10,Data1!$DL$303:$DL$306</definedName>
-    <definedName name="A3603016W_Data">Data1!$DL$303:$DL$306</definedName>
-    <definedName name="A3603016W_Latest">Data1!$DL$306</definedName>
-    <definedName name="A3603060F">Data1!$CP$1:$CP$10,Data1!$CP$303:$CP$306</definedName>
-    <definedName name="A3603060F_Data">Data1!$CP$303:$CP$306</definedName>
-    <definedName name="A3603060F_Latest">Data1!$CP$306</definedName>
-    <definedName name="A3603061J">Data1!$DM$1:$DM$10,Data1!$DM$303:$DM$306</definedName>
-    <definedName name="A3603061J_Data">Data1!$DM$303:$DM$306</definedName>
-    <definedName name="A3603061J_Latest">Data1!$DM$306</definedName>
-    <definedName name="A3603105X">Data1!$CQ$1:$CQ$10,Data1!$CQ$303:$CQ$306</definedName>
-    <definedName name="A3603105X_Data">Data1!$CQ$303:$CQ$306</definedName>
-    <definedName name="A3603105X_Latest">Data1!$CQ$306</definedName>
-    <definedName name="A3603106A">Data1!$DN$1:$DN$10,Data1!$DN$303:$DN$306</definedName>
-    <definedName name="A3603106A_Data">Data1!$DN$303:$DN$306</definedName>
-    <definedName name="A3603106A_Latest">Data1!$DN$306</definedName>
-    <definedName name="A3603150K">Data1!$CR$1:$CR$10,Data1!$CR$303:$CR$306</definedName>
-    <definedName name="A3603150K_Data">Data1!$CR$303:$CR$306</definedName>
-    <definedName name="A3603150K_Latest">Data1!$CR$306</definedName>
-    <definedName name="A3603151L">Data1!$DO$1:$DO$10,Data1!$DO$303:$DO$306</definedName>
-    <definedName name="A3603151L_Data">Data1!$DO$303:$DO$306</definedName>
-    <definedName name="A3603151L_Latest">Data1!$DO$306</definedName>
-    <definedName name="A3603195R">Data1!$CS$1:$CS$10,Data1!$CS$303:$CS$306</definedName>
-    <definedName name="A3603195R_Data">Data1!$CS$303:$CS$306</definedName>
-    <definedName name="A3603195R_Latest">Data1!$CS$306</definedName>
-    <definedName name="A3603196T">Data1!$DP$1:$DP$10,Data1!$DP$303:$DP$306</definedName>
-    <definedName name="A3603196T_Data">Data1!$DP$303:$DP$306</definedName>
-    <definedName name="A3603196T_Latest">Data1!$DP$306</definedName>
-    <definedName name="A3603240R">Data1!$CT$1:$CT$10,Data1!$CT$303:$CT$306</definedName>
-    <definedName name="A3603240R_Data">Data1!$CT$303:$CT$306</definedName>
-    <definedName name="A3603240R_Latest">Data1!$CT$306</definedName>
-    <definedName name="A3603241T">Data1!$DQ$1:$DQ$10,Data1!$DQ$303:$DQ$306</definedName>
-    <definedName name="A3603241T_Data">Data1!$DQ$303:$DQ$306</definedName>
-    <definedName name="A3603241T_Latest">Data1!$DQ$306</definedName>
-    <definedName name="A3603285V">Data1!$CU$1:$CU$10,Data1!$CU$303:$CU$306</definedName>
-    <definedName name="A3603285V_Data">Data1!$CU$303:$CU$306</definedName>
-    <definedName name="A3603285V_Latest">Data1!$CU$306</definedName>
-    <definedName name="A3603286W">Data1!$DR$1:$DR$10,Data1!$DR$303:$DR$306</definedName>
-    <definedName name="A3603286W_Data">Data1!$DR$303:$DR$306</definedName>
-    <definedName name="A3603286W_Latest">Data1!$DR$306</definedName>
-    <definedName name="A3603330V">Data1!$CV$1:$CV$10,Data1!$CV$303:$CV$306</definedName>
-    <definedName name="A3603330V_Data">Data1!$CV$303:$CV$306</definedName>
-    <definedName name="A3603330V_Latest">Data1!$CV$306</definedName>
-    <definedName name="A3603331W">Data1!$DS$1:$DS$10,Data1!$DS$303:$DS$306</definedName>
-    <definedName name="A3603331W_Data">Data1!$DS$303:$DS$306</definedName>
-    <definedName name="A3603331W_Latest">Data1!$DS$306</definedName>
-    <definedName name="A3603375X">Data1!$CY$1:$CY$10,Data1!$CY$303:$CY$306</definedName>
-    <definedName name="A3603375X_Data">Data1!$CY$303:$CY$306</definedName>
-    <definedName name="A3603375X_Latest">Data1!$CY$306</definedName>
-    <definedName name="A3603376A">Data1!$DV$1:$DV$10,Data1!$DV$303:$DV$306</definedName>
-    <definedName name="A3603376A_Data">Data1!$DV$303:$DV$306</definedName>
-    <definedName name="A3603376A_Latest">Data1!$DV$306</definedName>
-    <definedName name="A3603465C">Data1!$CW$1:$CW$10,Data1!$CW$303:$CW$306</definedName>
-    <definedName name="A3603465C_Data">Data1!$CW$303:$CW$306</definedName>
-    <definedName name="A3603465C_Latest">Data1!$CW$306</definedName>
-    <definedName name="A3603466F">Data1!$DT$1:$DT$10,Data1!$DT$303:$DT$306</definedName>
-    <definedName name="A3603466F_Data">Data1!$DT$303:$DT$306</definedName>
-    <definedName name="A3603466F_Latest">Data1!$DT$306</definedName>
-    <definedName name="A3603510C">Data1!$CX$1:$CX$10,Data1!$CX$303:$CX$306</definedName>
-    <definedName name="A3603510C_Data">Data1!$CX$303:$CX$306</definedName>
-    <definedName name="A3603510C_Latest">Data1!$CX$306</definedName>
-    <definedName name="A3603511F">Data1!$DU$1:$DU$10,Data1!$DU$303:$DU$306</definedName>
-    <definedName name="A3603511F_Data">Data1!$DU$303:$DU$306</definedName>
-    <definedName name="A3603511F_Latest">Data1!$DU$306</definedName>
-    <definedName name="A3604378X">Data1!$AA$1:$AA$10,Data1!$AA$175:$AA$306</definedName>
-    <definedName name="A3604378X_Data">Data1!$AA$175:$AA$306</definedName>
-    <definedName name="A3604378X_Latest">Data1!$AA$306</definedName>
-    <definedName name="A3604379A">Data1!$CC$1:$CC$10,Data1!$CC$175:$CC$306</definedName>
-    <definedName name="A3604379A_Data">Data1!$CC$175:$CC$306</definedName>
-    <definedName name="A3604379A_Latest">Data1!$CC$306</definedName>
-    <definedName name="A3604380K">Data1!$CZ$1:$CZ$10,Data1!$CZ$303:$CZ$306</definedName>
-    <definedName name="A3604380K_Data">Data1!$CZ$303:$CZ$306</definedName>
-    <definedName name="A3604380K_Latest">Data1!$CZ$306</definedName>
-    <definedName name="A3604381L">Data1!$DW$1:$DW$10,Data1!$DW$303:$DW$306</definedName>
-    <definedName name="A3604381L_Data">Data1!$DW$303:$DW$306</definedName>
-    <definedName name="A3604381L_Latest">Data1!$DW$306</definedName>
-    <definedName name="A3604382R">Data1!$BB$1:$BB$10,Data1!$BB$175:$BB$306</definedName>
-    <definedName name="A3604382R_Data">Data1!$BB$175:$BB$306</definedName>
-    <definedName name="A3604382R_Latest">Data1!$BB$306</definedName>
-    <definedName name="A3604398J">Data1!$J$1:$J$10,Data1!$J$11:$J$306</definedName>
-    <definedName name="A3604398J_Data">Data1!$J$11:$J$306</definedName>
-    <definedName name="A3604398J_Latest">Data1!$J$306</definedName>
-    <definedName name="A3604399K">Data1!$BL$1:$BL$10,Data1!$BL$15:$BL$306</definedName>
-    <definedName name="A3604399K_Data">Data1!$BL$15:$BL$306</definedName>
-    <definedName name="A3604399K_Latest">Data1!$BL$306</definedName>
-    <definedName name="A3604402L">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$306</definedName>
-    <definedName name="A3604402L_Data">Data1!$AK$12:$AK$306</definedName>
-    <definedName name="A3604402L_Latest">Data1!$AK$306</definedName>
-    <definedName name="A3604503X">Data1!$E$1:$E$10,Data1!$E$226:$E$306</definedName>
-    <definedName name="A3604503X_Data">Data1!$E$226:$E$306</definedName>
-    <definedName name="A3604503X_Latest">Data1!$E$306</definedName>
-    <definedName name="A3604504A">Data1!$AF$1:$AF$10,Data1!$AF$227:$AF$306</definedName>
-    <definedName name="A3604504A_Data">Data1!$AF$227:$AF$306</definedName>
-    <definedName name="A3604504A_Latest">Data1!$AF$306</definedName>
-    <definedName name="A3604505C">Data1!$BG$1:$BG$10,Data1!$BG$230:$BG$306</definedName>
-    <definedName name="A3604505C_Data">Data1!$BG$230:$BG$306</definedName>
-    <definedName name="A3604505C_Latest">Data1!$BG$306</definedName>
-    <definedName name="A3604506F">Data1!$C$1:$C$10,Data1!$C$164:$C$306</definedName>
-    <definedName name="A3604506F_Data">Data1!$C$164:$C$306</definedName>
-    <definedName name="A3604506F_Latest">Data1!$C$306</definedName>
-    <definedName name="A3604507J">Data1!$AD$1:$AD$10,Data1!$AD$165:$AD$306</definedName>
-    <definedName name="A3604507J_Data">Data1!$AD$165:$AD$306</definedName>
-    <definedName name="A3604507J_Latest">Data1!$AD$306</definedName>
-    <definedName name="A3604508K">Data1!$BE$1:$BE$10,Data1!$BE$168:$BE$306</definedName>
-    <definedName name="A3604508K_Data">Data1!$BE$168:$BE$306</definedName>
-    <definedName name="A3604508K_Latest">Data1!$BE$306</definedName>
-    <definedName name="A3604509L">Data1!$D$1:$D$10,Data1!$D$226:$D$306</definedName>
-    <definedName name="A3604509L_Data">Data1!$D$226:$D$306</definedName>
-    <definedName name="A3604509L_Latest">Data1!$D$306</definedName>
-    <definedName name="A3604510W">Data1!$AE$1:$AE$10,Data1!$AE$227:$AE$306</definedName>
-    <definedName name="A3604510W_Data">Data1!$AE$227:$AE$306</definedName>
-    <definedName name="A3604510W_Latest">Data1!$AE$306</definedName>
-    <definedName name="A3604511X">Data1!$BF$1:$BF$10,Data1!$BF$230:$BF$306</definedName>
-    <definedName name="A3604511X_Data">Data1!$BF$230:$BF$306</definedName>
-    <definedName name="A3604511X_Latest">Data1!$BF$306</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$306</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$306</definedName>
+    <definedName name="A124984971F">Data1!$DY$1:$DY$10,Data1!$DY$239:$DY$308</definedName>
+    <definedName name="A124984971F_Data">Data1!$DY$239:$DY$308</definedName>
+    <definedName name="A124984971F_Latest">Data1!$DY$308</definedName>
+    <definedName name="A124984980J">Data1!$DZ$1:$DZ$10,Data1!$DZ$239:$DZ$308</definedName>
+    <definedName name="A124984980J_Data">Data1!$DZ$239:$DZ$308</definedName>
+    <definedName name="A124984980J_Latest">Data1!$DZ$308</definedName>
+    <definedName name="A124984989C">Data1!$EA$1:$EA$10,Data1!$EA$239:$EA$308</definedName>
+    <definedName name="A124984989C_Data">Data1!$EA$239:$EA$308</definedName>
+    <definedName name="A124984989C_Latest">Data1!$EA$308</definedName>
+    <definedName name="A2325846C">Data1!$B$1:$B$10,Data1!$B$11:$B$308</definedName>
+    <definedName name="A2325846C_Data">Data1!$B$11:$B$308</definedName>
+    <definedName name="A2325846C_Latest">Data1!$B$308</definedName>
+    <definedName name="A2325847F">Data1!$BD$1:$BD$10,Data1!$BD$15:$BD$308</definedName>
+    <definedName name="A2325847F_Data">Data1!$BD$15:$BD$308</definedName>
+    <definedName name="A2325847F_Latest">Data1!$BD$308</definedName>
+    <definedName name="A2325850V">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$308</definedName>
+    <definedName name="A2325850V_Data">Data1!$AC$12:$AC$308</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AC$308</definedName>
+    <definedName name="A2330526L">Data1!$F$1:$F$10,Data1!$F$210:$F$308</definedName>
+    <definedName name="A2330526L_Data">Data1!$F$210:$F$308</definedName>
+    <definedName name="A2330526L_Latest">Data1!$F$308</definedName>
+    <definedName name="A2330527R">Data1!$BH$1:$BH$10,Data1!$BH$214:$BH$308</definedName>
+    <definedName name="A2330527R_Data">Data1!$BH$214:$BH$308</definedName>
+    <definedName name="A2330527R_Latest">Data1!$BH$308</definedName>
+    <definedName name="A2330530C">Data1!$AG$1:$AG$10,Data1!$AG$211:$AG$308</definedName>
+    <definedName name="A2330530C_Data">Data1!$AG$211:$AG$308</definedName>
+    <definedName name="A2330530C_Latest">Data1!$AG$308</definedName>
+    <definedName name="A2330571X">Data1!$G$1:$G$10,Data1!$G$210:$G$308</definedName>
+    <definedName name="A2330571X_Data">Data1!$G$210:$G$308</definedName>
+    <definedName name="A2330571X_Latest">Data1!$G$308</definedName>
+    <definedName name="A2330572A">Data1!$BI$1:$BI$10,Data1!$BI$214:$BI$308</definedName>
+    <definedName name="A2330572A_Data">Data1!$BI$214:$BI$308</definedName>
+    <definedName name="A2330572A_Latest">Data1!$BI$308</definedName>
+    <definedName name="A2330575J">Data1!$AH$1:$AH$10,Data1!$AH$211:$AH$308</definedName>
+    <definedName name="A2330575J_Data">Data1!$AH$211:$AH$308</definedName>
+    <definedName name="A2330575J_Latest">Data1!$AH$308</definedName>
+    <definedName name="A2330616T">Data1!$H$1:$H$10,Data1!$H$115:$H$308</definedName>
+    <definedName name="A2330616T_Data">Data1!$H$115:$H$308</definedName>
+    <definedName name="A2330616T_Latest">Data1!$H$308</definedName>
+    <definedName name="A2330617V">Data1!$BJ$1:$BJ$10,Data1!$BJ$119:$BJ$308</definedName>
+    <definedName name="A2330617V_Data">Data1!$BJ$119:$BJ$308</definedName>
+    <definedName name="A2330617V_Latest">Data1!$BJ$308</definedName>
+    <definedName name="A2330620J">Data1!$AI$1:$AI$10,Data1!$AI$116:$AI$308</definedName>
+    <definedName name="A2330620J_Data">Data1!$AI$116:$AI$308</definedName>
+    <definedName name="A2330620J_Latest">Data1!$AI$308</definedName>
+    <definedName name="A2330661C">Data1!$K$1:$K$10,Data1!$K$164:$K$308</definedName>
+    <definedName name="A2330661C_Data">Data1!$K$164:$K$308</definedName>
+    <definedName name="A2330661C_Latest">Data1!$K$308</definedName>
+    <definedName name="A2330662F">Data1!$BM$1:$BM$10,Data1!$BM$168:$BM$308</definedName>
+    <definedName name="A2330662F_Data">Data1!$BM$168:$BM$308</definedName>
+    <definedName name="A2330662F_Latest">Data1!$BM$308</definedName>
+    <definedName name="A2330665L">Data1!$AL$1:$AL$10,Data1!$AL$165:$AL$308</definedName>
+    <definedName name="A2330665L_Data">Data1!$AL$165:$AL$308</definedName>
+    <definedName name="A2330665L_Latest">Data1!$AL$308</definedName>
+    <definedName name="A2330706W">Data1!$I$1:$I$10,Data1!$I$115:$I$308</definedName>
+    <definedName name="A2330706W_Data">Data1!$I$115:$I$308</definedName>
+    <definedName name="A2330706W_Latest">Data1!$I$308</definedName>
+    <definedName name="A2330707X">Data1!$BK$1:$BK$10,Data1!$BK$119:$BK$308</definedName>
+    <definedName name="A2330707X_Data">Data1!$BK$119:$BK$308</definedName>
+    <definedName name="A2330707X_Latest">Data1!$BK$308</definedName>
+    <definedName name="A2330710L">Data1!$AJ$1:$AJ$10,Data1!$AJ$116:$AJ$308</definedName>
+    <definedName name="A2330710L_Data">Data1!$AJ$116:$AJ$308</definedName>
+    <definedName name="A2330710L_Latest">Data1!$AJ$308</definedName>
+    <definedName name="A2330751J">Data1!$L$1:$L$10,Data1!$L$164:$L$308</definedName>
+    <definedName name="A2330751J_Data">Data1!$L$164:$L$308</definedName>
+    <definedName name="A2330751J_Latest">Data1!$L$308</definedName>
+    <definedName name="A2330752K">Data1!$BN$1:$BN$10,Data1!$BN$168:$BN$308</definedName>
+    <definedName name="A2330752K_Data">Data1!$BN$168:$BN$308</definedName>
+    <definedName name="A2330752K_Latest">Data1!$BN$308</definedName>
+    <definedName name="A2330755T">Data1!$AM$1:$AM$10,Data1!$AM$165:$AM$308</definedName>
+    <definedName name="A2330755T_Data">Data1!$AM$165:$AM$308</definedName>
+    <definedName name="A2330755T_Latest">Data1!$AM$308</definedName>
+    <definedName name="A2330796L">Data1!$M$1:$M$10,Data1!$M$164:$M$308</definedName>
+    <definedName name="A2330796L_Data">Data1!$M$164:$M$308</definedName>
+    <definedName name="A2330796L_Latest">Data1!$M$308</definedName>
+    <definedName name="A2330797R">Data1!$BO$1:$BO$10,Data1!$BO$168:$BO$308</definedName>
+    <definedName name="A2330797R_Data">Data1!$BO$168:$BO$308</definedName>
+    <definedName name="A2330797R_Latest">Data1!$BO$308</definedName>
+    <definedName name="A2330800T">Data1!$AN$1:$AN$10,Data1!$AN$165:$AN$308</definedName>
+    <definedName name="A2330800T_Data">Data1!$AN$165:$AN$308</definedName>
+    <definedName name="A2330800T_Latest">Data1!$AN$308</definedName>
+    <definedName name="A2330841L">Data1!$AB$1:$AB$10,Data1!$AB$164:$AB$308</definedName>
+    <definedName name="A2330841L_Data">Data1!$AB$164:$AB$308</definedName>
+    <definedName name="A2330841L_Latest">Data1!$AB$308</definedName>
+    <definedName name="A2330842R">Data1!$CD$1:$CD$10,Data1!$CD$168:$CD$308</definedName>
+    <definedName name="A2330842R_Data">Data1!$CD$168:$CD$308</definedName>
+    <definedName name="A2330842R_Latest">Data1!$CD$308</definedName>
+    <definedName name="A2330845W">Data1!$BC$1:$BC$10,Data1!$BC$165:$BC$308</definedName>
+    <definedName name="A2330845W_Data">Data1!$BC$165:$BC$308</definedName>
+    <definedName name="A2330845W_Latest">Data1!$BC$308</definedName>
+    <definedName name="A2332101T">Data1!$N$1:$N$10,Data1!$N$107:$N$308</definedName>
+    <definedName name="A2332101T_Data">Data1!$N$107:$N$308</definedName>
+    <definedName name="A2332101T_Latest">Data1!$N$308</definedName>
+    <definedName name="A2332102V">Data1!$BP$1:$BP$10,Data1!$BP$111:$BP$308</definedName>
+    <definedName name="A2332102V_Data">Data1!$BP$111:$BP$308</definedName>
+    <definedName name="A2332102V_Latest">Data1!$BP$308</definedName>
+    <definedName name="A2332105A">Data1!$AO$1:$AO$10,Data1!$AO$108:$AO$308</definedName>
+    <definedName name="A2332105A_Data">Data1!$AO$108:$AO$308</definedName>
+    <definedName name="A2332105A_Latest">Data1!$AO$308</definedName>
+    <definedName name="A2332146W">Data1!$O$1:$O$10,Data1!$O$139:$O$308</definedName>
+    <definedName name="A2332146W_Data">Data1!$O$139:$O$308</definedName>
+    <definedName name="A2332146W_Latest">Data1!$O$308</definedName>
+    <definedName name="A2332147X">Data1!$BQ$1:$BQ$10,Data1!$BQ$143:$BQ$308</definedName>
+    <definedName name="A2332147X_Data">Data1!$BQ$143:$BQ$308</definedName>
+    <definedName name="A2332147X_Latest">Data1!$BQ$308</definedName>
+    <definedName name="A2332150L">Data1!$AP$1:$AP$10,Data1!$AP$140:$AP$308</definedName>
+    <definedName name="A2332150L_Data">Data1!$AP$140:$AP$308</definedName>
+    <definedName name="A2332150L_Latest">Data1!$AP$308</definedName>
+    <definedName name="A2332191J">Data1!$P$1:$P$10,Data1!$P$139:$P$308</definedName>
+    <definedName name="A2332191J_Data">Data1!$P$139:$P$308</definedName>
+    <definedName name="A2332191J_Latest">Data1!$P$308</definedName>
+    <definedName name="A2332192K">Data1!$BR$1:$BR$10,Data1!$BR$143:$BR$308</definedName>
+    <definedName name="A2332192K_Data">Data1!$BR$143:$BR$308</definedName>
+    <definedName name="A2332192K_Latest">Data1!$BR$308</definedName>
+    <definedName name="A2332195T">Data1!$AQ$1:$AQ$10,Data1!$AQ$140:$AQ$308</definedName>
+    <definedName name="A2332195T_Data">Data1!$AQ$140:$AQ$308</definedName>
+    <definedName name="A2332195T_Latest">Data1!$AQ$308</definedName>
+    <definedName name="A2332236A">Data1!$Q$1:$Q$10,Data1!$Q$107:$Q$308</definedName>
+    <definedName name="A2332236A_Data">Data1!$Q$107:$Q$308</definedName>
+    <definedName name="A2332236A_Latest">Data1!$Q$308</definedName>
+    <definedName name="A2332237C">Data1!$BS$1:$BS$10,Data1!$BS$111:$BS$308</definedName>
+    <definedName name="A2332237C_Data">Data1!$BS$111:$BS$308</definedName>
+    <definedName name="A2332237C_Latest">Data1!$BS$308</definedName>
+    <definedName name="A2332240T">Data1!$AR$1:$AR$10,Data1!$AR$108:$AR$308</definedName>
+    <definedName name="A2332240T_Data">Data1!$AR$108:$AR$308</definedName>
+    <definedName name="A2332240T_Latest">Data1!$AR$308</definedName>
+    <definedName name="A2332281L">Data1!$R$1:$R$10,Data1!$R$139:$R$308</definedName>
+    <definedName name="A2332281L_Data">Data1!$R$139:$R$308</definedName>
+    <definedName name="A2332281L_Latest">Data1!$R$308</definedName>
+    <definedName name="A2332282R">Data1!$BT$1:$BT$10,Data1!$BT$143:$BT$308</definedName>
+    <definedName name="A2332282R_Data">Data1!$BT$143:$BT$308</definedName>
+    <definedName name="A2332282R_Latest">Data1!$BT$308</definedName>
+    <definedName name="A2332285W">Data1!$AS$1:$AS$10,Data1!$AS$140:$AS$308</definedName>
+    <definedName name="A2332285W_Data">Data1!$AS$140:$AS$308</definedName>
+    <definedName name="A2332285W_Latest">Data1!$AS$308</definedName>
+    <definedName name="A2332326F">Data1!$S$1:$S$10,Data1!$S$175:$S$308</definedName>
+    <definedName name="A2332326F_Data">Data1!$S$175:$S$308</definedName>
+    <definedName name="A2332326F_Latest">Data1!$S$308</definedName>
+    <definedName name="A2332327J">Data1!$BU$1:$BU$10,Data1!$BU$179:$BU$308</definedName>
+    <definedName name="A2332327J_Data">Data1!$BU$179:$BU$308</definedName>
+    <definedName name="A2332327J_Latest">Data1!$BU$308</definedName>
+    <definedName name="A2332330W">Data1!$AT$1:$AT$10,Data1!$AT$176:$AT$308</definedName>
+    <definedName name="A2332330W_Data">Data1!$AT$176:$AT$308</definedName>
+    <definedName name="A2332330W_Latest">Data1!$AT$308</definedName>
+    <definedName name="A2332371T">Data1!$T$1:$T$10,Data1!$T$139:$T$308</definedName>
+    <definedName name="A2332371T_Data">Data1!$T$139:$T$308</definedName>
+    <definedName name="A2332371T_Latest">Data1!$T$308</definedName>
+    <definedName name="A2332372V">Data1!$BV$1:$BV$10,Data1!$BV$143:$BV$308</definedName>
+    <definedName name="A2332372V_Data">Data1!$BV$143:$BV$308</definedName>
+    <definedName name="A2332372V_Latest">Data1!$BV$308</definedName>
+    <definedName name="A2332375A">Data1!$AU$1:$AU$10,Data1!$AU$140:$AU$308</definedName>
+    <definedName name="A2332375A_Data">Data1!$AU$140:$AU$308</definedName>
+    <definedName name="A2332375A_Latest">Data1!$AU$308</definedName>
+    <definedName name="A2332416K">Data1!$U$1:$U$10,Data1!$U$175:$U$308</definedName>
+    <definedName name="A2332416K_Data">Data1!$U$175:$U$308</definedName>
+    <definedName name="A2332416K_Latest">Data1!$U$308</definedName>
+    <definedName name="A2332417L">Data1!$BW$1:$BW$10,Data1!$BW$179:$BW$308</definedName>
+    <definedName name="A2332417L_Data">Data1!$BW$179:$BW$308</definedName>
+    <definedName name="A2332417L_Latest">Data1!$BW$308</definedName>
+    <definedName name="A2332420A">Data1!$AV$1:$AV$10,Data1!$AV$176:$AV$308</definedName>
+    <definedName name="A2332420A_Data">Data1!$AV$176:$AV$308</definedName>
+    <definedName name="A2332420A_Latest">Data1!$AV$308</definedName>
+    <definedName name="A2332461W">Data1!$V$1:$V$10,Data1!$V$175:$V$308</definedName>
+    <definedName name="A2332461W_Data">Data1!$V$175:$V$308</definedName>
+    <definedName name="A2332461W_Latest">Data1!$V$308</definedName>
+    <definedName name="A2332462X">Data1!$BX$1:$BX$10,Data1!$BX$179:$BX$308</definedName>
+    <definedName name="A2332462X_Data">Data1!$BX$179:$BX$308</definedName>
+    <definedName name="A2332462X_Latest">Data1!$BX$308</definedName>
+    <definedName name="A2332465F">Data1!$AW$1:$AW$10,Data1!$AW$176:$AW$308</definedName>
+    <definedName name="A2332465F_Data">Data1!$AW$176:$AW$308</definedName>
+    <definedName name="A2332465F_Latest">Data1!$AW$308</definedName>
+    <definedName name="A2332506R">Data1!$W$1:$W$10,Data1!$W$175:$W$308</definedName>
+    <definedName name="A2332506R_Data">Data1!$W$175:$W$308</definedName>
+    <definedName name="A2332506R_Latest">Data1!$W$308</definedName>
+    <definedName name="A2332507T">Data1!$BY$1:$BY$10,Data1!$BY$179:$BY$308</definedName>
+    <definedName name="A2332507T_Data">Data1!$BY$179:$BY$308</definedName>
+    <definedName name="A2332507T_Latest">Data1!$BY$308</definedName>
+    <definedName name="A2332510F">Data1!$AX$1:$AX$10,Data1!$AX$176:$AX$308</definedName>
+    <definedName name="A2332510F_Data">Data1!$AX$176:$AX$308</definedName>
+    <definedName name="A2332510F_Latest">Data1!$AX$308</definedName>
+    <definedName name="A2332551A">Data1!$Z$1:$Z$10,Data1!$Z$106:$Z$308</definedName>
+    <definedName name="A2332551A_Data">Data1!$Z$106:$Z$308</definedName>
+    <definedName name="A2332551A_Latest">Data1!$Z$308</definedName>
+    <definedName name="A2332552C">Data1!$CB$1:$CB$10,Data1!$CB$110:$CB$308</definedName>
+    <definedName name="A2332552C_Data">Data1!$CB$110:$CB$308</definedName>
+    <definedName name="A2332552C_Latest">Data1!$CB$308</definedName>
+    <definedName name="A2332555K">Data1!$BA$1:$BA$10,Data1!$BA$107:$BA$308</definedName>
+    <definedName name="A2332555K_Data">Data1!$BA$107:$BA$308</definedName>
+    <definedName name="A2332555K_Latest">Data1!$BA$308</definedName>
+    <definedName name="A2332641F">Data1!$X$1:$X$10,Data1!$X$175:$X$308</definedName>
+    <definedName name="A2332641F_Data">Data1!$X$175:$X$308</definedName>
+    <definedName name="A2332641F_Latest">Data1!$X$308</definedName>
+    <definedName name="A2332642J">Data1!$BZ$1:$BZ$10,Data1!$BZ$179:$BZ$308</definedName>
+    <definedName name="A2332642J_Data">Data1!$BZ$179:$BZ$308</definedName>
+    <definedName name="A2332642J_Latest">Data1!$BZ$308</definedName>
+    <definedName name="A2332645R">Data1!$AY$1:$AY$10,Data1!$AY$176:$AY$308</definedName>
+    <definedName name="A2332645R_Data">Data1!$AY$176:$AY$308</definedName>
+    <definedName name="A2332645R_Latest">Data1!$AY$308</definedName>
+    <definedName name="A2332686K">Data1!$Y$1:$Y$10,Data1!$Y$175:$Y$308</definedName>
+    <definedName name="A2332686K_Data">Data1!$Y$175:$Y$308</definedName>
+    <definedName name="A2332686K_Latest">Data1!$Y$308</definedName>
+    <definedName name="A2332687L">Data1!$CA$1:$CA$10,Data1!$CA$179:$CA$308</definedName>
+    <definedName name="A2332687L_Data">Data1!$CA$179:$CA$308</definedName>
+    <definedName name="A2332687L_Latest">Data1!$CA$308</definedName>
+    <definedName name="A2332690A">Data1!$AZ$1:$AZ$10,Data1!$AZ$176:$AZ$308</definedName>
+    <definedName name="A2332690A_Data">Data1!$AZ$176:$AZ$308</definedName>
+    <definedName name="A2332690A_Latest">Data1!$AZ$308</definedName>
+    <definedName name="A3597525W">Data1!$CE$1:$CE$10,Data1!$CE$307:$CE$308</definedName>
+    <definedName name="A3597525W_Data">Data1!$CE$307:$CE$308</definedName>
+    <definedName name="A3597525W_Latest">Data1!$CE$308</definedName>
+    <definedName name="A3597526X">Data1!$DB$1:$DB$10,Data1!$DB$308</definedName>
+    <definedName name="A3597526X_Data">Data1!$DB$308</definedName>
+    <definedName name="A3597526X_Latest">Data1!$DB$308</definedName>
+    <definedName name="A3601620F">Data1!$CF$1:$CF$10,Data1!$CF$307:$CF$308</definedName>
+    <definedName name="A3601620F_Data">Data1!$CF$307:$CF$308</definedName>
+    <definedName name="A3601620F_Latest">Data1!$CF$308</definedName>
+    <definedName name="A3601621J">Data1!$DC$1:$DC$10,Data1!$DC$307:$DC$308</definedName>
+    <definedName name="A3601621J_Data">Data1!$DC$307:$DC$308</definedName>
+    <definedName name="A3601621J_Latest">Data1!$DC$308</definedName>
+    <definedName name="A3601665K">Data1!$CG$1:$CG$10,Data1!$CG$307:$CG$308</definedName>
+    <definedName name="A3601665K_Data">Data1!$CG$307:$CG$308</definedName>
+    <definedName name="A3601665K_Latest">Data1!$CG$308</definedName>
+    <definedName name="A3601666L">Data1!$DD$1:$DD$10,Data1!$DD$307:$DD$308</definedName>
+    <definedName name="A3601666L_Data">Data1!$DD$307:$DD$308</definedName>
+    <definedName name="A3601666L_Latest">Data1!$DD$308</definedName>
+    <definedName name="A3601710K">Data1!$CH$1:$CH$10,Data1!$CH$307:$CH$308</definedName>
+    <definedName name="A3601710K_Data">Data1!$CH$307:$CH$308</definedName>
+    <definedName name="A3601710K_Latest">Data1!$CH$308</definedName>
+    <definedName name="A3601711L">Data1!$DE$1:$DE$10,Data1!$DE$307:$DE$308</definedName>
+    <definedName name="A3601711L_Data">Data1!$DE$307:$DE$308</definedName>
+    <definedName name="A3601711L_Latest">Data1!$DE$308</definedName>
+    <definedName name="A3601755R">Data1!$CJ$1:$CJ$10,Data1!$CJ$307:$CJ$308</definedName>
+    <definedName name="A3601755R_Data">Data1!$CJ$307:$CJ$308</definedName>
+    <definedName name="A3601755R_Latest">Data1!$CJ$308</definedName>
+    <definedName name="A3601756T">Data1!$DG$1:$DG$10,Data1!$DG$307:$DG$308</definedName>
+    <definedName name="A3601756T_Data">Data1!$DG$307:$DG$308</definedName>
+    <definedName name="A3601756T_Latest">Data1!$DG$308</definedName>
+    <definedName name="A3601800R">Data1!$CI$1:$CI$10,Data1!$CI$307:$CI$308</definedName>
+    <definedName name="A3601800R_Data">Data1!$CI$307:$CI$308</definedName>
+    <definedName name="A3601800R_Latest">Data1!$CI$308</definedName>
+    <definedName name="A3601801T">Data1!$DF$1:$DF$10,Data1!$DF$307:$DF$308</definedName>
+    <definedName name="A3601801T_Data">Data1!$DF$307:$DF$308</definedName>
+    <definedName name="A3601801T_Latest">Data1!$DF$308</definedName>
+    <definedName name="A3601845V">Data1!$CK$1:$CK$10,Data1!$CK$307:$CK$308</definedName>
+    <definedName name="A3601845V_Data">Data1!$CK$307:$CK$308</definedName>
+    <definedName name="A3601845V_Latest">Data1!$CK$308</definedName>
+    <definedName name="A3601846W">Data1!$DH$1:$DH$10,Data1!$DH$307:$DH$308</definedName>
+    <definedName name="A3601846W_Data">Data1!$DH$307:$DH$308</definedName>
+    <definedName name="A3601846W_Latest">Data1!$DH$308</definedName>
+    <definedName name="A3601890F">Data1!$CL$1:$CL$10,Data1!$CL$307:$CL$308</definedName>
+    <definedName name="A3601890F_Data">Data1!$CL$307:$CL$308</definedName>
+    <definedName name="A3601890F_Latest">Data1!$CL$308</definedName>
+    <definedName name="A3601891J">Data1!$DI$1:$DI$10,Data1!$DI$307:$DI$308</definedName>
+    <definedName name="A3601891J_Data">Data1!$DI$307:$DI$308</definedName>
+    <definedName name="A3601891J_Latest">Data1!$DI$308</definedName>
+    <definedName name="A3601935X">Data1!$DA$1:$DA$10,Data1!$DA$307:$DA$308</definedName>
+    <definedName name="A3601935X_Data">Data1!$DA$307:$DA$308</definedName>
+    <definedName name="A3601935X_Latest">Data1!$DA$308</definedName>
+    <definedName name="A3601936A">Data1!$DX$1:$DX$10,Data1!$DX$307:$DX$308</definedName>
+    <definedName name="A3601936A_Data">Data1!$DX$307:$DX$308</definedName>
+    <definedName name="A3601936A_Latest">Data1!$DX$308</definedName>
+    <definedName name="A3602925L">Data1!$CM$1:$CM$10,Data1!$CM$307:$CM$308</definedName>
+    <definedName name="A3602925L_Data">Data1!$CM$307:$CM$308</definedName>
+    <definedName name="A3602925L_Latest">Data1!$CM$308</definedName>
+    <definedName name="A3602926R">Data1!$DJ$1:$DJ$10,Data1!$DJ$307:$DJ$308</definedName>
+    <definedName name="A3602926R_Data">Data1!$DJ$307:$DJ$308</definedName>
+    <definedName name="A3602926R_Latest">Data1!$DJ$308</definedName>
+    <definedName name="A3602970X">Data1!$CN$1:$CN$10,Data1!$CN$307:$CN$308</definedName>
+    <definedName name="A3602970X_Data">Data1!$CN$307:$CN$308</definedName>
+    <definedName name="A3602970X_Latest">Data1!$CN$308</definedName>
+    <definedName name="A3602971A">Data1!$DK$1:$DK$10,Data1!$DK$307:$DK$308</definedName>
+    <definedName name="A3602971A_Data">Data1!$DK$307:$DK$308</definedName>
+    <definedName name="A3602971A_Latest">Data1!$DK$308</definedName>
+    <definedName name="A3603015V">Data1!$CO$1:$CO$10,Data1!$CO$307:$CO$308</definedName>
+    <definedName name="A3603015V_Data">Data1!$CO$307:$CO$308</definedName>
+    <definedName name="A3603015V_Latest">Data1!$CO$308</definedName>
+    <definedName name="A3603016W">Data1!$DL$1:$DL$10,Data1!$DL$307:$DL$308</definedName>
+    <definedName name="A3603016W_Data">Data1!$DL$307:$DL$308</definedName>
+    <definedName name="A3603016W_Latest">Data1!$DL$308</definedName>
+    <definedName name="A3603060F">Data1!$CP$1:$CP$10,Data1!$CP$307:$CP$308</definedName>
+    <definedName name="A3603060F_Data">Data1!$CP$307:$CP$308</definedName>
+    <definedName name="A3603060F_Latest">Data1!$CP$308</definedName>
+    <definedName name="A3603061J">Data1!$DM$1:$DM$10,Data1!$DM$307:$DM$308</definedName>
+    <definedName name="A3603061J_Data">Data1!$DM$307:$DM$308</definedName>
+    <definedName name="A3603061J_Latest">Data1!$DM$308</definedName>
+    <definedName name="A3603105X">Data1!$CQ$1:$CQ$10,Data1!$CQ$307:$CQ$308</definedName>
+    <definedName name="A3603105X_Data">Data1!$CQ$307:$CQ$308</definedName>
+    <definedName name="A3603105X_Latest">Data1!$CQ$308</definedName>
+    <definedName name="A3603106A">Data1!$DN$1:$DN$10,Data1!$DN$307:$DN$308</definedName>
+    <definedName name="A3603106A_Data">Data1!$DN$307:$DN$308</definedName>
+    <definedName name="A3603106A_Latest">Data1!$DN$308</definedName>
+    <definedName name="A3603150K">Data1!$CR$1:$CR$10,Data1!$CR$307:$CR$308</definedName>
+    <definedName name="A3603150K_Data">Data1!$CR$307:$CR$308</definedName>
+    <definedName name="A3603150K_Latest">Data1!$CR$308</definedName>
+    <definedName name="A3603151L">Data1!$DO$1:$DO$10,Data1!$DO$307:$DO$308</definedName>
+    <definedName name="A3603151L_Data">Data1!$DO$307:$DO$308</definedName>
+    <definedName name="A3603151L_Latest">Data1!$DO$308</definedName>
+    <definedName name="A3603195R">Data1!$CS$1:$CS$10,Data1!$CS$307:$CS$308</definedName>
+    <definedName name="A3603195R_Data">Data1!$CS$307:$CS$308</definedName>
+    <definedName name="A3603195R_Latest">Data1!$CS$308</definedName>
+    <definedName name="A3603196T">Data1!$DP$1:$DP$10,Data1!$DP$307:$DP$308</definedName>
+    <definedName name="A3603196T_Data">Data1!$DP$307:$DP$308</definedName>
+    <definedName name="A3603196T_Latest">Data1!$DP$308</definedName>
+    <definedName name="A3603240R">Data1!$CT$1:$CT$10,Data1!$CT$307:$CT$308</definedName>
+    <definedName name="A3603240R_Data">Data1!$CT$307:$CT$308</definedName>
+    <definedName name="A3603240R_Latest">Data1!$CT$308</definedName>
+    <definedName name="A3603241T">Data1!$DQ$1:$DQ$10,Data1!$DQ$307:$DQ$308</definedName>
+    <definedName name="A3603241T_Data">Data1!$DQ$307:$DQ$308</definedName>
+    <definedName name="A3603241T_Latest">Data1!$DQ$308</definedName>
+    <definedName name="A3603285V">Data1!$CU$1:$CU$10,Data1!$CU$307:$CU$308</definedName>
+    <definedName name="A3603285V_Data">Data1!$CU$307:$CU$308</definedName>
+    <definedName name="A3603285V_Latest">Data1!$CU$308</definedName>
+    <definedName name="A3603286W">Data1!$DR$1:$DR$10,Data1!$DR$307:$DR$308</definedName>
+    <definedName name="A3603286W_Data">Data1!$DR$307:$DR$308</definedName>
+    <definedName name="A3603286W_Latest">Data1!$DR$308</definedName>
+    <definedName name="A3603330V">Data1!$CV$1:$CV$10,Data1!$CV$307:$CV$308</definedName>
+    <definedName name="A3603330V_Data">Data1!$CV$307:$CV$308</definedName>
+    <definedName name="A3603330V_Latest">Data1!$CV$308</definedName>
+    <definedName name="A3603331W">Data1!$DS$1:$DS$10,Data1!$DS$307:$DS$308</definedName>
+    <definedName name="A3603331W_Data">Data1!$DS$307:$DS$308</definedName>
+    <definedName name="A3603331W_Latest">Data1!$DS$308</definedName>
+    <definedName name="A3603375X">Data1!$CY$1:$CY$10,Data1!$CY$307:$CY$308</definedName>
+    <definedName name="A3603375X_Data">Data1!$CY$307:$CY$308</definedName>
+    <definedName name="A3603375X_Latest">Data1!$CY$308</definedName>
+    <definedName name="A3603376A">Data1!$DV$1:$DV$10,Data1!$DV$307:$DV$308</definedName>
+    <definedName name="A3603376A_Data">Data1!$DV$307:$DV$308</definedName>
+    <definedName name="A3603376A_Latest">Data1!$DV$308</definedName>
+    <definedName name="A3603465C">Data1!$CW$1:$CW$10,Data1!$CW$307:$CW$308</definedName>
+    <definedName name="A3603465C_Data">Data1!$CW$307:$CW$308</definedName>
+    <definedName name="A3603465C_Latest">Data1!$CW$308</definedName>
+    <definedName name="A3603466F">Data1!$DT$1:$DT$10,Data1!$DT$307:$DT$308</definedName>
+    <definedName name="A3603466F_Data">Data1!$DT$307:$DT$308</definedName>
+    <definedName name="A3603466F_Latest">Data1!$DT$308</definedName>
+    <definedName name="A3603510C">Data1!$CX$1:$CX$10,Data1!$CX$307:$CX$308</definedName>
+    <definedName name="A3603510C_Data">Data1!$CX$307:$CX$308</definedName>
+    <definedName name="A3603510C_Latest">Data1!$CX$308</definedName>
+    <definedName name="A3603511F">Data1!$DU$1:$DU$10,Data1!$DU$307:$DU$308</definedName>
+    <definedName name="A3603511F_Data">Data1!$DU$307:$DU$308</definedName>
+    <definedName name="A3603511F_Latest">Data1!$DU$308</definedName>
+    <definedName name="A3604378X">Data1!$AA$1:$AA$10,Data1!$AA$175:$AA$308</definedName>
+    <definedName name="A3604378X_Data">Data1!$AA$175:$AA$308</definedName>
+    <definedName name="A3604378X_Latest">Data1!$AA$308</definedName>
+    <definedName name="A3604379A">Data1!$CC$1:$CC$10,Data1!$CC$175:$CC$308</definedName>
+    <definedName name="A3604379A_Data">Data1!$CC$175:$CC$308</definedName>
+    <definedName name="A3604379A_Latest">Data1!$CC$308</definedName>
+    <definedName name="A3604380K">Data1!$CZ$1:$CZ$10,Data1!$CZ$307:$CZ$308</definedName>
+    <definedName name="A3604380K_Data">Data1!$CZ$307:$CZ$308</definedName>
+    <definedName name="A3604380K_Latest">Data1!$CZ$308</definedName>
+    <definedName name="A3604381L">Data1!$DW$1:$DW$10,Data1!$DW$307:$DW$308</definedName>
+    <definedName name="A3604381L_Data">Data1!$DW$307:$DW$308</definedName>
+    <definedName name="A3604381L_Latest">Data1!$DW$308</definedName>
+    <definedName name="A3604382R">Data1!$BB$1:$BB$10,Data1!$BB$175:$BB$308</definedName>
+    <definedName name="A3604382R_Data">Data1!$BB$175:$BB$308</definedName>
+    <definedName name="A3604382R_Latest">Data1!$BB$308</definedName>
+    <definedName name="A3604398J">Data1!$J$1:$J$10,Data1!$J$11:$J$308</definedName>
+    <definedName name="A3604398J_Data">Data1!$J$11:$J$308</definedName>
+    <definedName name="A3604398J_Latest">Data1!$J$308</definedName>
+    <definedName name="A3604399K">Data1!$BL$1:$BL$10,Data1!$BL$15:$BL$308</definedName>
+    <definedName name="A3604399K_Data">Data1!$BL$15:$BL$308</definedName>
+    <definedName name="A3604399K_Latest">Data1!$BL$308</definedName>
+    <definedName name="A3604402L">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$308</definedName>
+    <definedName name="A3604402L_Data">Data1!$AK$12:$AK$308</definedName>
+    <definedName name="A3604402L_Latest">Data1!$AK$308</definedName>
+    <definedName name="A3604503X">Data1!$E$1:$E$10,Data1!$E$226:$E$308</definedName>
+    <definedName name="A3604503X_Data">Data1!$E$226:$E$308</definedName>
+    <definedName name="A3604503X_Latest">Data1!$E$308</definedName>
+    <definedName name="A3604504A">Data1!$AF$1:$AF$10,Data1!$AF$227:$AF$308</definedName>
+    <definedName name="A3604504A_Data">Data1!$AF$227:$AF$308</definedName>
+    <definedName name="A3604504A_Latest">Data1!$AF$308</definedName>
+    <definedName name="A3604505C">Data1!$BG$1:$BG$10,Data1!$BG$230:$BG$308</definedName>
+    <definedName name="A3604505C_Data">Data1!$BG$230:$BG$308</definedName>
+    <definedName name="A3604505C_Latest">Data1!$BG$308</definedName>
+    <definedName name="A3604506F">Data1!$C$1:$C$10,Data1!$C$164:$C$308</definedName>
+    <definedName name="A3604506F_Data">Data1!$C$164:$C$308</definedName>
+    <definedName name="A3604506F_Latest">Data1!$C$308</definedName>
+    <definedName name="A3604507J">Data1!$AD$1:$AD$10,Data1!$AD$165:$AD$308</definedName>
+    <definedName name="A3604507J_Data">Data1!$AD$165:$AD$308</definedName>
+    <definedName name="A3604507J_Latest">Data1!$AD$308</definedName>
+    <definedName name="A3604508K">Data1!$BE$1:$BE$10,Data1!$BE$168:$BE$308</definedName>
+    <definedName name="A3604508K_Data">Data1!$BE$168:$BE$308</definedName>
+    <definedName name="A3604508K_Latest">Data1!$BE$308</definedName>
+    <definedName name="A3604509L">Data1!$D$1:$D$10,Data1!$D$226:$D$308</definedName>
+    <definedName name="A3604509L_Data">Data1!$D$226:$D$308</definedName>
+    <definedName name="A3604509L_Latest">Data1!$D$308</definedName>
+    <definedName name="A3604510W">Data1!$AE$1:$AE$10,Data1!$AE$227:$AE$308</definedName>
+    <definedName name="A3604510W_Data">Data1!$AE$227:$AE$308</definedName>
+    <definedName name="A3604510W_Latest">Data1!$AE$308</definedName>
+    <definedName name="A3604511X">Data1!$BF$1:$BF$10,Data1!$BF$230:$BF$308</definedName>
+    <definedName name="A3604511X_Data">Data1!$BF$230:$BF$308</definedName>
+    <definedName name="A3604511X_Latest">Data1!$BF$308</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$308</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$308</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2070,6 +2058,2398 @@
         </r>
       </text>
     </comment>
+    <comment ref="D226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E242" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E243" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E244" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000062000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000063000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E248" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000064000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000065000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000066000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000067000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000068000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E251" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000069000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000070000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000071000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000072000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000073000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000074000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000075000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000076000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000077000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000078000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000079000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E261" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000080000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E264" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000081000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D265" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000082000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E265" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000083000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000084000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000085000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000086000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000087000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000088000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000089000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000090000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000091000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000092000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000093000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000094000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000095000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000096000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000097000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000098000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000099000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D279" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E279" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D280" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E280" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D281" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E281" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D282" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E282" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D284" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E284" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D285" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E285" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000A9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D286" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AA000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E286" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AB000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AC000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AD000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AE000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000AF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000B9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BA000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BB000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BC000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BD000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BE000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000BF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000C9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CA000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CB000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CC000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CD000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CE000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000CF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000D9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DA000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DB000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DC000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DD000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DE000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000DF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000E9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000EA000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF304" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000EB000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D305" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000EC000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E305" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000ED000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE305" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000EE000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D306" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000EF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E306" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F0000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE306" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F1000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF306" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F2000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG306" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F3000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F4000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F5000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F6000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F7000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F8000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG307" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-0000F9000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2938,7 +5318,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2022</t>
+    <t>© Commonwealth of Australia  2023</t>
   </si>
 </sst>
 </file>
@@ -3697,10 +6077,10 @@
         <v>17777</v>
       </c>
       <c r="G12" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H12" s="12">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>139</v>
@@ -3729,10 +6109,10 @@
         <v>31747</v>
       </c>
       <c r="G13" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H13" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>139</v>
@@ -3761,10 +6141,10 @@
         <v>37408</v>
       </c>
       <c r="G14" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H14" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>139</v>
@@ -3793,10 +6173,10 @@
         <v>37408</v>
       </c>
       <c r="G15" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H15" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>139</v>
@@ -3825,10 +6205,10 @@
         <v>35947</v>
       </c>
       <c r="G16" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H16" s="12">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>139</v>
@@ -3857,10 +6237,10 @@
         <v>35947</v>
       </c>
       <c r="G17" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H17" s="12">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>139</v>
@@ -3889,10 +6269,10 @@
         <v>27273</v>
       </c>
       <c r="G18" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H18" s="12">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>139</v>
@@ -3921,10 +6301,10 @@
         <v>27273</v>
       </c>
       <c r="G19" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H19" s="12">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>139</v>
@@ -3953,10 +6333,10 @@
         <v>17777</v>
       </c>
       <c r="G20" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H20" s="12">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>139</v>
@@ -3985,10 +6365,10 @@
         <v>31747</v>
       </c>
       <c r="G21" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H21" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>139</v>
@@ -4017,10 +6397,10 @@
         <v>31747</v>
       </c>
       <c r="G22" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H22" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>139</v>
@@ -4049,10 +6429,10 @@
         <v>31747</v>
       </c>
       <c r="G23" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H23" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>139</v>
@@ -4081,10 +6461,10 @@
         <v>26543</v>
       </c>
       <c r="G24" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H24" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>139</v>
@@ -4113,10 +6493,10 @@
         <v>29465</v>
       </c>
       <c r="G25" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H25" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>139</v>
@@ -4145,10 +6525,10 @@
         <v>29465</v>
       </c>
       <c r="G26" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H26" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>139</v>
@@ -4177,10 +6557,10 @@
         <v>26543</v>
       </c>
       <c r="G27" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H27" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>139</v>
@@ -4209,10 +6589,10 @@
         <v>29465</v>
       </c>
       <c r="G28" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H28" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>139</v>
@@ -4241,10 +6621,10 @@
         <v>32752</v>
       </c>
       <c r="G29" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H29" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>139</v>
@@ -4273,10 +6653,10 @@
         <v>29465</v>
       </c>
       <c r="G30" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H30" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>139</v>
@@ -4305,10 +6685,10 @@
         <v>32752</v>
       </c>
       <c r="G31" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H31" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>139</v>
@@ -4337,10 +6717,10 @@
         <v>32752</v>
       </c>
       <c r="G32" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H32" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>139</v>
@@ -4369,10 +6749,10 @@
         <v>32752</v>
       </c>
       <c r="G33" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H33" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>139</v>
@@ -4401,10 +6781,10 @@
         <v>32752</v>
       </c>
       <c r="G34" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H34" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>139</v>
@@ -4433,10 +6813,10 @@
         <v>32752</v>
       </c>
       <c r="G35" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H35" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>139</v>
@@ -4465,10 +6845,10 @@
         <v>26451</v>
       </c>
       <c r="G36" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H36" s="12">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>139</v>
@@ -4497,10 +6877,10 @@
         <v>32752</v>
       </c>
       <c r="G37" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H37" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>139</v>
@@ -4529,10 +6909,10 @@
         <v>31747</v>
       </c>
       <c r="G38" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H38" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>139</v>
@@ -4561,10 +6941,10 @@
         <v>17868</v>
       </c>
       <c r="G39" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H39" s="12">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>171</v>
@@ -4593,10 +6973,10 @@
         <v>31837</v>
       </c>
       <c r="G40" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H40" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>171</v>
@@ -4625,10 +7005,10 @@
         <v>37500</v>
       </c>
       <c r="G41" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H41" s="12">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>171</v>
@@ -4657,10 +7037,10 @@
         <v>37500</v>
       </c>
       <c r="G42" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H42" s="12">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>171</v>
@@ -4689,10 +7069,10 @@
         <v>36039</v>
       </c>
       <c r="G43" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H43" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>171</v>
@@ -4721,10 +7101,10 @@
         <v>36039</v>
       </c>
       <c r="G44" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H44" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>171</v>
@@ -4753,10 +7133,10 @@
         <v>27364</v>
       </c>
       <c r="G45" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H45" s="12">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>171</v>
@@ -4785,10 +7165,10 @@
         <v>27364</v>
       </c>
       <c r="G46" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H46" s="12">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>171</v>
@@ -4817,10 +7197,10 @@
         <v>17868</v>
       </c>
       <c r="G47" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H47" s="12">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>171</v>
@@ -4849,10 +7229,10 @@
         <v>31837</v>
       </c>
       <c r="G48" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H48" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>171</v>
@@ -4881,10 +7261,10 @@
         <v>31837</v>
       </c>
       <c r="G49" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H49" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>171</v>
@@ -4913,10 +7293,10 @@
         <v>31837</v>
       </c>
       <c r="G50" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H50" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>171</v>
@@ -4945,10 +7325,10 @@
         <v>26634</v>
       </c>
       <c r="G51" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H51" s="12">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>171</v>
@@ -4977,10 +7357,10 @@
         <v>29556</v>
       </c>
       <c r="G52" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H52" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>171</v>
@@ -5009,10 +7389,10 @@
         <v>29556</v>
       </c>
       <c r="G53" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H53" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>171</v>
@@ -5041,10 +7421,10 @@
         <v>26634</v>
       </c>
       <c r="G54" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H54" s="12">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>171</v>
@@ -5073,10 +7453,10 @@
         <v>29556</v>
       </c>
       <c r="G55" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H55" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>171</v>
@@ -5105,10 +7485,10 @@
         <v>32843</v>
       </c>
       <c r="G56" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H56" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>171</v>
@@ -5137,10 +7517,10 @@
         <v>29556</v>
       </c>
       <c r="G57" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H57" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>171</v>
@@ -5169,10 +7549,10 @@
         <v>32843</v>
       </c>
       <c r="G58" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H58" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>171</v>
@@ -5201,10 +7581,10 @@
         <v>32843</v>
       </c>
       <c r="G59" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H59" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>171</v>
@@ -5233,10 +7613,10 @@
         <v>32843</v>
       </c>
       <c r="G60" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H60" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>171</v>
@@ -5265,10 +7645,10 @@
         <v>32843</v>
       </c>
       <c r="G61" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H61" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>171</v>
@@ -5297,10 +7677,10 @@
         <v>32843</v>
       </c>
       <c r="G62" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H62" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>171</v>
@@ -5329,10 +7709,10 @@
         <v>26543</v>
       </c>
       <c r="G63" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H63" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>171</v>
@@ -5361,10 +7741,10 @@
         <v>32752</v>
       </c>
       <c r="G64" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H64" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>171</v>
@@ -5393,10 +7773,10 @@
         <v>31837</v>
       </c>
       <c r="G65" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H65" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>171</v>
@@ -5425,10 +7805,10 @@
         <v>18142</v>
       </c>
       <c r="G66" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H66" s="12">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>171</v>
@@ -5457,10 +7837,10 @@
         <v>32112</v>
       </c>
       <c r="G67" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H67" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>171</v>
@@ -5489,10 +7869,10 @@
         <v>37773</v>
       </c>
       <c r="G68" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H68" s="12">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>171</v>
@@ -5521,10 +7901,10 @@
         <v>37773</v>
       </c>
       <c r="G69" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H69" s="12">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>171</v>
@@ -5553,10 +7933,10 @@
         <v>36312</v>
       </c>
       <c r="G70" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H70" s="12">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>171</v>
@@ -5585,10 +7965,10 @@
         <v>36312</v>
       </c>
       <c r="G71" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H71" s="12">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>171</v>
@@ -5617,10 +7997,10 @@
         <v>27638</v>
       </c>
       <c r="G72" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H72" s="12">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>171</v>
@@ -5649,10 +8029,10 @@
         <v>27638</v>
       </c>
       <c r="G73" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H73" s="12">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>171</v>
@@ -5681,10 +8061,10 @@
         <v>18142</v>
       </c>
       <c r="G74" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H74" s="12">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>171</v>
@@ -5713,10 +8093,10 @@
         <v>32112</v>
       </c>
       <c r="G75" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H75" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>171</v>
@@ -5745,10 +8125,10 @@
         <v>32112</v>
       </c>
       <c r="G76" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H76" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>171</v>
@@ -5777,10 +8157,10 @@
         <v>32112</v>
       </c>
       <c r="G77" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H77" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>171</v>
@@ -5809,10 +8189,10 @@
         <v>26908</v>
       </c>
       <c r="G78" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H78" s="12">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>171</v>
@@ -5841,10 +8221,10 @@
         <v>29830</v>
       </c>
       <c r="G79" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H79" s="12">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>171</v>
@@ -5873,10 +8253,10 @@
         <v>29830</v>
       </c>
       <c r="G80" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H80" s="12">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>171</v>
@@ -5905,10 +8285,10 @@
         <v>26908</v>
       </c>
       <c r="G81" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H81" s="12">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>171</v>
@@ -5937,10 +8317,10 @@
         <v>29830</v>
       </c>
       <c r="G82" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H82" s="12">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>171</v>
@@ -5969,10 +8349,10 @@
         <v>33117</v>
       </c>
       <c r="G83" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H83" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>171</v>
@@ -6001,10 +8381,10 @@
         <v>29830</v>
       </c>
       <c r="G84" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H84" s="12">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>171</v>
@@ -6033,10 +8413,10 @@
         <v>33117</v>
       </c>
       <c r="G85" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H85" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>171</v>
@@ -6065,10 +8445,10 @@
         <v>33117</v>
       </c>
       <c r="G86" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H86" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>171</v>
@@ -6097,10 +8477,10 @@
         <v>33117</v>
       </c>
       <c r="G87" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H87" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>171</v>
@@ -6129,10 +8509,10 @@
         <v>33117</v>
       </c>
       <c r="G88" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H88" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>171</v>
@@ -6161,10 +8541,10 @@
         <v>33117</v>
       </c>
       <c r="G89" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H89" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I89" s="12" t="s">
         <v>171</v>
@@ -6193,10 +8573,10 @@
         <v>26816</v>
       </c>
       <c r="G90" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H90" s="12">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>171</v>
@@ -6225,10 +8605,10 @@
         <v>32752</v>
       </c>
       <c r="G91" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H91" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>171</v>
@@ -6257,10 +8637,10 @@
         <v>32112</v>
       </c>
       <c r="G92" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H92" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>171</v>
@@ -6286,13 +8666,13 @@
         <v>228</v>
       </c>
       <c r="F93" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G93" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H93" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>227</v>
@@ -6318,13 +8698,13 @@
         <v>229</v>
       </c>
       <c r="F94" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G94" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H94" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>227</v>
@@ -6350,13 +8730,13 @@
         <v>230</v>
       </c>
       <c r="F95" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G95" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H95" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" s="12" t="s">
         <v>227</v>
@@ -6382,13 +8762,13 @@
         <v>231</v>
       </c>
       <c r="F96" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G96" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H96" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" s="12" t="s">
         <v>227</v>
@@ -6414,13 +8794,13 @@
         <v>232</v>
       </c>
       <c r="F97" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G97" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H97" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>227</v>
@@ -6446,13 +8826,13 @@
         <v>233</v>
       </c>
       <c r="F98" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G98" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H98" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>227</v>
@@ -6478,13 +8858,13 @@
         <v>234</v>
       </c>
       <c r="F99" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G99" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H99" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>227</v>
@@ -6510,13 +8890,13 @@
         <v>235</v>
       </c>
       <c r="F100" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G100" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H100" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>227</v>
@@ -6542,13 +8922,13 @@
         <v>236</v>
       </c>
       <c r="F101" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G101" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H101" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>227</v>
@@ -6574,13 +8954,13 @@
         <v>237</v>
       </c>
       <c r="F102" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G102" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H102" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>227</v>
@@ -6606,13 +8986,13 @@
         <v>238</v>
       </c>
       <c r="F103" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G103" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H103" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>227</v>
@@ -6638,13 +9018,13 @@
         <v>239</v>
       </c>
       <c r="F104" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G104" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H104" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>227</v>
@@ -6670,13 +9050,13 @@
         <v>240</v>
       </c>
       <c r="F105" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G105" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H105" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>227</v>
@@ -6702,13 +9082,13 @@
         <v>241</v>
       </c>
       <c r="F106" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G106" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H106" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>227</v>
@@ -6734,13 +9114,13 @@
         <v>242</v>
       </c>
       <c r="F107" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G107" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H107" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>227</v>
@@ -6766,13 +9146,13 @@
         <v>243</v>
       </c>
       <c r="F108" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G108" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H108" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>227</v>
@@ -6798,13 +9178,13 @@
         <v>244</v>
       </c>
       <c r="F109" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G109" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H109" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>227</v>
@@ -6830,13 +9210,13 @@
         <v>245</v>
       </c>
       <c r="F110" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G110" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H110" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>227</v>
@@ -6862,13 +9242,13 @@
         <v>246</v>
       </c>
       <c r="F111" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G111" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H111" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>227</v>
@@ -6894,13 +9274,13 @@
         <v>247</v>
       </c>
       <c r="F112" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G112" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H112" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>227</v>
@@ -6926,13 +9306,13 @@
         <v>248</v>
       </c>
       <c r="F113" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G113" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H113" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>227</v>
@@ -6958,13 +9338,13 @@
         <v>249</v>
       </c>
       <c r="F114" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G114" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H114" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>227</v>
@@ -6990,13 +9370,13 @@
         <v>250</v>
       </c>
       <c r="F115" s="11">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="G115" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H115" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>227</v>
@@ -7022,13 +9402,13 @@
         <v>252</v>
       </c>
       <c r="F116" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G116" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H116" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>227</v>
@@ -7054,13 +9434,13 @@
         <v>253</v>
       </c>
       <c r="F117" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G117" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H117" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>227</v>
@@ -7086,13 +9466,13 @@
         <v>254</v>
       </c>
       <c r="F118" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G118" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H118" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>227</v>
@@ -7118,13 +9498,13 @@
         <v>255</v>
       </c>
       <c r="F119" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G119" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H119" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>227</v>
@@ -7150,13 +9530,13 @@
         <v>256</v>
       </c>
       <c r="F120" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G120" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H120" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>227</v>
@@ -7182,13 +9562,13 @@
         <v>257</v>
       </c>
       <c r="F121" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G121" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H121" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>227</v>
@@ -7214,13 +9594,13 @@
         <v>258</v>
       </c>
       <c r="F122" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G122" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H122" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>227</v>
@@ -7246,13 +9626,13 @@
         <v>259</v>
       </c>
       <c r="F123" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G123" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H123" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>227</v>
@@ -7278,13 +9658,13 @@
         <v>260</v>
       </c>
       <c r="F124" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G124" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H124" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>227</v>
@@ -7310,13 +9690,13 @@
         <v>261</v>
       </c>
       <c r="F125" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G125" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H125" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>227</v>
@@ -7342,13 +9722,13 @@
         <v>262</v>
       </c>
       <c r="F126" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G126" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H126" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>227</v>
@@ -7374,13 +9754,13 @@
         <v>263</v>
       </c>
       <c r="F127" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G127" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H127" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>227</v>
@@ -7406,13 +9786,13 @@
         <v>264</v>
       </c>
       <c r="F128" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G128" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H128" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>227</v>
@@ -7438,13 +9818,13 @@
         <v>265</v>
       </c>
       <c r="F129" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G129" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H129" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>227</v>
@@ -7470,13 +9850,13 @@
         <v>266</v>
       </c>
       <c r="F130" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G130" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H130" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>227</v>
@@ -7502,13 +9882,13 @@
         <v>267</v>
       </c>
       <c r="F131" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G131" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H131" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>227</v>
@@ -7534,13 +9914,13 @@
         <v>268</v>
       </c>
       <c r="F132" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G132" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H132" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>227</v>
@@ -7566,13 +9946,13 @@
         <v>269</v>
       </c>
       <c r="F133" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G133" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H133" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>227</v>
@@ -7598,13 +9978,13 @@
         <v>270</v>
       </c>
       <c r="F134" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G134" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H134" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>227</v>
@@ -7630,13 +10010,13 @@
         <v>271</v>
       </c>
       <c r="F135" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G135" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H135" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>227</v>
@@ -7662,13 +10042,13 @@
         <v>272</v>
       </c>
       <c r="F136" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G136" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H136" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>227</v>
@@ -7694,13 +10074,13 @@
         <v>273</v>
       </c>
       <c r="F137" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G137" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H137" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>227</v>
@@ -7726,13 +10106,13 @@
         <v>274</v>
       </c>
       <c r="F138" s="11">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="G138" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H138" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>227</v>
@@ -7761,10 +10141,10 @@
         <v>38596</v>
       </c>
       <c r="G139" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H139" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>139</v>
@@ -7793,10 +10173,10 @@
         <v>38596</v>
       </c>
       <c r="G140" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H140" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>139</v>
@@ -7825,10 +10205,10 @@
         <v>38596</v>
       </c>
       <c r="G141" s="11">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H141" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>139</v>
@@ -7997,13 +10377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EA306"/>
+  <dimension ref="A1:EA308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="CL11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="CY295" sqref="CY295"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10626,142 +13006,142 @@
         <v>32112</v>
       </c>
       <c r="CE7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CF7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CG7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CH7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CI7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CJ7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CK7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CL7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CM7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CN7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CO7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CP7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CQ7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CR7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CS7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CT7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CU7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CV7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CW7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CX7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CY7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="CZ7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="DA7" s="6">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="DB7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DC7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DD7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DE7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DF7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DG7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DH7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DI7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DJ7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DK7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DL7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DM7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DN7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DO7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DP7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DQ7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DR7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DS7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DT7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DU7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DV7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DW7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DX7" s="6">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="DY7" s="6">
         <v>38596</v>
@@ -10778,394 +13158,394 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="P8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Q8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="R8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="S8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="T8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="U8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="V8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="W8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="X8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Y8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Z8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AB8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AC8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AD8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AE8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AF8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AG8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AH8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AI8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AK8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AL8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AM8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AN8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AO8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AP8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AR8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AS8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AT8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AU8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AV8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AW8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AX8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AY8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BB8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BC8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BD8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BE8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BF8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BG8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BH8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BI8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BK8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BL8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BM8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BN8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BO8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BP8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BR8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BS8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BT8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BU8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BV8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BW8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BX8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BY8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CB8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CC8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CD8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CE8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CF8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CG8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CH8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CI8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CK8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CL8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CM8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CN8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CO8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CP8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CR8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CS8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CT8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CU8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CV8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CW8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CX8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CY8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DB8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DC8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DD8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DE8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DF8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DG8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DH8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DI8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DK8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DL8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DM8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DN8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DO8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DP8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DR8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DS8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DT8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DU8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DV8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DW8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DX8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DY8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="EA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="9" spans="1:131" x14ac:dyDescent="0.2">
@@ -11173,394 +13553,394 @@
         <v>137</v>
       </c>
       <c r="B9" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I9" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J9" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K9" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L9" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M9" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O9" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P9" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R9" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T9" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="W9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="1">
+        <v>203</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>134</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>145</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>297</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>144</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>82</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>193</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>193</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>297</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>144</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>144</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>144</v>
+      </c>
+      <c r="AO9" s="1">
         <v>201</v>
       </c>
-      <c r="AA9" s="1">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>143</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>295</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>142</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>80</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>80</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>96</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>96</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>191</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>191</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>295</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>142</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>142</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>142</v>
-      </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
+        <v>169</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>169</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>201</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>169</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>133</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>169</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>133</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>133</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>133</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>133</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>133</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>202</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>134</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>144</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>294</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>141</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>79</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>79</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>95</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>95</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>190</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>190</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>294</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>141</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>141</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>141</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>198</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>166</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>166</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>198</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>166</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>130</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>166</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>130</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>130</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>130</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>130</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>130</v>
+      </c>
+      <c r="CB9" s="1">
         <v>199</v>
       </c>
-      <c r="AP9" s="1">
-        <v>167</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>167</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>199</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>167</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>167</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>131</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>131</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>200</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>132</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>142</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>292</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>139</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>77</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>77</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>93</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>93</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>188</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>188</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>292</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>139</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>139</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>139</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>196</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>164</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>164</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>196</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>164</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>128</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>164</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>128</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>128</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>128</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>128</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>128</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>197</v>
-      </c>
       <c r="CC9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CD9" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CE9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CG9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CH9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CJ9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CK9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CL9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CN9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CO9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CP9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CQ9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CR9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CS9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CT9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CU9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CV9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CW9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CX9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CY9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CZ9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DA9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DB9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DC9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DD9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DE9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DF9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DH9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DI9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DK9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DL9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DM9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DN9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DO9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DP9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DQ9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DR9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DS9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DT9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DU9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DV9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DW9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DX9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DY9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="DZ9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="EA9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:131" x14ac:dyDescent="0.2">
@@ -31187,10 +33567,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="D226" s="9">
-        <v>75.450599999999994</v>
+        <v>75.450500000000005</v>
       </c>
       <c r="E226" s="9">
-        <v>74.1404</v>
+        <v>74.139700000000005</v>
       </c>
       <c r="F226" s="8">
         <v>87</v>
@@ -31423,10 +33803,10 @@
         <v>77.2</v>
       </c>
       <c r="D227" s="9">
-        <v>75.950999999999993</v>
+        <v>75.950900000000004</v>
       </c>
       <c r="E227" s="9">
-        <v>74.777000000000001</v>
+        <v>74.776200000000003</v>
       </c>
       <c r="F227" s="8">
         <v>87</v>
@@ -31665,10 +34045,10 @@
         <v>77.7</v>
       </c>
       <c r="D228" s="9">
-        <v>76.506</v>
+        <v>76.506100000000004</v>
       </c>
       <c r="E228" s="9">
-        <v>75.297300000000007</v>
+        <v>75.296599999999998</v>
       </c>
       <c r="F228" s="8">
         <v>87.6</v>
@@ -31907,10 +34287,10 @@
         <v>78.7</v>
       </c>
       <c r="D229" s="9">
-        <v>77.141000000000005</v>
+        <v>77.141099999999994</v>
       </c>
       <c r="E229" s="9">
-        <v>75.861199999999997</v>
+        <v>75.860399999999998</v>
       </c>
       <c r="F229" s="8">
         <v>88.6</v>
@@ -32149,10 +34529,10 @@
         <v>78.599999999999994</v>
       </c>
       <c r="D230" s="9">
-        <v>77.563000000000002</v>
+        <v>77.562799999999996</v>
       </c>
       <c r="E230" s="9">
-        <v>76.205600000000004</v>
+        <v>76.204800000000006</v>
       </c>
       <c r="F230" s="8">
         <v>87.9</v>
@@ -32397,10 +34777,10 @@
         <v>79.099999999999994</v>
       </c>
       <c r="D231" s="9">
-        <v>78.082300000000004</v>
+        <v>78.0822</v>
       </c>
       <c r="E231" s="9">
-        <v>76.708399999999997</v>
+        <v>76.707599999999999</v>
       </c>
       <c r="F231" s="8">
         <v>87.6</v>
@@ -32645,10 +35025,10 @@
         <v>79.599999999999994</v>
       </c>
       <c r="D232" s="9">
-        <v>78.605999999999995</v>
+        <v>78.606099999999998</v>
       </c>
       <c r="E232" s="9">
-        <v>77.348299999999995</v>
+        <v>77.347499999999997</v>
       </c>
       <c r="F232" s="8">
         <v>87.7</v>
@@ -32893,10 +35273,10 @@
         <v>80.2</v>
       </c>
       <c r="D233" s="9">
-        <v>79.130700000000004</v>
+        <v>79.130799999999994</v>
       </c>
       <c r="E233" s="9">
-        <v>77.852599999999995</v>
+        <v>77.851900000000001</v>
       </c>
       <c r="F233" s="8">
         <v>88.1</v>
@@ -33141,10 +35521,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D234" s="9">
-        <v>79.611400000000003</v>
+        <v>79.611199999999997</v>
       </c>
       <c r="E234" s="9">
-        <v>78.331699999999998</v>
+        <v>78.3309</v>
       </c>
       <c r="F234" s="8">
         <v>88.3</v>
@@ -33389,10 +35769,10 @@
         <v>80.900000000000006</v>
       </c>
       <c r="D235" s="9">
-        <v>80.095200000000006</v>
+        <v>80.094899999999996</v>
       </c>
       <c r="E235" s="9">
-        <v>78.828500000000005</v>
+        <v>78.827699999999993</v>
       </c>
       <c r="F235" s="8">
         <v>88.2</v>
@@ -33637,10 +36017,10 @@
         <v>81.7</v>
       </c>
       <c r="D236" s="9">
-        <v>80.748000000000005</v>
+        <v>80.747699999999995</v>
       </c>
       <c r="E236" s="9">
-        <v>79.369900000000001</v>
+        <v>79.369100000000003</v>
       </c>
       <c r="F236" s="8">
         <v>88.8</v>
@@ -33885,10 +36265,10 @@
         <v>82.1</v>
       </c>
       <c r="D237" s="9">
-        <v>81.268199999999993</v>
+        <v>81.267899999999997</v>
       </c>
       <c r="E237" s="9">
-        <v>79.943299999999994</v>
+        <v>79.942499999999995</v>
       </c>
       <c r="F237" s="8">
         <v>88.7</v>
@@ -34133,10 +36513,10 @@
         <v>82.6</v>
       </c>
       <c r="D238" s="9">
-        <v>81.7851</v>
+        <v>81.784800000000004</v>
       </c>
       <c r="E238" s="9">
-        <v>80.499600000000001</v>
+        <v>80.498800000000003</v>
       </c>
       <c r="F238" s="8">
         <v>89.4</v>
@@ -34381,10 +36761,10 @@
         <v>83.4</v>
       </c>
       <c r="D239" s="9">
-        <v>82.296300000000002</v>
+        <v>82.296400000000006</v>
       </c>
       <c r="E239" s="9">
-        <v>80.986999999999995</v>
+        <v>80.986099999999993</v>
       </c>
       <c r="F239" s="8">
         <v>90.5</v>
@@ -34641,7 +37021,7 @@
         <v>82.845399999999998</v>
       </c>
       <c r="E240" s="9">
-        <v>81.620400000000004</v>
+        <v>81.619600000000005</v>
       </c>
       <c r="F240" s="8">
         <v>90.5</v>
@@ -34895,10 +37275,10 @@
         <v>84.6</v>
       </c>
       <c r="D241" s="9">
-        <v>83.534499999999994</v>
+        <v>83.534400000000005</v>
       </c>
       <c r="E241" s="9">
-        <v>82.266499999999994</v>
+        <v>82.265699999999995</v>
       </c>
       <c r="F241" s="8">
         <v>91.3</v>
@@ -35152,10 +37532,10 @@
         <v>85.9</v>
       </c>
       <c r="D242" s="9">
-        <v>84.236699999999999</v>
+        <v>84.2363</v>
       </c>
       <c r="E242" s="9">
-        <v>83.025599999999997</v>
+        <v>83.024799999999999</v>
       </c>
       <c r="F242" s="8">
         <v>93.7</v>
@@ -35412,7 +37792,7 @@
         <v>84.820700000000002</v>
       </c>
       <c r="E243" s="9">
-        <v>83.7102</v>
+        <v>83.709299999999999</v>
       </c>
       <c r="F243" s="8">
         <v>94.5</v>
@@ -35666,10 +38046,10 @@
         <v>86.7</v>
       </c>
       <c r="D244" s="9">
-        <v>85.326599999999999</v>
+        <v>85.326800000000006</v>
       </c>
       <c r="E244" s="9">
-        <v>84.116500000000002</v>
+        <v>84.115600000000001</v>
       </c>
       <c r="F244" s="8">
         <v>93.2</v>
@@ -35923,10 +38303,10 @@
         <v>86.7</v>
       </c>
       <c r="D245" s="9">
-        <v>85.807500000000005</v>
+        <v>85.807100000000005</v>
       </c>
       <c r="E245" s="9">
-        <v>84.593599999999995</v>
+        <v>84.592699999999994</v>
       </c>
       <c r="F245" s="8">
         <v>92.2</v>
@@ -36180,10 +38560,10 @@
         <v>87.7</v>
       </c>
       <c r="D246" s="9">
-        <v>86.566400000000002</v>
+        <v>86.566199999999995</v>
       </c>
       <c r="E246" s="9">
-        <v>85.362300000000005</v>
+        <v>85.361500000000007</v>
       </c>
       <c r="F246" s="8">
         <v>94</v>
@@ -36437,10 +38817,10 @@
         <v>88.2</v>
       </c>
       <c r="D247" s="9">
-        <v>87.309899999999999</v>
+        <v>87.309799999999996</v>
       </c>
       <c r="E247" s="9">
-        <v>86.197400000000002</v>
+        <v>86.1965</v>
       </c>
       <c r="F247" s="8">
         <v>94.2</v>
@@ -36694,10 +39074,10 @@
         <v>89.3</v>
       </c>
       <c r="D248" s="9">
-        <v>88.363799999999998</v>
+        <v>88.363600000000005</v>
       </c>
       <c r="E248" s="9">
-        <v>87.318600000000004</v>
+        <v>87.317700000000002</v>
       </c>
       <c r="F248" s="8">
         <v>94.5</v>
@@ -36951,10 +39331,10 @@
         <v>90.4</v>
       </c>
       <c r="D249" s="9">
-        <v>89.378900000000002</v>
+        <v>89.378799999999998</v>
       </c>
       <c r="E249" s="9">
-        <v>88.415499999999994</v>
+        <v>88.414599999999993</v>
       </c>
       <c r="F249" s="8">
         <v>95.2</v>
@@ -37208,10 +39588,10 @@
         <v>91.6</v>
       </c>
       <c r="D250" s="9">
-        <v>90.409499999999994</v>
+        <v>90.409800000000004</v>
       </c>
       <c r="E250" s="9">
-        <v>89.430300000000003</v>
+        <v>89.429400000000001</v>
       </c>
       <c r="F250" s="8">
         <v>96.7</v>
@@ -37465,10 +39845,10 @@
         <v>92.6</v>
       </c>
       <c r="D251" s="9">
-        <v>91.532899999999998</v>
+        <v>91.5334</v>
       </c>
       <c r="E251" s="9">
-        <v>90.5839</v>
+        <v>90.582999999999998</v>
       </c>
       <c r="F251" s="8">
         <v>97.3</v>
@@ -37722,10 +40102,10 @@
         <v>92.6</v>
       </c>
       <c r="D252" s="9">
-        <v>92.171899999999994</v>
+        <v>92.173299999999998</v>
       </c>
       <c r="E252" s="9">
-        <v>91.361800000000002</v>
+        <v>91.360900000000001</v>
       </c>
       <c r="F252" s="8">
         <v>95.6</v>
@@ -37979,10 +40359,10 @@
         <v>92.5</v>
       </c>
       <c r="D253" s="9">
-        <v>93.012600000000006</v>
+        <v>93.013999999999996</v>
       </c>
       <c r="E253" s="9">
-        <v>92.447299999999998</v>
+        <v>92.446399999999997</v>
       </c>
       <c r="F253" s="8">
         <v>96.1</v>
@@ -38236,10 +40616,10 @@
         <v>93</v>
       </c>
       <c r="D254" s="9">
-        <v>93.628600000000006</v>
+        <v>93.629800000000003</v>
       </c>
       <c r="E254" s="9">
-        <v>93.18</v>
+        <v>93.179100000000005</v>
       </c>
       <c r="F254" s="8">
         <v>96.7</v>
@@ -38493,10 +40873,10 @@
         <v>93.7</v>
       </c>
       <c r="D255" s="9">
-        <v>94.331199999999995</v>
+        <v>94.332800000000006</v>
       </c>
       <c r="E255" s="9">
-        <v>94.026300000000006</v>
+        <v>94.033799999999999</v>
       </c>
       <c r="F255" s="8">
         <v>96.9</v>
@@ -38750,10 +41130,10 @@
         <v>94.5</v>
       </c>
       <c r="D256" s="9">
-        <v>95.085099999999997</v>
+        <v>95.086500000000001</v>
       </c>
       <c r="E256" s="9">
-        <v>94.871200000000002</v>
+        <v>94.878699999999995</v>
       </c>
       <c r="F256" s="8">
         <v>96.9</v>
@@ -38915,7 +41295,7 @@
         <v>3.2</v>
       </c>
       <c r="BG256" s="8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BH256" s="8">
         <v>1.4</v>
@@ -39007,10 +41387,10 @@
         <v>95.2</v>
       </c>
       <c r="D257" s="9">
-        <v>95.866799999999998</v>
+        <v>95.867099999999994</v>
       </c>
       <c r="E257" s="9">
-        <v>95.6751</v>
+        <v>95.6828</v>
       </c>
       <c r="F257" s="8">
         <v>97.1</v>
@@ -39521,7 +41901,7 @@
         <v>96.4</v>
       </c>
       <c r="D259" s="9">
-        <v>96.7928</v>
+        <v>96.793199999999999</v>
       </c>
       <c r="E259" s="9">
         <v>96.649799999999999</v>
@@ -39778,7 +42158,7 @@
         <v>97</v>
       </c>
       <c r="D260" s="9">
-        <v>97.201800000000006</v>
+        <v>97.201899999999995</v>
       </c>
       <c r="E260" s="9">
         <v>97.302400000000006</v>
@@ -40292,7 +42672,7 @@
         <v>99.3</v>
       </c>
       <c r="D262" s="9">
-        <v>98.8078</v>
+        <v>98.808000000000007</v>
       </c>
       <c r="E262" s="9">
         <v>98.988</v>
@@ -40549,7 +42929,7 @@
         <v>99.7</v>
       </c>
       <c r="D263" s="9">
-        <v>99.197900000000004</v>
+        <v>99.198099999999997</v>
       </c>
       <c r="E263" s="9">
         <v>99.232500000000002</v>
@@ -40806,7 +43186,7 @@
         <v>99.9</v>
       </c>
       <c r="D264" s="9">
-        <v>99.822100000000006</v>
+        <v>99.822199999999995</v>
       </c>
       <c r="E264" s="9">
         <v>99.730199999999996</v>
@@ -41063,7 +43443,7 @@
         <v>99.9</v>
       </c>
       <c r="D265" s="9">
-        <v>100.226</v>
+        <v>100.22580000000001</v>
       </c>
       <c r="E265" s="9">
         <v>100.21639999999999</v>
@@ -41834,7 +44214,7 @@
         <v>102</v>
       </c>
       <c r="D268" s="9">
-        <v>101.9863</v>
+        <v>101.9859</v>
       </c>
       <c r="E268" s="9">
         <v>102.2838</v>
@@ -42091,7 +44471,7 @@
         <v>102.4</v>
       </c>
       <c r="D269" s="9">
-        <v>102.5414</v>
+        <v>102.5415</v>
       </c>
       <c r="E269" s="9">
         <v>103.04859999999999</v>
@@ -42348,10 +44728,10 @@
         <v>102.9</v>
       </c>
       <c r="D270" s="9">
-        <v>103.14149999999999</v>
+        <v>103.1417</v>
       </c>
       <c r="E270" s="9">
-        <v>103.61920000000001</v>
+        <v>103.6191</v>
       </c>
       <c r="F270" s="8">
         <v>98.9</v>
@@ -42605,10 +44985,10 @@
         <v>103.9</v>
       </c>
       <c r="D271" s="9">
-        <v>103.9015</v>
+        <v>103.90179999999999</v>
       </c>
       <c r="E271" s="9">
-        <v>104.279</v>
+        <v>104.27889999999999</v>
       </c>
       <c r="F271" s="8">
         <v>100.1</v>
@@ -42862,10 +45242,10 @@
         <v>104.7</v>
       </c>
       <c r="D272" s="9">
-        <v>104.70180000000001</v>
+        <v>104.7016</v>
       </c>
       <c r="E272" s="9">
-        <v>104.98260000000001</v>
+        <v>104.9815</v>
       </c>
       <c r="F272" s="8">
         <v>100.8</v>
@@ -43119,10 +45499,10 @@
         <v>105.4</v>
       </c>
       <c r="D273" s="9">
-        <v>105.2655</v>
+        <v>105.2662</v>
       </c>
       <c r="E273" s="9">
-        <v>105.5659</v>
+        <v>105.56480000000001</v>
       </c>
       <c r="F273" s="8">
         <v>101.2</v>
@@ -43376,10 +45756,10 @@
         <v>106.1</v>
       </c>
       <c r="D274" s="9">
-        <v>105.9969</v>
+        <v>105.99850000000001</v>
       </c>
       <c r="E274" s="9">
-        <v>106.1992</v>
+        <v>106.1981</v>
       </c>
       <c r="F274" s="8">
         <v>101.8</v>
@@ -43633,10 +46013,10 @@
         <v>106.3</v>
       </c>
       <c r="D275" s="9">
-        <v>106.3968</v>
+        <v>106.39830000000001</v>
       </c>
       <c r="E275" s="9">
-        <v>106.76309999999999</v>
+        <v>106.76090000000001</v>
       </c>
       <c r="F275" s="8">
         <v>102.1</v>
@@ -43890,10 +46270,10 @@
         <v>106.5</v>
       </c>
       <c r="D276" s="9">
-        <v>107.01609999999999</v>
+        <v>107.0159</v>
       </c>
       <c r="E276" s="9">
-        <v>107.45610000000001</v>
+        <v>107.4539</v>
       </c>
       <c r="F276" s="8">
         <v>101.5</v>
@@ -44147,10 +46527,10 @@
         <v>106.8</v>
       </c>
       <c r="D277" s="9">
-        <v>107.6778</v>
+        <v>107.6789</v>
       </c>
       <c r="E277" s="9">
-        <v>108.12569999999999</v>
+        <v>108.12350000000001</v>
       </c>
       <c r="F277" s="8">
         <v>100.3</v>
@@ -44404,10 +46784,10 @@
         <v>107.7</v>
       </c>
       <c r="D278" s="9">
-        <v>108.3194</v>
+        <v>108.3244</v>
       </c>
       <c r="E278" s="9">
-        <v>108.6242</v>
+        <v>108.6241</v>
       </c>
       <c r="F278" s="8">
         <v>101.5</v>
@@ -44661,10 +47041,10 @@
         <v>107.8</v>
       </c>
       <c r="D279" s="9">
-        <v>108.6427</v>
+        <v>108.6435</v>
       </c>
       <c r="E279" s="9">
-        <v>109.1527</v>
+        <v>109.1203</v>
       </c>
       <c r="F279" s="8">
         <v>101.8</v>
@@ -44918,10 +47298,10 @@
         <v>108.3</v>
       </c>
       <c r="D280" s="9">
-        <v>109.27070000000001</v>
+        <v>109.26990000000001</v>
       </c>
       <c r="E280" s="9">
-        <v>109.5933</v>
+        <v>109.5609</v>
       </c>
       <c r="F280" s="8">
         <v>102.3</v>
@@ -45175,10 +47555,10 @@
         <v>108.2</v>
       </c>
       <c r="D281" s="9">
-        <v>109.5416</v>
+        <v>109.54040000000001</v>
       </c>
       <c r="E281" s="9">
-        <v>109.74939999999999</v>
+        <v>109.71680000000001</v>
       </c>
       <c r="F281" s="8">
         <v>100.9</v>
@@ -45432,10 +47812,10 @@
         <v>108.8</v>
       </c>
       <c r="D282" s="9">
-        <v>110.0706</v>
+        <v>110.0796</v>
       </c>
       <c r="E282" s="9">
-        <v>110.0643</v>
+        <v>110.0382</v>
       </c>
       <c r="F282" s="8">
         <v>101.5</v>
@@ -45689,10 +48069,10 @@
         <v>109.3</v>
       </c>
       <c r="D283" s="9">
-        <v>110.4203</v>
+        <v>110.42659999999999</v>
       </c>
       <c r="E283" s="9">
-        <v>110.3933</v>
+        <v>110.3672</v>
       </c>
       <c r="F283" s="8">
         <v>102.5</v>
@@ -45946,10 +48326,10 @@
         <v>109.8</v>
       </c>
       <c r="D284" s="9">
-        <v>110.8814</v>
+        <v>110.8857</v>
       </c>
       <c r="E284" s="9">
-        <v>110.8835</v>
+        <v>110.8573</v>
       </c>
       <c r="F284" s="8">
         <v>102.4</v>
@@ -46203,10 +48583,10 @@
         <v>110.5</v>
       </c>
       <c r="D285" s="9">
-        <v>111.40349999999999</v>
+        <v>111.41079999999999</v>
       </c>
       <c r="E285" s="9">
-        <v>111.483</v>
+        <v>111.4589</v>
       </c>
       <c r="F285" s="8">
         <v>102.2</v>
@@ -46460,10 +48840,10 @@
         <v>110.9</v>
       </c>
       <c r="D286" s="9">
-        <v>111.9203</v>
+        <v>111.9318</v>
       </c>
       <c r="E286" s="9">
-        <v>112.09990000000001</v>
+        <v>112.0778</v>
       </c>
       <c r="F286" s="8">
         <v>101.9</v>
@@ -46625,7 +49005,7 @@
         <v>1.7</v>
       </c>
       <c r="BG286" s="8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BH286" s="8">
         <v>0.4</v>
@@ -46717,10 +49097,10 @@
         <v>111.3</v>
       </c>
       <c r="D287" s="9">
-        <v>112.33329999999999</v>
+        <v>112.3442</v>
       </c>
       <c r="E287" s="9">
-        <v>112.5702</v>
+        <v>112.54179999999999</v>
       </c>
       <c r="F287" s="8">
         <v>101.6</v>
@@ -46974,10 +49354,10 @@
         <v>112.1</v>
       </c>
       <c r="D288" s="9">
-        <v>112.73950000000001</v>
+        <v>112.73260000000001</v>
       </c>
       <c r="E288" s="9">
-        <v>113.0856</v>
+        <v>113.057</v>
       </c>
       <c r="F288" s="8">
         <v>102.1</v>
@@ -47055,7 +49435,7 @@
         <v>0.7</v>
       </c>
       <c r="AE288" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AF288" s="8">
         <v>0.5</v>
@@ -47231,10 +49611,10 @@
         <v>112.7</v>
       </c>
       <c r="D289" s="9">
-        <v>113.3026</v>
+        <v>113.3104</v>
       </c>
       <c r="E289" s="9">
-        <v>113.6695</v>
+        <v>113.6407</v>
       </c>
       <c r="F289" s="8">
         <v>101.7</v>
@@ -47488,10 +49868,10 @@
         <v>113.2</v>
       </c>
       <c r="D290" s="9">
-        <v>113.75449999999999</v>
+        <v>113.78530000000001</v>
       </c>
       <c r="E290" s="9">
-        <v>114.1866</v>
+        <v>114.2303</v>
       </c>
       <c r="F290" s="8">
         <v>102.2</v>
@@ -47650,7 +50030,7 @@
         <v>2.1</v>
       </c>
       <c r="BF290" s="8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BG290" s="8">
         <v>1.9</v>
@@ -47745,10 +50125,10 @@
         <v>113.5</v>
       </c>
       <c r="D291" s="9">
-        <v>114.2248</v>
+        <v>114.2419</v>
       </c>
       <c r="E291" s="9">
-        <v>114.613</v>
+        <v>114.6558</v>
       </c>
       <c r="F291" s="8">
         <v>103</v>
@@ -47910,7 +50290,7 @@
         <v>1.7</v>
       </c>
       <c r="BG291" s="8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BH291" s="8">
         <v>1.4</v>
@@ -48002,10 +50382,10 @@
         <v>114</v>
       </c>
       <c r="D292" s="9">
-        <v>114.72450000000001</v>
+        <v>114.7099</v>
       </c>
       <c r="E292" s="9">
-        <v>115.05759999999999</v>
+        <v>115.0731</v>
       </c>
       <c r="F292" s="8">
         <v>102.7</v>
@@ -48167,7 +50547,7 @@
         <v>1.8</v>
       </c>
       <c r="BG292" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BH292" s="8">
         <v>0.6</v>
@@ -48259,10 +50639,10 @@
         <v>114.1</v>
       </c>
       <c r="D293" s="9">
-        <v>115.0697</v>
+        <v>115.07</v>
       </c>
       <c r="E293" s="9">
-        <v>115.2932</v>
+        <v>115.3087</v>
       </c>
       <c r="F293" s="8">
         <v>102.1</v>
@@ -48424,7 +50804,7 @@
         <v>1.6</v>
       </c>
       <c r="BG293" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BH293" s="8">
         <v>0.4</v>
@@ -48513,13 +50893,13 @@
         <v>114.8</v>
       </c>
       <c r="C294" s="8">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="D294" s="9">
-        <v>115.4995</v>
+        <v>115.5449</v>
       </c>
       <c r="E294" s="9">
-        <v>115.72199999999999</v>
+        <v>115.7375</v>
       </c>
       <c r="F294" s="8">
         <v>103.3</v>
@@ -48594,7 +50974,7 @@
         <v>0.6</v>
       </c>
       <c r="AD294" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AE294" s="8">
         <v>0.4</v>
@@ -48675,7 +51055,7 @@
         <v>1.6</v>
       </c>
       <c r="BE294" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BF294" s="8">
         <v>1.5</v>
@@ -48773,10 +51153,10 @@
         <v>115.4</v>
       </c>
       <c r="D295" s="9">
-        <v>115.97069999999999</v>
+        <v>115.9717</v>
       </c>
       <c r="E295" s="9">
-        <v>116.1058</v>
+        <v>116.11109999999999</v>
       </c>
       <c r="F295" s="8">
         <v>104.2</v>
@@ -48851,7 +51231,7 @@
         <v>0.5</v>
       </c>
       <c r="AD295" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AE295" s="8">
         <v>0.4</v>
@@ -49030,10 +51410,10 @@
         <v>116.1</v>
       </c>
       <c r="D296" s="9">
-        <v>116.4757</v>
+        <v>116.4425</v>
       </c>
       <c r="E296" s="9">
-        <v>116.52679999999999</v>
+        <v>116.5321</v>
       </c>
       <c r="F296" s="8">
         <v>104.4</v>
@@ -49287,10 +51667,10 @@
         <v>116.7</v>
       </c>
       <c r="D297" s="9">
-        <v>117.0265</v>
+        <v>117.0307</v>
       </c>
       <c r="E297" s="9">
-        <v>117.08110000000001</v>
+        <v>117.1909</v>
       </c>
       <c r="F297" s="8">
         <v>104.2</v>
@@ -49371,7 +51751,7 @@
         <v>0.5</v>
       </c>
       <c r="AF297" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG297" s="8">
         <v>-0.2</v>
@@ -49541,13 +51921,13 @@
         <v>114.4</v>
       </c>
       <c r="C298" s="8">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="D298" s="9">
-        <v>116.8895</v>
+        <v>116.9726</v>
       </c>
       <c r="E298" s="9">
-        <v>117.15900000000001</v>
+        <v>117.3146</v>
       </c>
       <c r="F298" s="8">
         <v>102.8</v>
@@ -49622,10 +52002,10 @@
         <v>-1.9</v>
       </c>
       <c r="AD298" s="8">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AE298" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AF298" s="8">
         <v>0.1</v>
@@ -49709,7 +52089,7 @@
         <v>1.2</v>
       </c>
       <c r="BG298" s="8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH298" s="8">
         <v>-0.5</v>
@@ -49801,10 +52181,10 @@
         <v>116.2</v>
       </c>
       <c r="D299" s="9">
-        <v>117.30159999999999</v>
+        <v>117.2959</v>
       </c>
       <c r="E299" s="9">
-        <v>117.49809999999999</v>
+        <v>117.5939</v>
       </c>
       <c r="F299" s="8">
         <v>104.2</v>
@@ -49879,13 +52259,13 @@
         <v>1.6</v>
       </c>
       <c r="AD299" s="8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AE299" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AF299" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AG299" s="8">
         <v>1.4</v>
@@ -49966,7 +52346,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG299" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH299" s="8">
         <v>0</v>
@@ -50055,13 +52435,13 @@
         <v>117.2</v>
       </c>
       <c r="C300" s="8">
-        <v>117.2</v>
+        <v>117.1</v>
       </c>
       <c r="D300" s="9">
-        <v>117.8707</v>
+        <v>117.8249</v>
       </c>
       <c r="E300" s="9">
-        <v>118.1297</v>
+        <v>118.18300000000001</v>
       </c>
       <c r="F300" s="8">
         <v>103.8</v>
@@ -50136,7 +52516,7 @@
         <v>0.9</v>
       </c>
       <c r="AD300" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AE300" s="8">
         <v>0.5</v>
@@ -50315,10 +52695,10 @@
         <v>117.8</v>
       </c>
       <c r="D301" s="9">
-        <v>118.294</v>
+        <v>118.30800000000001</v>
       </c>
       <c r="E301" s="9">
-        <v>118.5682</v>
+        <v>118.63939999999999</v>
       </c>
       <c r="F301" s="8">
         <v>104.9</v>
@@ -50393,7 +52773,7 @@
         <v>0.6</v>
       </c>
       <c r="AD301" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE301" s="8">
         <v>0.4</v>
@@ -50480,7 +52860,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG301" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH301" s="8">
         <v>0.7</v>
@@ -50569,13 +52949,13 @@
         <v>118.8</v>
       </c>
       <c r="C302" s="8">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="D302" s="9">
-        <v>118.724</v>
+        <v>118.83499999999999</v>
       </c>
       <c r="E302" s="9">
-        <v>118.91840000000001</v>
+        <v>119.1246</v>
       </c>
       <c r="F302" s="8">
         <v>106.5</v>
@@ -50656,7 +53036,7 @@
         <v>0.4</v>
       </c>
       <c r="AF302" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG302" s="8">
         <v>1.5</v>
@@ -50829,10 +53209,10 @@
         <v>119.8</v>
       </c>
       <c r="D303" s="9">
-        <v>119.7503</v>
+        <v>119.7569</v>
       </c>
       <c r="E303" s="9">
-        <v>119.9422</v>
+        <v>120.0168</v>
       </c>
       <c r="F303" s="8">
         <v>107.4</v>
@@ -50907,13 +53287,13 @@
         <v>0.8</v>
       </c>
       <c r="AD303" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AE303" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AF303" s="8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AG303" s="8">
         <v>0.8</v>
@@ -51065,97 +53445,6 @@
       <c r="CD303" s="8">
         <v>2.5</v>
       </c>
-      <c r="CE303" s="8">
-        <v>119.7</v>
-      </c>
-      <c r="CF303" s="10">
-        <v>39.36</v>
-      </c>
-      <c r="CG303" s="10">
-        <v>80.34</v>
-      </c>
-      <c r="CH303" s="10">
-        <v>69.12</v>
-      </c>
-      <c r="CI303" s="10">
-        <v>50.58</v>
-      </c>
-      <c r="CJ303" s="10">
-        <v>55.82</v>
-      </c>
-      <c r="CK303" s="10">
-        <v>33.33</v>
-      </c>
-      <c r="CL303" s="10">
-        <v>89.15</v>
-      </c>
-      <c r="CM303" s="10">
-        <v>99.65</v>
-      </c>
-      <c r="CN303" s="10">
-        <v>108.92</v>
-      </c>
-      <c r="CO303" s="10">
-        <v>115.72</v>
-      </c>
-      <c r="CP303" s="10">
-        <v>91.88</v>
-      </c>
-      <c r="CQ303" s="10">
-        <v>108.73</v>
-      </c>
-      <c r="CR303" s="10">
-        <v>111.96</v>
-      </c>
-      <c r="CS303" s="10">
-        <v>107.03</v>
-      </c>
-      <c r="CT303" s="10">
-        <v>116.81</v>
-      </c>
-      <c r="CU303" s="10">
-        <v>109.39</v>
-      </c>
-      <c r="CV303" s="10">
-        <v>114.16</v>
-      </c>
-      <c r="CW303" s="10">
-        <v>112.76</v>
-      </c>
-      <c r="CX303" s="10">
-        <v>84.94</v>
-      </c>
-      <c r="CY303" s="10">
-        <v>114.24</v>
-      </c>
-      <c r="CZ303" s="10">
-        <v>95.64</v>
-      </c>
-      <c r="DA303" s="10">
-        <v>113.01</v>
-      </c>
-      <c r="DC303" s="10"/>
-      <c r="DD303" s="10"/>
-      <c r="DE303" s="10"/>
-      <c r="DF303" s="10"/>
-      <c r="DG303" s="10"/>
-      <c r="DH303" s="10"/>
-      <c r="DI303" s="10"/>
-      <c r="DJ303" s="10"/>
-      <c r="DK303" s="10"/>
-      <c r="DL303" s="10"/>
-      <c r="DM303" s="10"/>
-      <c r="DN303" s="10"/>
-      <c r="DO303" s="10"/>
-      <c r="DP303" s="10"/>
-      <c r="DQ303" s="10"/>
-      <c r="DR303" s="10"/>
-      <c r="DS303" s="10"/>
-      <c r="DT303" s="10"/>
-      <c r="DU303" s="10"/>
-      <c r="DV303" s="10"/>
-      <c r="DW303" s="10"/>
-      <c r="DX303" s="10"/>
       <c r="DY303" s="8">
         <v>119.9</v>
       </c>
@@ -51174,13 +53463,13 @@
         <v>121.3</v>
       </c>
       <c r="C304" s="8">
-        <v>121.4</v>
+        <v>121.3</v>
       </c>
       <c r="D304" s="9">
-        <v>120.9552</v>
+        <v>120.91119999999999</v>
       </c>
       <c r="E304" s="9">
-        <v>120.9696</v>
+        <v>120.99</v>
       </c>
       <c r="F304" s="8">
         <v>108.9</v>
@@ -51261,7 +53550,7 @@
         <v>1</v>
       </c>
       <c r="AF304" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AG304" s="8">
         <v>1.4</v>
@@ -51412,144 +53701,6 @@
       </c>
       <c r="CD304" s="8">
         <v>2.6</v>
-      </c>
-      <c r="CE304" s="8">
-        <v>121.3</v>
-      </c>
-      <c r="CF304" s="10">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="CG304" s="10">
-        <v>81.33</v>
-      </c>
-      <c r="CH304" s="10">
-        <v>70.290000000000006</v>
-      </c>
-      <c r="CI304" s="10">
-        <v>51</v>
-      </c>
-      <c r="CJ304" s="10">
-        <v>56.74</v>
-      </c>
-      <c r="CK304" s="10">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="CL304" s="10">
-        <v>90.47</v>
-      </c>
-      <c r="CM304" s="10">
-        <v>101.09</v>
-      </c>
-      <c r="CN304" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="CO304" s="10">
-        <v>117.19</v>
-      </c>
-      <c r="CP304" s="10">
-        <v>92.93</v>
-      </c>
-      <c r="CQ304" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="CR304" s="10">
-        <v>113.56</v>
-      </c>
-      <c r="CS304" s="10">
-        <v>108.24</v>
-      </c>
-      <c r="CT304" s="10">
-        <v>118.39</v>
-      </c>
-      <c r="CU304" s="10">
-        <v>110.82</v>
-      </c>
-      <c r="CV304" s="10">
-        <v>115.74</v>
-      </c>
-      <c r="CW304" s="10">
-        <v>114.25</v>
-      </c>
-      <c r="CX304" s="10">
-        <v>85.91</v>
-      </c>
-      <c r="CY304" s="10">
-        <v>115.83</v>
-      </c>
-      <c r="CZ304" s="10">
-        <v>96.85</v>
-      </c>
-      <c r="DA304" s="10">
-        <v>114.35</v>
-      </c>
-      <c r="DB304" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="DC304" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="DD304" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="DE304" s="10">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="DF304" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="DG304" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="DH304" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="DI304" s="10">
-        <v>1.29</v>
-      </c>
-      <c r="DJ304" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="DK304" s="10">
-        <v>1.44</v>
-      </c>
-      <c r="DL304" s="10">
-        <v>1.43</v>
-      </c>
-      <c r="DM304" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="DN304" s="10">
-        <v>1.42</v>
-      </c>
-      <c r="DO304" s="10">
-        <v>1.56</v>
-      </c>
-      <c r="DP304" s="10">
-        <v>1.17</v>
-      </c>
-      <c r="DQ304" s="10">
-        <v>1.53</v>
-      </c>
-      <c r="DR304" s="10">
-        <v>1.39</v>
-      </c>
-      <c r="DS304" s="10">
-        <v>1.53</v>
-      </c>
-      <c r="DT304" s="10">
-        <v>1.44</v>
-      </c>
-      <c r="DU304" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="DV304" s="10">
-        <v>1.54</v>
-      </c>
-      <c r="DW304" s="10">
-        <v>1.17</v>
-      </c>
-      <c r="DX304" s="10">
-        <v>1.29</v>
       </c>
       <c r="DY304" s="8">
         <v>121.5</v>
@@ -51572,10 +53723,10 @@
         <v>123.9</v>
       </c>
       <c r="D305" s="9">
-        <v>122.72329999999999</v>
+        <v>122.8151</v>
       </c>
       <c r="E305" s="9">
-        <v>122.1514</v>
+        <v>122.4126</v>
       </c>
       <c r="F305" s="8">
         <v>112</v>
@@ -51653,10 +53804,10 @@
         <v>2.1</v>
       </c>
       <c r="AE305" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AF305" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AG305" s="8">
         <v>2.8</v>
@@ -51734,10 +53885,10 @@
         <v>5.2</v>
       </c>
       <c r="BF305" s="8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BG305" s="8">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BH305" s="8">
         <v>6.8</v>
@@ -51807,144 +53958,6 @@
       </c>
       <c r="CD305" s="8">
         <v>4</v>
-      </c>
-      <c r="CE305" s="8">
-        <v>123.9</v>
-      </c>
-      <c r="CF305" s="10">
-        <v>41.08</v>
-      </c>
-      <c r="CG305" s="10">
-        <v>82.82</v>
-      </c>
-      <c r="CH305" s="10">
-        <v>72.34</v>
-      </c>
-      <c r="CI305" s="10">
-        <v>51.56</v>
-      </c>
-      <c r="CJ305" s="10">
-        <v>58.04</v>
-      </c>
-      <c r="CK305" s="10">
-        <v>33.93</v>
-      </c>
-      <c r="CL305" s="10">
-        <v>91.97</v>
-      </c>
-      <c r="CM305" s="10">
-        <v>103.15</v>
-      </c>
-      <c r="CN305" s="10">
-        <v>112.9</v>
-      </c>
-      <c r="CO305" s="10">
-        <v>119.84</v>
-      </c>
-      <c r="CP305" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="CQ305" s="10">
-        <v>112.69</v>
-      </c>
-      <c r="CR305" s="10">
-        <v>116</v>
-      </c>
-      <c r="CS305" s="10">
-        <v>110.31</v>
-      </c>
-      <c r="CT305" s="10">
-        <v>121</v>
-      </c>
-      <c r="CU305" s="10">
-        <v>113.36</v>
-      </c>
-      <c r="CV305" s="10">
-        <v>118.11</v>
-      </c>
-      <c r="CW305" s="10">
-        <v>116.83</v>
-      </c>
-      <c r="CX305" s="10">
-        <v>87.73</v>
-      </c>
-      <c r="CY305" s="10">
-        <v>118.35</v>
-      </c>
-      <c r="CZ305" s="10">
-        <v>98.42</v>
-      </c>
-      <c r="DA305" s="10">
-        <v>116.35</v>
-      </c>
-      <c r="DB305" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="DC305" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="DD305" s="10">
-        <v>1.49</v>
-      </c>
-      <c r="DE305" s="10">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="DF305" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="DG305" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="DH305" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DI305" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="DJ305" s="10">
-        <v>2.06</v>
-      </c>
-      <c r="DK305" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="DL305" s="10">
-        <v>2.65</v>
-      </c>
-      <c r="DM305" s="10">
-        <v>1.87</v>
-      </c>
-      <c r="DN305" s="10">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="DO305" s="10">
-        <v>2.44</v>
-      </c>
-      <c r="DP305" s="10">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="DQ305" s="10">
-        <v>2.61</v>
-      </c>
-      <c r="DR305" s="10">
-        <v>2.54</v>
-      </c>
-      <c r="DS305" s="10">
-        <v>2.37</v>
-      </c>
-      <c r="DT305" s="10">
-        <v>2.58</v>
-      </c>
-      <c r="DU305" s="10">
-        <v>1.82</v>
-      </c>
-      <c r="DV305" s="10">
-        <v>2.52</v>
-      </c>
-      <c r="DW305" s="10">
-        <v>1.57</v>
-      </c>
-      <c r="DX305" s="10">
-        <v>2</v>
       </c>
       <c r="DY305" s="8">
         <v>125.2</v>
@@ -51964,13 +53977,13 @@
         <v>126.1</v>
       </c>
       <c r="C306" s="8">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="D306" s="9">
-        <v>124.5124</v>
+        <v>124.76090000000001</v>
       </c>
       <c r="E306" s="9">
-        <v>123.8741</v>
+        <v>124.1827</v>
       </c>
       <c r="F306" s="8">
         <v>115</v>
@@ -52045,10 +54058,10 @@
         <v>1.8</v>
       </c>
       <c r="AD306" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AE306" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AF306" s="8">
         <v>1.4</v>
@@ -52129,7 +54142,7 @@
         <v>6.1</v>
       </c>
       <c r="BF306" s="8">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="BG306" s="8">
         <v>4.2</v>
@@ -52203,144 +54216,6 @@
       <c r="CD306" s="8">
         <v>5.3</v>
       </c>
-      <c r="CE306" s="8">
-        <v>126.1</v>
-      </c>
-      <c r="CF306" s="10">
-        <v>42.15</v>
-      </c>
-      <c r="CG306" s="10">
-        <v>83.96</v>
-      </c>
-      <c r="CH306" s="10">
-        <v>74.22</v>
-      </c>
-      <c r="CI306" s="10">
-        <v>51.9</v>
-      </c>
-      <c r="CJ306" s="10">
-        <v>59.58</v>
-      </c>
-      <c r="CK306" s="10">
-        <v>34.32</v>
-      </c>
-      <c r="CL306" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="CM306" s="10">
-        <v>104.94</v>
-      </c>
-      <c r="CN306" s="10">
-        <v>115.03</v>
-      </c>
-      <c r="CO306" s="10">
-        <v>121.91</v>
-      </c>
-      <c r="CP306" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="CQ306" s="10">
-        <v>114.64</v>
-      </c>
-      <c r="CR306" s="10">
-        <v>118.19</v>
-      </c>
-      <c r="CS306" s="10">
-        <v>112.22</v>
-      </c>
-      <c r="CT306" s="10">
-        <v>123.21</v>
-      </c>
-      <c r="CU306" s="10">
-        <v>115.43</v>
-      </c>
-      <c r="CV306" s="10">
-        <v>120.32</v>
-      </c>
-      <c r="CW306" s="10">
-        <v>118.98</v>
-      </c>
-      <c r="CX306" s="10">
-        <v>89.16</v>
-      </c>
-      <c r="CY306" s="10">
-        <v>120.53</v>
-      </c>
-      <c r="CZ306" s="10">
-        <v>100.09</v>
-      </c>
-      <c r="DA306" s="10">
-        <v>118.2</v>
-      </c>
-      <c r="DB306" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="DC306" s="10">
-        <v>1.07</v>
-      </c>
-      <c r="DD306" s="10">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="DE306" s="10">
-        <v>1.88</v>
-      </c>
-      <c r="DF306" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="DG306" s="10">
-        <v>1.54</v>
-      </c>
-      <c r="DH306" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="DI306" s="10">
-        <v>1.93</v>
-      </c>
-      <c r="DJ306" s="10">
-        <v>1.79</v>
-      </c>
-      <c r="DK306" s="10">
-        <v>2.13</v>
-      </c>
-      <c r="DL306" s="10">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="DM306" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="DN306" s="10">
-        <v>1.95</v>
-      </c>
-      <c r="DO306" s="10">
-        <v>2.19</v>
-      </c>
-      <c r="DP306" s="10">
-        <v>1.91</v>
-      </c>
-      <c r="DQ306" s="10">
-        <v>2.21</v>
-      </c>
-      <c r="DR306" s="10">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="DS306" s="10">
-        <v>2.21</v>
-      </c>
-      <c r="DT306" s="10">
-        <v>2.15</v>
-      </c>
-      <c r="DU306" s="10">
-        <v>1.43</v>
-      </c>
-      <c r="DV306" s="10">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="DW306" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="DX306" s="10">
-        <v>1.85</v>
-      </c>
       <c r="DY306" s="8">
         <v>127.5</v>
       </c>
@@ -52349,6 +54224,749 @@
       </c>
       <c r="EA306" s="8">
         <v>113.9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="A307" s="11">
+        <v>44805</v>
+      </c>
+      <c r="B307" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="C307" s="8">
+        <v>128.5</v>
+      </c>
+      <c r="D307" s="9">
+        <v>127.0996</v>
+      </c>
+      <c r="E307" s="9">
+        <v>125.9066</v>
+      </c>
+      <c r="F307" s="8">
+        <v>116.7</v>
+      </c>
+      <c r="G307" s="8">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="H307" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="I307" s="8">
+        <v>128.6</v>
+      </c>
+      <c r="J307" s="8">
+        <v>129.6</v>
+      </c>
+      <c r="K307" s="8">
+        <v>128</v>
+      </c>
+      <c r="L307" s="8">
+        <v>120.3</v>
+      </c>
+      <c r="M307" s="8">
+        <v>124.9</v>
+      </c>
+      <c r="N307" s="8">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="O307" s="8">
+        <v>124.7</v>
+      </c>
+      <c r="P307" s="8">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="Q307" s="8">
+        <v>126.1</v>
+      </c>
+      <c r="R307" s="8">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="S307" s="8">
+        <v>127.2</v>
+      </c>
+      <c r="T307" s="8">
+        <v>129.1</v>
+      </c>
+      <c r="U307" s="8">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="V307" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="W307" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="X307" s="8">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="Y307" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="Z307" s="8">
+        <v>126.9</v>
+      </c>
+      <c r="AA307" s="8">
+        <v>128.6</v>
+      </c>
+      <c r="AB307" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="AC307" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AD307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AE307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AF307" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AG307" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AH307" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI307" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AJ307" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AK307" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL307" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM307" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AN307" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AO307" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AP307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AQ307" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR307" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AS307" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AT307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AU307" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AV307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AW307" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AY307" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AZ307" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="BA307" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="BB307" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BC307" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BD307" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="BE307" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="BF307" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="BG307" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BH307" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BI307" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="BJ307" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="BK307" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BL307" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="BM307" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="BN307" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="BO307" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="BP307" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="BQ307" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="BR307" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="BS307" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="BT307" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="BU307" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="BV307" s="8">
+        <v>7</v>
+      </c>
+      <c r="BW307" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="BX307" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="BY307" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="BZ307" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="CA307" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="CB307" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="CC307" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="CD307" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="CE307" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="CF307" s="10">
+        <v>44.42</v>
+      </c>
+      <c r="CG307" s="10">
+        <v>83.98</v>
+      </c>
+      <c r="CH307" s="10">
+        <v>72.16</v>
+      </c>
+      <c r="CI307" s="10">
+        <v>56.24</v>
+      </c>
+      <c r="CJ307" s="10">
+        <v>57.89</v>
+      </c>
+      <c r="CK307" s="10">
+        <v>38.53</v>
+      </c>
+      <c r="CL307" s="10">
+        <v>96.42</v>
+      </c>
+      <c r="CM307" s="10">
+        <v>106.31</v>
+      </c>
+      <c r="CN307" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="CO307" s="10">
+        <v>124.07</v>
+      </c>
+      <c r="CP307" s="10">
+        <v>99.84</v>
+      </c>
+      <c r="CQ307" s="10">
+        <v>116.94</v>
+      </c>
+      <c r="CR307" s="10">
+        <v>120.37</v>
+      </c>
+      <c r="CS307" s="10">
+        <v>114.29</v>
+      </c>
+      <c r="CT307" s="10">
+        <v>125.43</v>
+      </c>
+      <c r="CU307" s="10">
+        <v>114.48</v>
+      </c>
+      <c r="CV307" s="10">
+        <v>122.72</v>
+      </c>
+      <c r="CW307" s="10">
+        <v>121.26</v>
+      </c>
+      <c r="CX307" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="CY307" s="10">
+        <v>122.69</v>
+      </c>
+      <c r="CZ307" s="10">
+        <v>102.65</v>
+      </c>
+      <c r="DA307" s="10">
+        <v>120.71</v>
+      </c>
+      <c r="DC307" s="10"/>
+      <c r="DD307" s="10"/>
+      <c r="DE307" s="10"/>
+      <c r="DF307" s="10"/>
+      <c r="DG307" s="10"/>
+      <c r="DH307" s="10"/>
+      <c r="DI307" s="10"/>
+      <c r="DJ307" s="10"/>
+      <c r="DK307" s="10"/>
+      <c r="DL307" s="10"/>
+      <c r="DM307" s="10"/>
+      <c r="DN307" s="10"/>
+      <c r="DO307" s="10"/>
+      <c r="DP307" s="10"/>
+      <c r="DQ307" s="10"/>
+      <c r="DR307" s="10"/>
+      <c r="DS307" s="10"/>
+      <c r="DT307" s="10"/>
+      <c r="DU307" s="10"/>
+      <c r="DV307" s="10"/>
+      <c r="DW307" s="10"/>
+      <c r="DX307" s="10"/>
+      <c r="DY307" s="8">
+        <v>130</v>
+      </c>
+      <c r="DZ307" s="8">
+        <v>125.7</v>
+      </c>
+      <c r="EA307" s="8">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="A308" s="11">
+        <v>44896</v>
+      </c>
+      <c r="B308" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="C308" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="D308" s="9">
+        <v>129.20509999999999</v>
+      </c>
+      <c r="E308" s="9">
+        <v>127.9786</v>
+      </c>
+      <c r="F308" s="8">
+        <v>118.4</v>
+      </c>
+      <c r="G308" s="8">
+        <v>138.5</v>
+      </c>
+      <c r="H308" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="I308" s="8">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="J308" s="8">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="K308" s="8">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="L308" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="M308" s="8">
+        <v>127.6</v>
+      </c>
+      <c r="N308" s="8">
+        <v>131.9</v>
+      </c>
+      <c r="O308" s="8">
+        <v>127.1</v>
+      </c>
+      <c r="P308" s="8">
+        <v>132.1</v>
+      </c>
+      <c r="Q308" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="R308" s="8">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="S308" s="8">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="T308" s="8">
+        <v>131.5</v>
+      </c>
+      <c r="U308" s="8">
+        <v>132.6</v>
+      </c>
+      <c r="V308" s="8">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="W308" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="X308" s="8">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="Y308" s="8">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="Z308" s="8">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="AA308" s="8">
+        <v>131</v>
+      </c>
+      <c r="AB308" s="8">
+        <v>130.9</v>
+      </c>
+      <c r="AC308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AD308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AE308" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AF308" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AG308" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AH308" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AI308" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AJ308" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AK308" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AL308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AM308" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="AN308" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO308" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AP308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AQ308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AR308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AS308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AT308" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AV308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AW308" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AX308" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AZ308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="BA308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BB308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BC308" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD308" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="BE308" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="BF308" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="BG308" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="BH308" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BI308" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="BJ308" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="BK308" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="BL308" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="BM308" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="BN308" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="BO308" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BP308" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="BQ308" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BR308" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="BS308" s="8">
+        <v>7</v>
+      </c>
+      <c r="BT308" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="BU308" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BV308" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="BW308" s="8">
+        <v>8</v>
+      </c>
+      <c r="BX308" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="BY308" s="8">
+        <v>8</v>
+      </c>
+      <c r="BZ308" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="CA308" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="CB308" s="8">
+        <v>8</v>
+      </c>
+      <c r="CC308" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="CD308" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="CE308" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="CF308" s="10">
+        <v>45.1</v>
+      </c>
+      <c r="CG308" s="10">
+        <v>85.72</v>
+      </c>
+      <c r="CH308" s="10">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="CI308" s="10">
+        <v>57.46</v>
+      </c>
+      <c r="CJ308" s="10">
+        <v>58.96</v>
+      </c>
+      <c r="CK308" s="10">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="CL308" s="10">
+        <v>98.58</v>
+      </c>
+      <c r="CM308" s="10">
+        <v>108.53</v>
+      </c>
+      <c r="CN308" s="10">
+        <v>120.59</v>
+      </c>
+      <c r="CO308" s="10">
+        <v>126.37</v>
+      </c>
+      <c r="CP308" s="10">
+        <v>101.69</v>
+      </c>
+      <c r="CQ308" s="10">
+        <v>119.15</v>
+      </c>
+      <c r="CR308" s="10">
+        <v>122.72</v>
+      </c>
+      <c r="CS308" s="10">
+        <v>116.46</v>
+      </c>
+      <c r="CT308" s="10">
+        <v>127.86</v>
+      </c>
+      <c r="CU308" s="10">
+        <v>116.13</v>
+      </c>
+      <c r="CV308" s="10">
+        <v>125.13</v>
+      </c>
+      <c r="CW308" s="10">
+        <v>123.53</v>
+      </c>
+      <c r="CX308" s="10">
+        <v>94.41</v>
+      </c>
+      <c r="CY308" s="10">
+        <v>125.04</v>
+      </c>
+      <c r="CZ308" s="10">
+        <v>104.62</v>
+      </c>
+      <c r="DA308" s="10">
+        <v>123.24</v>
+      </c>
+      <c r="DB308" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DC308" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="DD308" s="10">
+        <v>1.71</v>
+      </c>
+      <c r="DE308" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="DF308" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="DG308" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="DH308" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="DI308" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="DJ308" s="10">
+        <v>2.19</v>
+      </c>
+      <c r="DK308" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="DL308" s="10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="DM308" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="DN308" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="DO308" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DP308" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="DQ308" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="DR308" s="10">
+        <v>1.61</v>
+      </c>
+      <c r="DS308" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="DT308" s="10">
+        <v>2.23</v>
+      </c>
+      <c r="DU308" s="10">
+        <v>1.68</v>
+      </c>
+      <c r="DV308" s="10">
+        <v>2.31</v>
+      </c>
+      <c r="DW308" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="DX308" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="DY308" s="8">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="DZ308" s="8">
+        <v>129</v>
+      </c>
+      <c r="EA308" s="8">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -52365,7 +54983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
